--- a/frtaltintfit.xlsx
+++ b/frtaltintfit.xlsx
@@ -60,19 +60,19 @@
     <t xml:space="preserve">=~</t>
   </si>
   <si>
-    <t xml:space="preserve">security_freedom_4</t>
+    <t xml:space="preserve">security_freedom_5</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>
   </si>
   <si>
-    <t xml:space="preserve">security_freedom_5</t>
+    <t xml:space="preserve">security_freedom_6</t>
   </si>
   <si>
     <t xml:space="preserve">3</t>
   </si>
   <si>
-    <t xml:space="preserve">security_freedom_6</t>
+    <t xml:space="preserve">security_freedom_7</t>
   </si>
   <si>
     <t xml:space="preserve">4</t>
@@ -444,15 +444,15 @@
     <t xml:space="preserve">est.std</t>
   </si>
   <si>
-    <t xml:space="preserve">cov.security_freedom_4</t>
-  </si>
-  <si>
     <t xml:space="preserve">cov.security_freedom_5</t>
   </si>
   <si>
     <t xml:space="preserve">cov.security_freedom_6</t>
   </si>
   <si>
+    <t xml:space="preserve">cov.security_freedom_7</t>
+  </si>
+  <si>
     <t xml:space="preserve">cov.Nar_5correct</t>
   </si>
   <si>
@@ -504,58 +504,58 @@
     <t xml:space="preserve">mean</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15088734913504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12721861149384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2159759878296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14201208596387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57692361950378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58875788903982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53846183120325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52071020430021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13017799986005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81656851472256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32840268360614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90828394129757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93195253268282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02070988260738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14792910564121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8461540796134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63609477966035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42307722096736</t>
+    <t xml:space="preserve">5.12721884751858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2159763022284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45857982337709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1420120438462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57692330549243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58875763088141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5384618307901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52071027666705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13017782100386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81656838052817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32840263797185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9082840735615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93195274554135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02071013889063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14792894268443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84615379040354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63609463918502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42307707814826</t>
   </si>
   <si>
     <t xml:space="preserve">0.5</t>
@@ -567,58 +567,58 @@
     <t xml:space="preserve">raw</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0000002248294554974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000000323417406633553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000000343531342039682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.000000251644347137869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.000000542580707474372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.00000049259011891678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.000000292741709095878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.000000145128614903456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.000000485067155331365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.000000467385278479782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.000000316742238659629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0000000823710735176064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000000130039069290433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000000176564219245279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.000000111558365212261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.000000233459552134718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.000000105104135172951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.000000297890441647297</t>
+    <t xml:space="preserve">0.0000000873926664368696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0000000291325488177563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0000000582797197168361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.000000209526669792126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.000000228569351889973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.00000023443170249493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.000000292328560469457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.000000217495451870775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.000000306210959699627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.000000333190886880885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.000000271107946758775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0000000498928631742501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0000000828194570701157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.000000079719032264336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0000000513984090844133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0000000557503083697952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0000000353711921974309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.000000155071337548662</t>
   </si>
   <si>
     <t xml:space="preserve">0</t>
@@ -633,13 +633,13 @@
     <t xml:space="preserve">fmin</t>
   </si>
   <si>
-    <t xml:space="preserve">0.296224159202634</t>
+    <t xml:space="preserve">0.294007429200095</t>
   </si>
   <si>
     <t xml:space="preserve">chisq</t>
   </si>
   <si>
-    <t xml:space="preserve">200.24753162098</t>
+    <t xml:space="preserve">198.749022139264</t>
   </si>
   <si>
     <t xml:space="preserve">df</t>
@@ -648,13 +648,13 @@
     <t xml:space="preserve">135</t>
   </si>
   <si>
-    <t xml:space="preserve">0.000227348814487938</t>
+    <t xml:space="preserve">0.000295668601515309</t>
   </si>
   <si>
     <t xml:space="preserve">baseline.chisq</t>
   </si>
   <si>
-    <t xml:space="preserve">3435.034959429</t>
+    <t xml:space="preserve">3583.18202801284</t>
   </si>
   <si>
     <t xml:space="preserve">baseline.df</t>
@@ -669,49 +669,49 @@
     <t xml:space="preserve">cfi</t>
   </si>
   <si>
-    <t xml:space="preserve">0.980010161523394</t>
+    <t xml:space="preserve">0.981317227036569</t>
   </si>
   <si>
     <t xml:space="preserve">tli</t>
   </si>
   <si>
-    <t xml:space="preserve">0.974679537929633</t>
+    <t xml:space="preserve">0.97633515424632</t>
   </si>
   <si>
     <t xml:space="preserve">cfi.robust</t>
   </si>
   <si>
+    <t xml:space="preserve">0.981317227036568</t>
+  </si>
+  <si>
     <t xml:space="preserve">tli.robust</t>
   </si>
   <si>
-    <t xml:space="preserve">0.974679537929632</t>
-  </si>
-  <si>
     <t xml:space="preserve">nnfi</t>
   </si>
   <si>
     <t xml:space="preserve">rfi</t>
   </si>
   <si>
-    <t xml:space="preserve">0.926158866974461</t>
+    <t xml:space="preserve">0.929741565064721</t>
   </si>
   <si>
     <t xml:space="preserve">nfi</t>
   </si>
   <si>
-    <t xml:space="preserve">0.941704368664048</t>
+    <t xml:space="preserve">0.94453281452478</t>
   </si>
   <si>
     <t xml:space="preserve">pnfi</t>
   </si>
   <si>
-    <t xml:space="preserve">0.743450817366353</t>
+    <t xml:space="preserve">0.745683800940616</t>
   </si>
   <si>
     <t xml:space="preserve">ifi</t>
   </si>
   <si>
-    <t xml:space="preserve">0.980228230178425</t>
+    <t xml:space="preserve">0.981512280494078</t>
   </si>
   <si>
     <t xml:space="preserve">rni</t>
@@ -726,25 +726,25 @@
     <t xml:space="preserve">logl</t>
   </si>
   <si>
-    <t xml:space="preserve">-9912.27641710615</t>
+    <t xml:space="preserve">-9834.65710009872</t>
   </si>
   <si>
     <t xml:space="preserve">unrestricted.logl</t>
   </si>
   <si>
-    <t xml:space="preserve">-9812.15265129566</t>
+    <t xml:space="preserve">-9735.28258902909</t>
   </si>
   <si>
     <t xml:space="preserve">aic</t>
   </si>
   <si>
-    <t xml:space="preserve">19968.5528342123</t>
+    <t xml:space="preserve">19813.3142001974</t>
   </si>
   <si>
     <t xml:space="preserve">bic</t>
   </si>
   <si>
-    <t xml:space="preserve">20243.8121386871</t>
+    <t xml:space="preserve">20088.5735046722</t>
   </si>
   <si>
     <t xml:space="preserve">ntotal</t>
@@ -756,25 +756,25 @@
     <t xml:space="preserve">bic2</t>
   </si>
   <si>
-    <t xml:space="preserve">20015.4170428952</t>
+    <t xml:space="preserve">19860.1784088803</t>
   </si>
   <si>
     <t xml:space="preserve">rmsea</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0378143647388719</t>
+    <t xml:space="preserve">0.037377610091101</t>
   </si>
   <si>
     <t xml:space="preserve">rmsea.ci.lower</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0261849582138277</t>
+    <t xml:space="preserve">0.0256433909774619</t>
   </si>
   <si>
     <t xml:space="preserve">rmsea.ci.upper</t>
   </si>
   <si>
-    <t xml:space="preserve">0.048468244889369</t>
+    <t xml:space="preserve">0.0480801518756265</t>
   </si>
   <si>
     <t xml:space="preserve">rmsea.ci.level</t>
@@ -786,7 +786,7 @@
     <t xml:space="preserve">rmsea.pvalue</t>
   </si>
   <si>
-    <t xml:space="preserve">0.97117126117154</t>
+    <t xml:space="preserve">0.97511137913053</t>
   </si>
   <si>
     <t xml:space="preserve">rmsea.close.h0</t>
@@ -798,7 +798,7 @@
     <t xml:space="preserve">rmsea.notclose.pvalue</t>
   </si>
   <si>
-    <t xml:space="preserve">0.000000000000226277868140862</t>
+    <t xml:space="preserve">0.000000000000144055583301479</t>
   </si>
   <si>
     <t xml:space="preserve">rmsea.notclose.h0</t>
@@ -810,49 +810,49 @@
     <t xml:space="preserve">rmsea.robust</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0378143647388721</t>
+    <t xml:space="preserve">0.0373776100911019</t>
   </si>
   <si>
     <t xml:space="preserve">rmsea.ci.lower.robust</t>
   </si>
   <si>
-    <t xml:space="preserve">0.026184958213828</t>
+    <t xml:space="preserve">0.0256433909774631</t>
   </si>
   <si>
     <t xml:space="preserve">rmsea.ci.upper.robust</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0484682448893692</t>
+    <t xml:space="preserve">0.0480801518756272</t>
   </si>
   <si>
     <t xml:space="preserve">rmsea.pvalue.robust</t>
   </si>
   <si>
-    <t xml:space="preserve">0.971171261171537</t>
+    <t xml:space="preserve">0.975111379130523</t>
   </si>
   <si>
     <t xml:space="preserve">rmsea.notclose.pvalue.robust</t>
   </si>
   <si>
-    <t xml:space="preserve">0.000000000000226277868140872</t>
+    <t xml:space="preserve">0.000000000000144055583301587</t>
   </si>
   <si>
     <t xml:space="preserve">rmr</t>
   </si>
   <si>
-    <t xml:space="preserve">0.118942534219225</t>
+    <t xml:space="preserve">0.11891074888518</t>
   </si>
   <si>
     <t xml:space="preserve">rmr_nomean</t>
   </si>
   <si>
-    <t xml:space="preserve">0.124747982312867</t>
+    <t xml:space="preserve">0.124714645573303</t>
   </si>
   <si>
     <t xml:space="preserve">srmr</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0421139986511756</t>
+    <t xml:space="preserve">0.0419814872195312</t>
   </si>
   <si>
     <t xml:space="preserve">srmr_bentler</t>
@@ -861,73 +861,73 @@
     <t xml:space="preserve">srmr_bentler_nomean</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0441695344171439</t>
+    <t xml:space="preserve">0.0440305552551747</t>
   </si>
   <si>
     <t xml:space="preserve">crmr</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0441628858318962</t>
+    <t xml:space="preserve">0.0440299552635403</t>
   </si>
   <si>
     <t xml:space="preserve">crmr_nomean</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0465517690915539</t>
+    <t xml:space="preserve">0.0464116479693565</t>
   </si>
   <si>
     <t xml:space="preserve">srmr_mplus</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0421128069468409</t>
+    <t xml:space="preserve">0.0419852301737624</t>
   </si>
   <si>
     <t xml:space="preserve">srmr_mplus_nomean</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0441647295964954</t>
+    <t xml:space="preserve">0.0440314553258057</t>
   </si>
   <si>
     <t xml:space="preserve">cn_05</t>
   </si>
   <si>
-    <t xml:space="preserve">276.325451565009</t>
+    <t xml:space="preserve">278.401324921703</t>
   </si>
   <si>
     <t xml:space="preserve">cn_01</t>
   </si>
   <si>
-    <t xml:space="preserve">298.305775953916</t>
+    <t xml:space="preserve">300.547374526028</t>
   </si>
   <si>
     <t xml:space="preserve">gfi</t>
   </si>
   <si>
-    <t xml:space="preserve">0.990489837614022</t>
+    <t xml:space="preserve">0.990525648938432</t>
   </si>
   <si>
     <t xml:space="preserve">agfi</t>
   </si>
   <si>
-    <t xml:space="preserve">0.985276859713561</t>
+    <t xml:space="preserve">0.985332300949128</t>
   </si>
   <si>
     <t xml:space="preserve">pgfi</t>
   </si>
   <si>
-    <t xml:space="preserve">0.639790086497096</t>
+    <t xml:space="preserve">0.63981321821382</t>
   </si>
   <si>
     <t xml:space="preserve">mfi</t>
   </si>
   <si>
-    <t xml:space="preserve">0.907991721974295</t>
+    <t xml:space="preserve">0.910006727002377</t>
   </si>
   <si>
     <t xml:space="preserve">ecvi</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01848382136385</t>
+    <t xml:space="preserve">1.01405036135877</t>
   </si>
 </sst>
 </file>
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1.17181540979835</v>
+        <v>1.11586230500991</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0712995434439685</v>
+        <v>0.0508437489430931</v>
       </c>
       <c r="H3" t="n">
-        <v>16.4351039739718</v>
+        <v>21.9468927489758</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.04463575278246</v>
+        <v>1.02812473612386</v>
       </c>
       <c r="K3" t="n">
-        <v>1.32622361347872</v>
+        <v>1.23155141149261</v>
       </c>
     </row>
     <row r="4">
@@ -1377,22 +1377,22 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1.14069233875644</v>
+        <v>0.993288817421628</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0825127181208196</v>
+        <v>0.0523045392653777</v>
       </c>
       <c r="H4" t="n">
-        <v>13.8244426402992</v>
+        <v>18.9904897619301</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1.00100745191639</v>
+        <v>0.892778271146269</v>
       </c>
       <c r="K4" t="n">
-        <v>1.32359662887189</v>
+        <v>1.0981952493893</v>
       </c>
     </row>
     <row r="5">
@@ -1443,22 +1443,22 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.919997874169355</v>
+        <v>0.916409994278956</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0603175755109251</v>
+        <v>0.0601823359854602</v>
       </c>
       <c r="H6" t="n">
-        <v>15.2525672057677</v>
+        <v>15.227225385541</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.802059988670128</v>
+        <v>0.798264112618752</v>
       </c>
       <c r="K6" t="n">
-        <v>1.04363486818887</v>
+        <v>1.04113080639338</v>
       </c>
     </row>
     <row r="7">
@@ -1478,22 +1478,22 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.840588756780239</v>
+        <v>0.838893806480202</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0666393082270631</v>
+        <v>0.0665290053388364</v>
       </c>
       <c r="H7" t="n">
-        <v>12.6140078452805</v>
+        <v>12.6094445904859</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.713220856893604</v>
+        <v>0.711290985060454</v>
       </c>
       <c r="K7" t="n">
-        <v>0.975828410184826</v>
+        <v>0.973933556847704</v>
       </c>
     </row>
     <row r="8">
@@ -1513,22 +1513,22 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.897971675600075</v>
+        <v>0.892706860299887</v>
       </c>
       <c r="G8" t="n">
-        <v>0.068761494303646</v>
+        <v>0.0689231349013497</v>
       </c>
       <c r="H8" t="n">
-        <v>13.059222820765</v>
+        <v>12.952209175883</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.766095628939163</v>
+        <v>0.759155725262207</v>
       </c>
       <c r="K8" t="n">
-        <v>1.03341490924674</v>
+        <v>1.02754229615512</v>
       </c>
     </row>
     <row r="9">
@@ -1579,22 +1579,22 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1.30912727163953</v>
+        <v>1.30518440743702</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1531372224295</v>
+        <v>0.151607205170159</v>
       </c>
       <c r="H10" t="n">
-        <v>8.54872023189665</v>
+        <v>8.60898666374154</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1.06098207358668</v>
+        <v>1.06085268714036</v>
       </c>
       <c r="K10" t="n">
-        <v>1.67233361034872</v>
+        <v>1.661927532325</v>
       </c>
     </row>
     <row r="11">
@@ -1614,22 +1614,22 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.35544965218577</v>
+        <v>1.3541655367661</v>
       </c>
       <c r="G11" t="n">
-        <v>0.158098165185994</v>
+        <v>0.158289054268318</v>
       </c>
       <c r="H11" t="n">
-        <v>8.57346858258067</v>
+        <v>8.55501691526083</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1.10477537182633</v>
+        <v>1.10374645108037</v>
       </c>
       <c r="K11" t="n">
-        <v>1.73447842176623</v>
+        <v>1.73071967897095</v>
       </c>
     </row>
     <row r="12">
@@ -1649,22 +1649,22 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.960409694335139</v>
+        <v>0.961067753966633</v>
       </c>
       <c r="G12" t="n">
-        <v>0.141735630298674</v>
+        <v>0.141662152711512</v>
       </c>
       <c r="H12" t="n">
-        <v>6.77606394603323</v>
+        <v>6.78422384222692</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0000000000123494547921155</v>
+        <v>0.0000000000116713305686744</v>
       </c>
       <c r="J12" t="n">
-        <v>0.727776469036968</v>
+        <v>0.728552834955289</v>
       </c>
       <c r="K12" t="n">
-        <v>1.27979111942932</v>
+        <v>1.2814862753385</v>
       </c>
     </row>
     <row r="13">
@@ -1715,22 +1715,22 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.1179541409828</v>
+        <v>1.11796225251786</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0470344760607378</v>
+        <v>0.0470325163261525</v>
       </c>
       <c r="H14" t="n">
-        <v>23.7688230977451</v>
+        <v>23.7699859553595</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1.03107257751476</v>
+        <v>1.03102981490737</v>
       </c>
       <c r="K14" t="n">
-        <v>1.21612191258394</v>
+        <v>1.21578269015032</v>
       </c>
     </row>
     <row r="15">
@@ -1750,22 +1750,22 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1.11415366145544</v>
+        <v>1.11415062606308</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0459769087078258</v>
+        <v>0.0459670962654558</v>
       </c>
       <c r="H15" t="n">
-        <v>24.2328963118349</v>
+        <v>24.2380031931746</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.0286504084847</v>
+        <v>1.02886706592252</v>
       </c>
       <c r="K15" t="n">
-        <v>1.21213771542468</v>
+        <v>1.21230323658926</v>
       </c>
     </row>
     <row r="16">
@@ -1816,22 +1816,22 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1.25348481493664</v>
+        <v>1.25546428833147</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0731337110955183</v>
+        <v>0.0735548694487029</v>
       </c>
       <c r="H17" t="n">
-        <v>17.1396309056366</v>
+        <v>17.0684048213427</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1.12350805784285</v>
+        <v>1.12570454443072</v>
       </c>
       <c r="K17" t="n">
-        <v>1.41791012297864</v>
+        <v>1.42030262257764</v>
       </c>
     </row>
     <row r="18">
@@ -1851,22 +1851,22 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1.04642908550153</v>
+        <v>1.04640205210747</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0661280152668343</v>
+        <v>0.066111595457448</v>
       </c>
       <c r="H18" t="n">
-        <v>15.8242929457214</v>
+        <v>15.8278142414665</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.928000264452193</v>
+        <v>0.928137087478621</v>
       </c>
       <c r="K18" t="n">
-        <v>1.18590075136515</v>
+        <v>1.18581142579754</v>
       </c>
     </row>
     <row r="19">
@@ -1886,22 +1886,22 @@
         <v>54</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.484789617006675</v>
+        <v>-0.485946497524365</v>
       </c>
       <c r="G19" t="n">
-        <v>0.132480894900415</v>
+        <v>0.133332820783568</v>
       </c>
       <c r="H19" t="n">
-        <v>-3.65931719717841</v>
+        <v>-3.64461274177328</v>
       </c>
       <c r="I19" t="n">
-        <v>0.000252888163774667</v>
+        <v>0.000267794726023451</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.762513397778381</v>
+        <v>-0.761894326280582</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.242722978310525</v>
+        <v>-0.239816219500287</v>
       </c>
     </row>
     <row r="20">
@@ -1921,22 +1921,22 @@
         <v>56</v>
       </c>
       <c r="F20" t="n">
-        <v>0.591067809217898</v>
+        <v>0.5901460905879</v>
       </c>
       <c r="G20" t="n">
-        <v>0.102647551596493</v>
+        <v>0.103958702249461</v>
       </c>
       <c r="H20" t="n">
-        <v>5.75822608552206</v>
+        <v>5.67673583661882</v>
       </c>
       <c r="I20" t="n">
-        <v>0.00000000850024584053699</v>
+        <v>0.000000013728923331513</v>
       </c>
       <c r="J20" t="n">
-        <v>0.405367803364052</v>
+        <v>0.399747695780478</v>
       </c>
       <c r="K20" t="n">
-        <v>0.810460685157432</v>
+        <v>0.813436098198593</v>
       </c>
     </row>
     <row r="21">
@@ -1956,22 +1956,22 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.0512023218540093</v>
+        <v>-0.0589506087189561</v>
       </c>
       <c r="G21" t="n">
-        <v>0.179988709922445</v>
+        <v>0.179854073527168</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.28447518667183</v>
+        <v>-0.327769105046438</v>
       </c>
       <c r="I21" t="n">
-        <v>0.776046247035063</v>
+        <v>0.743086248607618</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.414550562097787</v>
+        <v>-0.419546616100401</v>
       </c>
       <c r="K21" t="n">
-        <v>0.293930640869401</v>
+        <v>0.284980647707113</v>
       </c>
     </row>
     <row r="22">
@@ -1991,22 +1991,22 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.0980172817645653</v>
+        <v>-0.07934135792143</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0807020717261812</v>
+        <v>0.0723510766184411</v>
       </c>
       <c r="H22" t="n">
-        <v>-1.21455719373765</v>
+        <v>-1.09661613385318</v>
       </c>
       <c r="I22" t="n">
-        <v>0.224535023585904</v>
+        <v>0.272809231672692</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.254624289466669</v>
+        <v>-0.224400010658356</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0602126079238676</v>
+        <v>0.0643291627699834</v>
       </c>
     </row>
     <row r="23">
@@ -2026,22 +2026,22 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.154393369642045</v>
+        <v>-0.154883147085311</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0901644805333194</v>
+        <v>0.0899164486741442</v>
       </c>
       <c r="H23" t="n">
-        <v>-1.71235245552144</v>
+        <v>-1.72252295735795</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0868317352394463</v>
+        <v>0.0849748277464424</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.336276089783452</v>
+        <v>-0.337792956812881</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0173714122481036</v>
+        <v>0.0162277003323305</v>
       </c>
     </row>
     <row r="24">
@@ -2061,22 +2061,22 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.11690130924932</v>
+        <v>0.125347640642386</v>
       </c>
       <c r="G24" t="n">
-        <v>0.118940442066485</v>
+        <v>0.118302589242389</v>
       </c>
       <c r="H24" t="n">
-        <v>0.982855849686304</v>
+        <v>1.05955111756313</v>
       </c>
       <c r="I24" t="n">
-        <v>0.325678389805103</v>
+        <v>0.289348862158666</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.11733716147996</v>
+        <v>-0.109405869865005</v>
       </c>
       <c r="K24" t="n">
-        <v>0.352858246170895</v>
+        <v>0.359412118715536</v>
       </c>
     </row>
     <row r="25">
@@ -2096,22 +2096,22 @@
         <v>63</v>
       </c>
       <c r="F25" t="n">
-        <v>0.117854728878283</v>
+        <v>0.110524754626786</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0584350948374053</v>
+        <v>0.0520040619782089</v>
       </c>
       <c r="H25" t="n">
-        <v>2.01684842313018</v>
+        <v>2.12531003199518</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0437113338665545</v>
+        <v>0.0335607517365466</v>
       </c>
       <c r="J25" t="n">
-        <v>0.001364424106711</v>
+        <v>0.00733722351500788</v>
       </c>
       <c r="K25" t="n">
-        <v>0.234115135026667</v>
+        <v>0.214932290977339</v>
       </c>
     </row>
     <row r="26">
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.0249798510932282</v>
+        <v>-0.0257545760988791</v>
       </c>
       <c r="G26" t="n">
-        <v>0.135301581679968</v>
+        <v>0.134324959944916</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.184623496511028</v>
+        <v>-0.191733361464917</v>
       </c>
       <c r="I26" t="n">
-        <v>0.85352435520421</v>
+        <v>0.847951072109037</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.303365037812529</v>
+        <v>-0.303259491839884</v>
       </c>
       <c r="K26" t="n">
-        <v>0.226273964832094</v>
+        <v>0.22230488310443</v>
       </c>
     </row>
     <row r="27">
@@ -2166,22 +2166,22 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.153334114788501</v>
+        <v>0.15464419639057</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0635705292505738</v>
+        <v>0.063415773157905</v>
       </c>
       <c r="H27" t="n">
-        <v>2.41203143337236</v>
+        <v>2.43857621991782</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0158639137750387</v>
+        <v>0.0147452487726676</v>
       </c>
       <c r="J27" t="n">
-        <v>0.0335879987254102</v>
+        <v>0.0366791692964367</v>
       </c>
       <c r="K27" t="n">
-        <v>0.28394602585627</v>
+        <v>0.286442576655632</v>
       </c>
     </row>
     <row r="28">
@@ -2201,22 +2201,22 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.158793452492334</v>
+        <v>0.153587275815575</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0850640633698116</v>
+        <v>0.0841083346445454</v>
       </c>
       <c r="H28" t="n">
-        <v>1.86675131896754</v>
+        <v>1.82606487769207</v>
       </c>
       <c r="I28" t="n">
-        <v>0.061936323530537</v>
+        <v>0.067840489899825</v>
       </c>
       <c r="J28" t="n">
-        <v>0.00207637008449691</v>
+        <v>-0.0026605503545176</v>
       </c>
       <c r="K28" t="n">
-        <v>0.330521591122927</v>
+        <v>0.323711400975016</v>
       </c>
     </row>
     <row r="29">
@@ -2236,22 +2236,22 @@
         <v>68</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.154554576137129</v>
+        <v>-0.156926716109571</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0733019513023566</v>
+        <v>0.0640911774256635</v>
       </c>
       <c r="H29" t="n">
-        <v>-2.10846469147351</v>
+        <v>-2.44849170217826</v>
       </c>
       <c r="I29" t="n">
-        <v>0.0349908138040746</v>
+        <v>0.014345573427569</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.305618608940638</v>
+        <v>-0.28516689122464</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.0153928180564545</v>
+        <v>-0.031645185548705</v>
       </c>
     </row>
     <row r="30">
@@ -2271,22 +2271,22 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.0360542783052567</v>
+        <v>-0.028430299898707</v>
       </c>
       <c r="G30" t="n">
-        <v>0.170241920223601</v>
+        <v>0.170083390254601</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.211782610639624</v>
+        <v>-0.167155063502374</v>
       </c>
       <c r="I30" t="n">
-        <v>0.832276635508401</v>
+        <v>0.867248041009566</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.376222785664418</v>
+        <v>-0.366268593372749</v>
       </c>
       <c r="K30" t="n">
-        <v>0.289539540981809</v>
+        <v>0.303492269481497</v>
       </c>
     </row>
     <row r="31">
@@ -2306,22 +2306,22 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.333081797005793</v>
+        <v>0.332331389621224</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0702096856820817</v>
+        <v>0.07004123589648</v>
       </c>
       <c r="H31" t="n">
-        <v>4.74410038686157</v>
+        <v>4.74479619566401</v>
       </c>
       <c r="I31" t="n">
-        <v>0.00000209434975739775</v>
+        <v>0.00000208716368699235</v>
       </c>
       <c r="J31" t="n">
-        <v>0.197443683124256</v>
+        <v>0.196636640187422</v>
       </c>
       <c r="K31" t="n">
-        <v>0.472942504418047</v>
+        <v>0.470126634438488</v>
       </c>
     </row>
     <row r="32">
@@ -2341,22 +2341,22 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.344540447100724</v>
+        <v>0.349905239674108</v>
       </c>
       <c r="G32" t="n">
-        <v>0.105833989336966</v>
+        <v>0.104313787981676</v>
       </c>
       <c r="H32" t="n">
-        <v>3.25548010860421</v>
+        <v>3.35435273173642</v>
       </c>
       <c r="I32" t="n">
-        <v>0.00113200825717907</v>
+        <v>0.00079550885294144</v>
       </c>
       <c r="J32" t="n">
-        <v>0.144878676851492</v>
+        <v>0.154200961394192</v>
       </c>
       <c r="K32" t="n">
-        <v>0.561827642513539</v>
+        <v>0.567348564501452</v>
       </c>
     </row>
     <row r="33">
@@ -2376,22 +2376,22 @@
         <v>73</v>
       </c>
       <c r="F33" t="n">
-        <v>0.590671877936743</v>
+        <v>0.63321292779293</v>
       </c>
       <c r="G33" t="n">
-        <v>0.156483664011301</v>
+        <v>0.171367818630468</v>
       </c>
       <c r="H33" t="n">
-        <v>3.77465521189538</v>
+        <v>3.6950515730049</v>
       </c>
       <c r="I33" t="n">
-        <v>0.000160229121357824</v>
+        <v>0.000219842159625339</v>
       </c>
       <c r="J33" t="n">
-        <v>0.27811719326089</v>
+        <v>0.290743214100542</v>
       </c>
       <c r="K33" t="n">
-        <v>0.891677529488151</v>
+        <v>0.957168456582804</v>
       </c>
     </row>
     <row r="34">
@@ -2411,22 +2411,22 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.00376866992849065</v>
+        <v>-0.012923640761838</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0721653426178165</v>
+        <v>0.0771345801058175</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.0522227123405942</v>
+        <v>-0.167546653447891</v>
       </c>
       <c r="I34" t="n">
-        <v>0.958351235792779</v>
+        <v>0.86693994214474</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.143441231053896</v>
+        <v>-0.168105974653811</v>
       </c>
       <c r="K34" t="n">
-        <v>0.140471851830837</v>
+        <v>0.135996406450199</v>
       </c>
     </row>
     <row r="35">
@@ -2446,22 +2446,22 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.355708787677269</v>
+        <v>-0.328103071027811</v>
       </c>
       <c r="G35" t="n">
-        <v>0.104241559537467</v>
+        <v>0.107111117769894</v>
       </c>
       <c r="H35" t="n">
-        <v>-3.41235097839666</v>
+        <v>-3.0632027548501</v>
       </c>
       <c r="I35" t="n">
-        <v>0.000644051304877769</v>
+        <v>0.00218981634630722</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.56897897932154</v>
+        <v>-0.540675021840664</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.15955543801843</v>
+        <v>-0.121795381034643</v>
       </c>
     </row>
     <row r="36">
@@ -2481,22 +2481,22 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.732114314777273</v>
+        <v>0.740923494908785</v>
       </c>
       <c r="G36" t="n">
-        <v>0.158751733712542</v>
+        <v>0.158421683765301</v>
       </c>
       <c r="H36" t="n">
-        <v>4.61169335071919</v>
+        <v>4.67690708303826</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0000039940190526</v>
+        <v>0.00000291234137628216</v>
       </c>
       <c r="J36" t="n">
-        <v>0.424276454182965</v>
+        <v>0.434104202034582</v>
       </c>
       <c r="K36" t="n">
-        <v>1.04315533436274</v>
+        <v>1.05430045634981</v>
       </c>
     </row>
     <row r="37">
@@ -2516,22 +2516,22 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>1.06361397906115</v>
+        <v>0.986979899489773</v>
       </c>
       <c r="G37" t="n">
-        <v>0.197451586565928</v>
+        <v>0.189041092454117</v>
       </c>
       <c r="H37" t="n">
-        <v>5.38670768647388</v>
+        <v>5.22098072264012</v>
       </c>
       <c r="I37" t="n">
-        <v>0.0000000717599992761109</v>
+        <v>0.000000177978069171303</v>
       </c>
       <c r="J37" t="n">
-        <v>0.686155570424836</v>
+        <v>0.639952011806855</v>
       </c>
       <c r="K37" t="n">
-        <v>1.44952159015551</v>
+        <v>1.38167610641557</v>
       </c>
     </row>
     <row r="38">
@@ -2551,22 +2551,22 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.634898791457311</v>
+        <v>0.363625852315672</v>
       </c>
       <c r="G38" t="n">
-        <v>0.196539071948589</v>
+        <v>0.147688192928156</v>
       </c>
       <c r="H38" t="n">
-        <v>3.23039477678712</v>
+        <v>2.46211863728715</v>
       </c>
       <c r="I38" t="n">
-        <v>0.00123619397829788</v>
+        <v>0.0138118971405854</v>
       </c>
       <c r="J38" t="n">
-        <v>0.275605148120068</v>
+        <v>0.0906729580465984</v>
       </c>
       <c r="K38" t="n">
-        <v>1.03962418795828</v>
+        <v>0.680828209838824</v>
       </c>
     </row>
     <row r="39">
@@ -2586,22 +2586,22 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.7712018014151</v>
+        <v>0.625008067987104</v>
       </c>
       <c r="G39" t="n">
-        <v>0.163324495820399</v>
+        <v>0.141729502935456</v>
       </c>
       <c r="H39" t="n">
-        <v>4.72189917098018</v>
+        <v>4.40986565988123</v>
       </c>
       <c r="I39" t="n">
-        <v>0.00000233652516357097</v>
+        <v>0.000010343476567698</v>
       </c>
       <c r="J39" t="n">
-        <v>0.463127118299398</v>
+        <v>0.360397093432232</v>
       </c>
       <c r="K39" t="n">
-        <v>1.10748693352341</v>
+        <v>0.917183175842547</v>
       </c>
     </row>
     <row r="40">
@@ -2621,22 +2621,22 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>1.08653108686664</v>
+        <v>1.07507198185076</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1609299623173</v>
+        <v>0.159852295520274</v>
       </c>
       <c r="H40" t="n">
-        <v>6.75157733973967</v>
+        <v>6.72540846755877</v>
       </c>
       <c r="I40" t="n">
-        <v>0.0000000000146247458587823</v>
+        <v>0.0000000000175099934551781</v>
       </c>
       <c r="J40" t="n">
-        <v>0.780737498249898</v>
+        <v>0.770893053133795</v>
       </c>
       <c r="K40" t="n">
-        <v>1.41892949811265</v>
+        <v>1.4063055307344</v>
       </c>
     </row>
     <row r="41">
@@ -2656,22 +2656,22 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>1.03801069544683</v>
+        <v>1.04187942619956</v>
       </c>
       <c r="G41" t="n">
-        <v>0.144189364365002</v>
+        <v>0.144084264330829</v>
       </c>
       <c r="H41" t="n">
-        <v>7.19894078192343</v>
+        <v>7.23104241145526</v>
       </c>
       <c r="I41" t="n">
-        <v>0.00000000000060684790526011</v>
+        <v>0.000000000000479394302033143</v>
       </c>
       <c r="J41" t="n">
-        <v>0.767413158315887</v>
+        <v>0.770558228470313</v>
       </c>
       <c r="K41" t="n">
-        <v>1.3323666620123</v>
+        <v>1.33546795713526</v>
       </c>
     </row>
     <row r="42">
@@ -2691,22 +2691,22 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>1.73645609828315</v>
+        <v>1.73422065902337</v>
       </c>
       <c r="G42" t="n">
-        <v>0.206991023318439</v>
+        <v>0.207097152609819</v>
       </c>
       <c r="H42" t="n">
-        <v>8.38904059917492</v>
+        <v>8.37394738251531</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>1.34182945159286</v>
+        <v>1.34015889912538</v>
       </c>
       <c r="K42" t="n">
-        <v>2.14658951462289</v>
+        <v>2.14286208350752</v>
       </c>
     </row>
     <row r="43">
@@ -2726,22 +2726,22 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>1.42619923420533</v>
+        <v>1.43636643132947</v>
       </c>
       <c r="G43" t="n">
-        <v>0.164042253036967</v>
+        <v>0.166019616277872</v>
       </c>
       <c r="H43" t="n">
-        <v>8.69409684274414</v>
+        <v>8.65178744254765</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>1.10746893949841</v>
+        <v>1.11434628469912</v>
       </c>
       <c r="K43" t="n">
-        <v>1.74511415955319</v>
+        <v>1.76087455174807</v>
       </c>
     </row>
     <row r="44">
@@ -2761,22 +2761,22 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>1.69600589168235</v>
+        <v>1.69365414878292</v>
       </c>
       <c r="G44" t="n">
-        <v>0.201701497179886</v>
+        <v>0.201610775015704</v>
       </c>
       <c r="H44" t="n">
-        <v>8.40849431162021</v>
+        <v>8.40061325418247</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>1.30588355537872</v>
+        <v>1.30197321662968</v>
       </c>
       <c r="K44" t="n">
-        <v>2.10424788295344</v>
+        <v>2.10109589126912</v>
       </c>
     </row>
     <row r="45">
@@ -2796,22 +2796,22 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>1.8106302325603</v>
+        <v>1.81855123897484</v>
       </c>
       <c r="G45" t="n">
-        <v>0.275074250969919</v>
+        <v>0.273992824239247</v>
       </c>
       <c r="H45" t="n">
-        <v>6.58233268354262</v>
+        <v>6.63722213902547</v>
       </c>
       <c r="I45" t="n">
-        <v>0.0000000000463122873384236</v>
+        <v>0.0000000000319648751911927</v>
       </c>
       <c r="J45" t="n">
-        <v>1.25900243173891</v>
+        <v>1.2673719027011</v>
       </c>
       <c r="K45" t="n">
-        <v>2.34120103631015</v>
+        <v>2.3446878042849</v>
       </c>
     </row>
     <row r="46">
@@ -2831,22 +2831,22 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>1.53276281766671</v>
+        <v>1.5324748350171</v>
       </c>
       <c r="G46" t="n">
-        <v>0.200698298159163</v>
+        <v>0.200964510710137</v>
       </c>
       <c r="H46" t="n">
-        <v>7.63714905270973</v>
+        <v>7.6255993140375</v>
       </c>
       <c r="I46" t="n">
-        <v>0.0000000000000222044604925031</v>
+        <v>0.0000000000000242028619368284</v>
       </c>
       <c r="J46" t="n">
-        <v>1.13431203312356</v>
+        <v>1.13243353972849</v>
       </c>
       <c r="K46" t="n">
-        <v>1.91414640073457</v>
+        <v>1.91814570440024</v>
       </c>
     </row>
     <row r="47">
@@ -2866,22 +2866,22 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>2.09407201101556</v>
+        <v>2.09044905982509</v>
       </c>
       <c r="G47" t="n">
-        <v>0.211707881183863</v>
+        <v>0.211790169440786</v>
       </c>
       <c r="H47" t="n">
-        <v>9.89132761286727</v>
+        <v>9.8703781452404</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>1.65563946070371</v>
+        <v>1.65161013649633</v>
       </c>
       <c r="K47" t="n">
-        <v>2.49672337852655</v>
+        <v>2.49371292899311</v>
       </c>
     </row>
     <row r="48">
@@ -2901,22 +2901,22 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0.586361318196381</v>
+        <v>0.58636357092612</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0801124661432136</v>
+        <v>0.0801125030177709</v>
       </c>
       <c r="H48" t="n">
-        <v>7.3192269121783</v>
+        <v>7.31925166282784</v>
       </c>
       <c r="I48" t="n">
         <v>0.00000000000024935609133081</v>
       </c>
       <c r="J48" t="n">
-        <v>0.431803220561371</v>
+        <v>0.43178814295068</v>
       </c>
       <c r="K48" t="n">
-        <v>0.748655337506678</v>
+        <v>0.748669056730951</v>
       </c>
     </row>
     <row r="49">
@@ -2936,22 +2936,22 @@
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>0.23540599274337</v>
+        <v>0.235386820099333</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0542170077896471</v>
+        <v>0.0542574249412919</v>
       </c>
       <c r="H49" t="n">
-        <v>4.34192151762977</v>
+        <v>4.33833379217736</v>
       </c>
       <c r="I49" t="n">
-        <v>0.0000141241989752849</v>
+        <v>0.0000143566996586575</v>
       </c>
       <c r="J49" t="n">
-        <v>0.130438417250206</v>
+        <v>0.130500750544712</v>
       </c>
       <c r="K49" t="n">
-        <v>0.345485071548043</v>
+        <v>0.345925491050876</v>
       </c>
     </row>
     <row r="50">
@@ -2971,22 +2971,22 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>0.341414703591931</v>
+        <v>0.34143409069806</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0593642308599672</v>
+        <v>0.0594058578822906</v>
       </c>
       <c r="H50" t="n">
-        <v>5.7511854974974</v>
+        <v>5.74748186238793</v>
       </c>
       <c r="I50" t="n">
-        <v>0.00000000886198137095562</v>
+        <v>0.00000000905823127617111</v>
       </c>
       <c r="J50" t="n">
-        <v>0.229222589613619</v>
+        <v>0.229329983214197</v>
       </c>
       <c r="K50" t="n">
-        <v>0.458866383059805</v>
+        <v>0.458666232221311</v>
       </c>
     </row>
     <row r="51">
@@ -3006,22 +3006,22 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.480715096231759</v>
+        <v>0.481946895666075</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0654056552693647</v>
+        <v>0.065419675265214</v>
       </c>
       <c r="H51" t="n">
-        <v>7.34974818694188</v>
+        <v>7.36700226212134</v>
       </c>
       <c r="I51" t="n">
-        <v>0.000000000000198507876802978</v>
+        <v>0.000000000000174527059471075</v>
       </c>
       <c r="J51" t="n">
-        <v>0.357556445087202</v>
+        <v>0.35949061952549</v>
       </c>
       <c r="K51" t="n">
-        <v>0.61764211075906</v>
+        <v>0.61979965254625</v>
       </c>
     </row>
     <row r="52">
@@ -3041,22 +3041,22 @@
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0342550673213475</v>
+        <v>0.0322280031801685</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0429093562274875</v>
+        <v>0.0432116541410308</v>
       </c>
       <c r="H52" t="n">
-        <v>0.798312310717071</v>
+        <v>0.745817391645902</v>
       </c>
       <c r="I52" t="n">
-        <v>0.424689275758846</v>
+        <v>0.455777732526937</v>
       </c>
       <c r="J52" t="n">
-        <v>-0.0553678676757112</v>
+        <v>-0.0576808247381173</v>
       </c>
       <c r="K52" t="n">
-        <v>0.114737902108967</v>
+        <v>0.112973809844486</v>
       </c>
     </row>
     <row r="53">
@@ -3076,22 +3076,22 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>0.474712046154365</v>
+        <v>0.476106231550639</v>
       </c>
       <c r="G53" t="n">
-        <v>0.054603215613883</v>
+        <v>0.0549576360364834</v>
       </c>
       <c r="H53" t="n">
-        <v>8.6938478039683</v>
+        <v>8.66314976201994</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>0.369085520541664</v>
+        <v>0.369606217165615</v>
       </c>
       <c r="K53" t="n">
-        <v>0.584932800661855</v>
+        <v>0.588015332606482</v>
       </c>
     </row>
     <row r="54">
@@ -3111,22 +3111,22 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>2.34181501411934</v>
+        <v>2.34551314586016</v>
       </c>
       <c r="G54" t="n">
-        <v>0.177491076586347</v>
+        <v>0.177307377812185</v>
       </c>
       <c r="H54" t="n">
-        <v>13.1939873212729</v>
+        <v>13.2285140911884</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>1.93105760582725</v>
+        <v>1.93444743212158</v>
       </c>
       <c r="K54" t="n">
-        <v>2.62665981553618</v>
+        <v>2.62696335079831</v>
       </c>
     </row>
     <row r="55">
@@ -3146,22 +3146,22 @@
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>1.87421526504402</v>
+        <v>2.29769746289143</v>
       </c>
       <c r="G55" t="n">
-        <v>0.243984973716511</v>
+        <v>0.21681519079988</v>
       </c>
       <c r="H55" t="n">
-        <v>7.68168316472511</v>
+        <v>10.5974929819941</v>
       </c>
       <c r="I55" t="n">
-        <v>0.0000000000000157651669496772</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>1.38825347703411</v>
+        <v>1.84810484443169</v>
       </c>
       <c r="K55" t="n">
-        <v>2.35185922501468</v>
+        <v>2.70510294120107</v>
       </c>
     </row>
     <row r="56">
@@ -3181,22 +3181,22 @@
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>1.74343114824331</v>
+        <v>1.74154787719201</v>
       </c>
       <c r="G56" t="n">
-        <v>0.197072625162099</v>
+        <v>0.195281986782395</v>
       </c>
       <c r="H56" t="n">
-        <v>8.84664294094263</v>
+        <v>8.91811838811653</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>1.34400520146338</v>
+        <v>1.34695666257041</v>
       </c>
       <c r="K56" t="n">
-        <v>2.11210707378092</v>
+        <v>2.10709892836413</v>
       </c>
     </row>
     <row r="57">
@@ -3216,22 +3216,22 @@
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>1.09032485173404</v>
+        <v>1.09045407440556</v>
       </c>
       <c r="G57" t="n">
-        <v>0.206516943922997</v>
+        <v>0.206265601449303</v>
       </c>
       <c r="H57" t="n">
-        <v>5.27959028940784</v>
+        <v>5.2866501575813</v>
       </c>
       <c r="I57" t="n">
-        <v>0.000000129473067378427</v>
+        <v>0.000000124576561733036</v>
       </c>
       <c r="J57" t="n">
-        <v>0.683782947273306</v>
+        <v>0.68552444668358</v>
       </c>
       <c r="K57" t="n">
-        <v>1.49518775966159</v>
+        <v>1.49122990080391</v>
       </c>
     </row>
     <row r="58">
@@ -3251,22 +3251,22 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>1.53837377987128</v>
+        <v>1.53836212337433</v>
       </c>
       <c r="G58" t="n">
-        <v>0.155631706654298</v>
+        <v>0.155611394788064</v>
       </c>
       <c r="H58" t="n">
-        <v>9.88470674094994</v>
+        <v>9.88592207832541</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>1.2411667468084</v>
+        <v>1.24135414493877</v>
       </c>
       <c r="K58" t="n">
-        <v>1.85039162609838</v>
+        <v>1.85046496100893</v>
       </c>
     </row>
     <row r="59">
@@ -3286,22 +3286,22 @@
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>0.799176711096871</v>
+        <v>0.797944285626165</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0902959857891836</v>
+        <v>0.0902630152979698</v>
       </c>
       <c r="H59" t="n">
-        <v>8.85063388047759</v>
+        <v>8.84021304841245</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>0.622179921408211</v>
+        <v>0.620843406132211</v>
       </c>
       <c r="K59" t="n">
-        <v>0.976993903485176</v>
+        <v>0.975065466607906</v>
       </c>
     </row>
     <row r="60">
@@ -3321,22 +3321,22 @@
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.17559493488941</v>
+        <v>-0.175286108972828</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0725565670114648</v>
+        <v>0.0724830143107702</v>
       </c>
       <c r="H60" t="n">
-        <v>-2.4201108476048</v>
+        <v>-2.41830600782261</v>
       </c>
       <c r="I60" t="n">
-        <v>0.0155157766013638</v>
+        <v>0.0155929574769764</v>
       </c>
       <c r="J60" t="n">
-        <v>-0.318086420048278</v>
+        <v>-0.317651322003844</v>
       </c>
       <c r="K60" t="n">
-        <v>-0.0395544300669994</v>
+        <v>-0.0389417435824475</v>
       </c>
     </row>
     <row r="61">
@@ -3387,22 +3387,22 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>4.85555141016667</v>
+        <v>4.81061238362211</v>
       </c>
       <c r="G62" t="n">
-        <v>0.128680845123594</v>
+        <v>0.13521409410902</v>
       </c>
       <c r="H62" t="n">
-        <v>37.7332881634641</v>
+        <v>35.5777436910048</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>4.60260285801667</v>
+        <v>4.54697986497068</v>
       </c>
       <c r="K62" t="n">
-        <v>5.10716234715494</v>
+        <v>5.07267244362364</v>
       </c>
     </row>
     <row r="63">
@@ -3422,22 +3422,22 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>4.78113940714343</v>
+        <v>4.86268708364385</v>
       </c>
       <c r="G63" t="n">
-        <v>0.141437096662117</v>
+        <v>0.146407619221976</v>
       </c>
       <c r="H63" t="n">
-        <v>33.8039985263925</v>
+        <v>33.2133471569624</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>4.5009690615258</v>
+        <v>4.58015772575855</v>
       </c>
       <c r="K63" t="n">
-        <v>5.05152644970449</v>
+        <v>5.15061276722813</v>
       </c>
     </row>
     <row r="64">
@@ -3457,22 +3457,22 @@
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>4.87908854488894</v>
+        <v>5.14409816326532</v>
       </c>
       <c r="G64" t="n">
-        <v>0.141744144599183</v>
+        <v>0.13494386594815</v>
       </c>
       <c r="H64" t="n">
-        <v>34.4217996354331</v>
+        <v>38.1202815490839</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>4.60455227900994</v>
+        <v>4.87917816354738</v>
       </c>
       <c r="K64" t="n">
-        <v>5.15658005089829</v>
+        <v>5.4033867308553</v>
       </c>
     </row>
     <row r="65">
@@ -3492,22 +3492,22 @@
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>4.20568474598182</v>
+        <v>4.20591120647389</v>
       </c>
       <c r="G65" t="n">
-        <v>0.12410949922287</v>
+        <v>0.124254776523677</v>
       </c>
       <c r="H65" t="n">
-        <v>33.8868883712877</v>
+        <v>33.8490907484143</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>3.96461852539505</v>
+        <v>3.96457238815845</v>
       </c>
       <c r="K65" t="n">
-        <v>4.44572590044452</v>
+        <v>4.44640266522337</v>
       </c>
     </row>
     <row r="66">
@@ -3527,22 +3527,22 @@
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>4.635502331363</v>
+        <v>4.6354811367505</v>
       </c>
       <c r="G66" t="n">
-        <v>0.115161790604001</v>
+        <v>0.115105355876126</v>
       </c>
       <c r="H66" t="n">
-        <v>40.2520862783627</v>
+        <v>40.2716372445703</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>4.40872731982612</v>
+        <v>4.40882966034852</v>
       </c>
       <c r="K66" t="n">
-        <v>4.8632405228978</v>
+        <v>4.86333622739065</v>
       </c>
     </row>
     <row r="67">
@@ -3562,22 +3562,22 @@
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>4.6422804111652</v>
+        <v>4.64236224264905</v>
       </c>
       <c r="G67" t="n">
-        <v>0.117416163568422</v>
+        <v>0.117459200637784</v>
       </c>
       <c r="H67" t="n">
-        <v>39.5369791524485</v>
+        <v>39.5231894772123</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>4.40617455576144</v>
+        <v>4.40627756096298</v>
       </c>
       <c r="K67" t="n">
-        <v>4.86831125235366</v>
+        <v>4.8683528334011</v>
       </c>
     </row>
     <row r="68">
@@ -3597,22 +3597,22 @@
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>4.59563807640948</v>
+        <v>4.59550505163526</v>
       </c>
       <c r="G68" t="n">
-        <v>0.116445247355567</v>
+        <v>0.116317411583039</v>
       </c>
       <c r="H68" t="n">
-        <v>39.4660853987164</v>
+        <v>39.5083159871943</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>4.36240211780119</v>
+        <v>4.36266413703973</v>
       </c>
       <c r="K68" t="n">
-        <v>4.82062534862899</v>
+        <v>4.8202181925279</v>
       </c>
     </row>
     <row r="69">
@@ -3632,22 +3632,22 @@
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>4.4983933928317</v>
+        <v>4.49859471298108</v>
       </c>
       <c r="G69" t="n">
-        <v>0.111491126540654</v>
+        <v>0.111532006785063</v>
       </c>
       <c r="H69" t="n">
-        <v>40.3475463241588</v>
+        <v>40.3345626305324</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>4.28169168106564</v>
+        <v>4.28163608710247</v>
       </c>
       <c r="K69" t="n">
-        <v>4.72293475774803</v>
+        <v>4.72337912612628</v>
       </c>
     </row>
     <row r="70">
@@ -3667,22 +3667,22 @@
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>4.10096245335058</v>
+        <v>4.10131293211925</v>
       </c>
       <c r="G70" t="n">
-        <v>0.136339831242721</v>
+        <v>0.136177235508299</v>
       </c>
       <c r="H70" t="n">
-        <v>30.0789755713412</v>
+        <v>30.117463589348</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>3.83525296102416</v>
+        <v>3.83517575885389</v>
       </c>
       <c r="K70" t="n">
-        <v>4.36849894098874</v>
+        <v>4.36844785272598</v>
       </c>
     </row>
     <row r="71">
@@ -3702,22 +3702,22 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>3.78631920037966</v>
+        <v>3.78662024635847</v>
       </c>
       <c r="G71" t="n">
-        <v>0.135647768734732</v>
+        <v>0.135617492602425</v>
       </c>
       <c r="H71" t="n">
-        <v>27.9128749090157</v>
+        <v>27.921326177732</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>3.52714176640706</v>
+        <v>3.52789264828518</v>
       </c>
       <c r="K71" t="n">
-        <v>4.05213494584081</v>
+        <v>4.05245079096625</v>
       </c>
     </row>
     <row r="72">
@@ -3737,22 +3737,22 @@
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>4.30696940152513</v>
+        <v>4.30714808285247</v>
       </c>
       <c r="G72" t="n">
-        <v>0.11450681697983</v>
+        <v>0.11458834703493</v>
       </c>
       <c r="H72" t="n">
-        <v>37.6132139127035</v>
+        <v>37.5880112969911</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>4.08295001916144</v>
+        <v>4.08337063196798</v>
       </c>
       <c r="K72" t="n">
-        <v>4.53066228106071</v>
+        <v>4.53092041155803</v>
       </c>
     </row>
     <row r="73">
@@ -3772,22 +3772,22 @@
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>4.90828394129757</v>
+        <v>4.9082840735615</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0803015772832257</v>
+        <v>0.0803015848617816</v>
       </c>
       <c r="H73" t="n">
-        <v>61.1231324135256</v>
+        <v>61.1231282920485</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>4.75147919549389</v>
+        <v>4.75147908976643</v>
       </c>
       <c r="K73" t="n">
-        <v>5.06508903700941</v>
+        <v>5.06508914510204</v>
       </c>
     </row>
     <row r="74">
@@ -3807,22 +3807,22 @@
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>4.93195253268282</v>
+        <v>4.93195274554135</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0803939838641198</v>
+        <v>0.0803939780718519</v>
       </c>
       <c r="H74" t="n">
-        <v>61.3472836601642</v>
+        <v>61.3472907278382</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>4.77514722026073</v>
+        <v>4.77514741154875</v>
       </c>
       <c r="K74" t="n">
-        <v>5.09171596231086</v>
+        <v>5.09171591234367</v>
       </c>
     </row>
     <row r="75">
@@ -3842,22 +3842,22 @@
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>5.02070988260738</v>
+        <v>5.02071013889063</v>
       </c>
       <c r="G75" t="n">
-        <v>0.082021032202877</v>
+        <v>0.0820210287894653</v>
       </c>
       <c r="H75" t="n">
-        <v>61.2124688968651</v>
+        <v>61.2124745689058</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>4.8609463466397</v>
+        <v>4.86094627651357</v>
       </c>
       <c r="K75" t="n">
-        <v>5.18639034109994</v>
+        <v>5.18639027551279</v>
       </c>
     </row>
     <row r="76">
@@ -3877,22 +3877,22 @@
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>3.14792910564121</v>
+        <v>3.14792894268443</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0613600664624062</v>
+        <v>0.0613600741180575</v>
       </c>
       <c r="H76" t="n">
-        <v>51.3025700122059</v>
+        <v>51.3025609556433</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>3.02662740130003</v>
+        <v>3.02662742168098</v>
       </c>
       <c r="K76" t="n">
-        <v>3.26923054658288</v>
+        <v>3.26923058476011</v>
       </c>
     </row>
     <row r="77">
@@ -3912,22 +3912,22 @@
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>2.8461540796134</v>
+        <v>2.84615379040354</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0603606928272748</v>
+        <v>0.0603606999549516</v>
       </c>
       <c r="H77" t="n">
-        <v>47.1524421987305</v>
+        <v>47.1524318393869</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>2.72485206722334</v>
+        <v>2.72485203701686</v>
       </c>
       <c r="K77" t="n">
-        <v>2.9644975449537</v>
+        <v>2.96449732972336</v>
       </c>
     </row>
     <row r="78">
@@ -3947,22 +3947,22 @@
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>2.63609477966035</v>
+        <v>2.63609463918502</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0622340438911755</v>
+        <v>0.0622340514398006</v>
       </c>
       <c r="H78" t="n">
-        <v>42.3577613608061</v>
+        <v>42.3577539658483</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>2.51486726656219</v>
+        <v>2.51486843477986</v>
       </c>
       <c r="K78" t="n">
-        <v>2.76035559379085</v>
+        <v>2.76035564261984</v>
       </c>
     </row>
     <row r="79">
@@ -3982,22 +3982,22 @@
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>3.52608022598795</v>
+        <v>3.52612919101053</v>
       </c>
       <c r="G79" t="n">
-        <v>0.130965264942928</v>
+        <v>0.130970522419002</v>
       </c>
       <c r="H79" t="n">
-        <v>26.9237818708995</v>
+        <v>26.9230749475802</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>3.27222762747245</v>
+        <v>3.27221523270769</v>
       </c>
       <c r="K79" t="n">
-        <v>3.78532583933828</v>
+        <v>3.7856211253721</v>
       </c>
     </row>
     <row r="80">
@@ -4203,22 +4203,22 @@
         <v>129</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.0571347488753284</v>
+        <v>-0.0537091174006266</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0316569106492955</v>
+        <v>0.02861154618359</v>
       </c>
       <c r="H86" t="n">
-        <v>-1.80481126248496</v>
+        <v>-1.87718332508123</v>
       </c>
       <c r="I86" t="n">
-        <v>0.0711042213963649</v>
+        <v>0.0604929721363361</v>
       </c>
       <c r="J86" t="n">
-        <v>-0.125467376417252</v>
+        <v>-0.11519108683362</v>
       </c>
       <c r="K86" t="n">
-        <v>-0.000487954455335253</v>
+        <v>-0.00392372366008232</v>
       </c>
     </row>
     <row r="87">
@@ -4238,22 +4238,22 @@
         <v>133</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.0913522347219739</v>
+        <v>-0.0926096880208608</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0457585882939917</v>
+        <v>0.0404814335528387</v>
       </c>
       <c r="H87" t="n">
-        <v>-1.99639538997685</v>
+        <v>-2.28770771914442</v>
       </c>
       <c r="I87" t="n">
-        <v>0.0458909022169738</v>
+        <v>0.0221545478785232</v>
       </c>
       <c r="J87" t="n">
-        <v>-0.190079089686884</v>
+        <v>-0.176657261080028</v>
       </c>
       <c r="K87" t="n">
-        <v>-0.00929075153320621</v>
+        <v>-0.0190008949737759</v>
       </c>
     </row>
     <row r="88">
@@ -4273,22 +4273,22 @@
         <v>136</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0696134740302613</v>
+        <v>0.0699857034708226</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0398646172714276</v>
+        <v>0.0386318019788101</v>
       </c>
       <c r="H88" t="n">
-        <v>1.74624714333219</v>
+        <v>1.811608568226</v>
       </c>
       <c r="I88" t="n">
-        <v>0.0807680161523767</v>
+        <v>0.0700467000823806</v>
       </c>
       <c r="J88" t="n">
-        <v>0.00034071589068878</v>
+        <v>0.00357038718379972</v>
       </c>
       <c r="K88" t="n">
-        <v>0.15926069453458</v>
+        <v>0.156563591546607</v>
       </c>
     </row>
     <row r="89">
@@ -4308,22 +4308,22 @@
         <v>139</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.0912910417306356</v>
+        <v>-0.0993680253566716</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0502188019401957</v>
+        <v>0.0499255720898167</v>
       </c>
       <c r="H89" t="n">
-        <v>-1.81786578340423</v>
+        <v>-1.99032321908916</v>
       </c>
       <c r="I89" t="n">
-        <v>0.0690846491579455</v>
+        <v>0.0465553418439841</v>
       </c>
       <c r="J89" t="n">
-        <v>-0.203550743167101</v>
+        <v>-0.208383164741092</v>
       </c>
       <c r="K89" t="n">
-        <v>-0.00779133593722496</v>
+        <v>-0.017534975944302</v>
       </c>
     </row>
   </sheetData>
@@ -4392,22 +4392,22 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.812232844152024</v>
+        <v>0.845892386790427</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0387002028962852</v>
+        <v>0.029856029111709</v>
       </c>
       <c r="H2" t="n">
-        <v>20.9878187545624</v>
+        <v>28.3323808275188</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.736381840280912</v>
+        <v>0.787375645010098</v>
       </c>
       <c r="K2" t="n">
-        <v>0.888083848023136</v>
+        <v>0.904409128570756</v>
       </c>
     </row>
     <row r="3">
@@ -4427,22 +4427,22 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.903795642611758</v>
+        <v>0.94591167659148</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0311335205346674</v>
+        <v>0.0224623197937743</v>
       </c>
       <c r="H3" t="n">
-        <v>29.0296640755862</v>
+        <v>42.1110413027621</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.842775063651872</v>
+        <v>0.901886338786461</v>
       </c>
       <c r="K3" t="n">
-        <v>0.964816221571644</v>
+        <v>0.989937014396499</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4462,22 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.881332114853136</v>
+        <v>0.89258389164944</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0275703561570946</v>
+        <v>0.0271765042085263</v>
       </c>
       <c r="H4" t="n">
-        <v>31.9666568625863</v>
+        <v>32.8439553814799</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.827295209744288</v>
+        <v>0.839318922175027</v>
       </c>
       <c r="K4" t="n">
-        <v>0.935369019961983</v>
+        <v>0.945848861123853</v>
       </c>
     </row>
     <row r="5">
@@ -4497,22 +4497,22 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.808055823944694</v>
+        <v>0.810316119959674</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0315338426149986</v>
+        <v>0.0312680403751186</v>
       </c>
       <c r="H5" t="n">
-        <v>25.6250351030912</v>
+        <v>25.9151552268201</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.746250628125142</v>
+        <v>0.749031886957298</v>
       </c>
       <c r="K5" t="n">
-        <v>0.869861019764246</v>
+        <v>0.871600352962051</v>
       </c>
     </row>
     <row r="6">
@@ -4532,22 +4532,22 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.790590296457901</v>
+        <v>0.789706523408315</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0327239950656074</v>
+        <v>0.0327481469744269</v>
       </c>
       <c r="H6" t="n">
-        <v>24.1593453022123</v>
+        <v>24.1145407105018</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.726452444699044</v>
+        <v>0.725521334778014</v>
       </c>
       <c r="K6" t="n">
-        <v>0.854728148216758</v>
+        <v>0.853891712038616</v>
       </c>
     </row>
     <row r="7">
@@ -4567,22 +4567,22 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6738707151388</v>
+        <v>0.674391435095115</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0430558725142023</v>
+        <v>0.0430468725896872</v>
       </c>
       <c r="H7" t="n">
-        <v>15.6510755859498</v>
+        <v>15.6664443785094</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.589482755688016</v>
+        <v>0.590021115172244</v>
       </c>
       <c r="K7" t="n">
-        <v>0.758258674589585</v>
+        <v>0.758761755017987</v>
       </c>
     </row>
     <row r="8">
@@ -4602,22 +4602,22 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.732212648697185</v>
+        <v>0.729952222939646</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0366036724689246</v>
+        <v>0.037113202214934</v>
       </c>
       <c r="H8" t="n">
-        <v>20.0038028784901</v>
+        <v>19.6682630270562</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.660470768956193</v>
+        <v>0.657211683247423</v>
       </c>
       <c r="K8" t="n">
-        <v>0.803954528438178</v>
+        <v>0.802692762631869</v>
       </c>
     </row>
     <row r="9">
@@ -4637,22 +4637,22 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.636892596214144</v>
+        <v>0.637539042958648</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0530740425960192</v>
+        <v>0.0529989471094876</v>
       </c>
       <c r="H9" t="n">
-        <v>12.0000769691117</v>
+        <v>12.0292775183173</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.532869384212002</v>
+        <v>0.533663015405509</v>
       </c>
       <c r="K9" t="n">
-        <v>0.740915808216287</v>
+        <v>0.741415070511787</v>
       </c>
     </row>
     <row r="10">
@@ -4672,22 +4672,22 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.723050409124207</v>
+        <v>0.721604799564846</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0496796406308815</v>
+        <v>0.0494738215436336</v>
       </c>
       <c r="H10" t="n">
-        <v>14.554260053861</v>
+        <v>14.5855884395028</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.625680102722786</v>
+        <v>0.624637891161762</v>
       </c>
       <c r="K10" t="n">
-        <v>0.820420715525627</v>
+        <v>0.81857170796793</v>
       </c>
     </row>
     <row r="11">
@@ -4707,22 +4707,22 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.762319659482843</v>
+        <v>0.762370857131018</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0382933547687587</v>
+        <v>0.0384199502700755</v>
       </c>
       <c r="H11" t="n">
-        <v>19.9073615797374</v>
+        <v>19.8430984884646</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.68726606328886</v>
+        <v>0.68706913831385</v>
       </c>
       <c r="K11" t="n">
-        <v>0.837373255676825</v>
+        <v>0.837672575948186</v>
       </c>
     </row>
     <row r="12">
@@ -4742,22 +4742,22 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.58109728593366</v>
+        <v>0.582084461892132</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0555469997722942</v>
+        <v>0.0554831301153981</v>
       </c>
       <c r="H12" t="n">
-        <v>10.4613622394688</v>
+        <v>10.4911972464688</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.472227166930709</v>
+        <v>0.473339525116402</v>
       </c>
       <c r="K12" t="n">
-        <v>0.689967404936611</v>
+        <v>0.690829398667862</v>
       </c>
     </row>
     <row r="13">
@@ -4777,22 +4777,22 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.850900029254867</v>
+        <v>0.850898688526694</v>
       </c>
       <c r="G13" t="n">
-        <v>0.022538856944077</v>
+        <v>0.0225360730792933</v>
       </c>
       <c r="H13" t="n">
-        <v>37.7525813028632</v>
+        <v>37.7571853593482</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.806724681391776</v>
+        <v>0.806728796938316</v>
       </c>
       <c r="K13" t="n">
-        <v>0.895075377117959</v>
+        <v>0.895068580115072</v>
       </c>
     </row>
     <row r="14">
@@ -4812,22 +4812,22 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.943885438521772</v>
+        <v>0.943889988252384</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0139161264622991</v>
+        <v>0.0139303141237649</v>
       </c>
       <c r="H14" t="n">
-        <v>67.8267362026997</v>
+        <v>67.7579830480724</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.916610331851361</v>
+        <v>0.916587074276475</v>
       </c>
       <c r="K14" t="n">
-        <v>0.971160545192183</v>
+        <v>0.971192902228293</v>
       </c>
     </row>
     <row r="15">
@@ -4847,22 +4847,22 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.921049070604608</v>
+        <v>0.921044194516469</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0153803800109791</v>
+        <v>0.0153859268438997</v>
       </c>
       <c r="H15" t="n">
-        <v>59.8846757978104</v>
+        <v>59.8627696505425</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.890904079714549</v>
+        <v>0.890888332033657</v>
       </c>
       <c r="K15" t="n">
-        <v>0.951194061494667</v>
+        <v>0.95120005699928</v>
       </c>
     </row>
     <row r="16">
@@ -4882,22 +4882,22 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.790195915005914</v>
+        <v>0.78958658502427</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0319810607164636</v>
+        <v>0.0320098200302511</v>
       </c>
       <c r="H16" t="n">
-        <v>24.7082459838215</v>
+        <v>24.6670110696676</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.727514187814257</v>
+        <v>0.726848490613369</v>
       </c>
       <c r="K16" t="n">
-        <v>0.852877642197571</v>
+        <v>0.85232467943517</v>
       </c>
     </row>
     <row r="17">
@@ -4917,22 +4917,22 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.986632893439413</v>
+        <v>0.987428931597724</v>
       </c>
       <c r="G17" t="n">
-        <v>0.016942078196645</v>
+        <v>0.0170450780450536</v>
       </c>
       <c r="H17" t="n">
-        <v>58.2356474800591</v>
+        <v>57.9304435560663</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.953427030350728</v>
+        <v>0.954021192515745</v>
       </c>
       <c r="K17" t="n">
-        <v>1.0198387565281</v>
+        <v>1.0208366706797</v>
       </c>
     </row>
     <row r="18">
@@ -4952,22 +4952,22 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.805180086875236</v>
+        <v>0.804538364440473</v>
       </c>
       <c r="G18" t="n">
-        <v>0.026798951767315</v>
+        <v>0.0269278206445155</v>
       </c>
       <c r="H18" t="n">
-        <v>30.0452082553939</v>
+        <v>29.8775892435372</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.752655106587872</v>
+        <v>0.751760805795069</v>
       </c>
       <c r="K18" t="n">
-        <v>0.857705067162599</v>
+        <v>0.857315923085878</v>
       </c>
     </row>
     <row r="19">
@@ -4987,22 +4987,22 @@
         <v>54</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.300881014574236</v>
+        <v>-0.30190501052149</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0822242591341543</v>
+        <v>0.0830464118174572</v>
       </c>
       <c r="H19" t="n">
-        <v>-3.65927303867012</v>
+        <v>-3.63537694060885</v>
       </c>
       <c r="I19" t="n">
-        <v>0.000252931740760909</v>
+        <v>0.000277574472917319</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.462037601132667</v>
+        <v>-0.464672986728987</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.139724428015806</v>
+        <v>-0.139137034313992</v>
       </c>
     </row>
     <row r="20">
@@ -5022,22 +5022,22 @@
         <v>56</v>
       </c>
       <c r="F20" t="n">
-        <v>0.487523555205747</v>
+        <v>0.488123284104836</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0786138162402625</v>
+        <v>0.0800834333635127</v>
       </c>
       <c r="H20" t="n">
-        <v>6.20149966662042</v>
+        <v>6.09518427973934</v>
       </c>
       <c r="I20" t="n">
-        <v>0.000000000559276402967157</v>
+        <v>0.00000000109311448781568</v>
       </c>
       <c r="J20" t="n">
-        <v>0.333443306687582</v>
+        <v>0.331162638954038</v>
       </c>
       <c r="K20" t="n">
-        <v>0.641603803723911</v>
+        <v>0.645083929255634</v>
       </c>
     </row>
     <row r="21">
@@ -5057,22 +5057,22 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.0147689255220812</v>
+        <v>-0.017003857612455</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0519251236729396</v>
+        <v>0.0518866072294261</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.284427353800948</v>
+        <v>-0.327711880201944</v>
       </c>
       <c r="I21" t="n">
-        <v>0.776082898942191</v>
+        <v>0.743129519919849</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.116540297813831</v>
+        <v>-0.118699739062106</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0870024467696686</v>
+        <v>0.0846920238371957</v>
       </c>
     </row>
     <row r="22">
@@ -5092,22 +5092,22 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.0811984329812908</v>
+        <v>-0.0721178588628447</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0664217836535292</v>
+        <v>0.0654254571672628</v>
       </c>
       <c r="H22" t="n">
-        <v>-1.22246691544509</v>
+        <v>-1.10229048424488</v>
       </c>
       <c r="I22" t="n">
-        <v>0.221531107809811</v>
+        <v>0.270335404964118</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.211382736731119</v>
+        <v>-0.200349398582748</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0489858707685377</v>
+        <v>0.0561136808570583</v>
       </c>
     </row>
     <row r="23">
@@ -5127,22 +5127,22 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.110471136316938</v>
+        <v>-0.110821140431369</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0646286904801811</v>
+        <v>0.0644149381010809</v>
       </c>
       <c r="H23" t="n">
-        <v>-1.70932035750925</v>
+        <v>-1.72042609522447</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0873916244090625</v>
+        <v>0.0853550169446469</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.237141042026079</v>
+        <v>-0.237072099175864</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0161987693922037</v>
+        <v>0.0154298183131268</v>
       </c>
     </row>
     <row r="24">
@@ -5162,22 +5162,22 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0602878818619619</v>
+        <v>0.0645939152922776</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0615827560532562</v>
+        <v>0.0612474201436505</v>
       </c>
       <c r="H24" t="n">
-        <v>0.978973429020057</v>
+        <v>1.05463895688632</v>
       </c>
       <c r="I24" t="n">
-        <v>0.327593108470684</v>
+        <v>0.291590479668684</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.0604121020711362</v>
+        <v>-0.0554488223352703</v>
       </c>
       <c r="K24" t="n">
-        <v>0.18098786579506</v>
+        <v>0.184636652919825</v>
       </c>
     </row>
     <row r="25">
@@ -5197,22 +5197,22 @@
         <v>63</v>
       </c>
       <c r="F25" t="n">
-        <v>0.157307899348632</v>
+        <v>0.16170404732059</v>
       </c>
       <c r="G25" t="n">
-        <v>0.076612292201304</v>
+        <v>0.0751420586485376</v>
       </c>
       <c r="H25" t="n">
-        <v>2.05329843069171</v>
+        <v>2.15197787003587</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0400436429819628</v>
+        <v>0.0313990973734208</v>
       </c>
       <c r="J25" t="n">
-        <v>0.00715056586101728</v>
+        <v>0.0144283186452599</v>
       </c>
       <c r="K25" t="n">
-        <v>0.307465232836246</v>
+        <v>0.30897977599592</v>
       </c>
     </row>
     <row r="26">
@@ -5232,22 +5232,22 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.0116093422663858</v>
+        <v>-0.0119572609517481</v>
       </c>
       <c r="G26" t="n">
-        <v>0.062739036120523</v>
+        <v>0.0622116351034277</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.185041769594356</v>
+        <v>-0.192202968654803</v>
       </c>
       <c r="I26" t="n">
-        <v>0.853196273847033</v>
+        <v>0.847583220607108</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.134575593487368</v>
+        <v>-0.133889825173814</v>
       </c>
       <c r="K26" t="n">
-        <v>0.111356908954597</v>
+        <v>0.109975303270318</v>
       </c>
     </row>
     <row r="27">
@@ -5267,22 +5267,22 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.176773634266185</v>
+        <v>0.178102580579497</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0688889940079253</v>
+        <v>0.0686034800412617</v>
       </c>
       <c r="H27" t="n">
-        <v>2.56606496889543</v>
+        <v>2.59611583074761</v>
       </c>
       <c r="I27" t="n">
-        <v>0.010285956027497</v>
+        <v>0.00942842748127348</v>
       </c>
       <c r="J27" t="n">
-        <v>0.0417536870794555</v>
+        <v>0.043642230484512</v>
       </c>
       <c r="K27" t="n">
-        <v>0.311793581452914</v>
+        <v>0.312562930674483</v>
       </c>
     </row>
     <row r="28">
@@ -5302,22 +5302,22 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.131947682500148</v>
+        <v>0.127393954402487</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0667825117742637</v>
+        <v>0.0659549974637741</v>
       </c>
       <c r="H28" t="n">
-        <v>1.97578196738322</v>
+        <v>1.9315284557847</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0481794766466765</v>
+        <v>0.0534177338020616</v>
       </c>
       <c r="J28" t="n">
-        <v>0.00105636462546918</v>
+        <v>-0.00187546522694029</v>
       </c>
       <c r="K28" t="n">
-        <v>0.262839000374827</v>
+        <v>0.256663374031915</v>
       </c>
     </row>
     <row r="29">
@@ -5337,22 +5337,22 @@
         <v>68</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.155227465143253</v>
+        <v>-0.172452737135348</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0697911628294312</v>
+        <v>0.0671704354851853</v>
       </c>
       <c r="H29" t="n">
-        <v>-2.22417078108624</v>
+        <v>-2.56739048793845</v>
       </c>
       <c r="I29" t="n">
-        <v>0.0261369561256846</v>
+        <v>0.0102467149994689</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.292015630728108</v>
+        <v>-0.304104371512182</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.0184392995583971</v>
+        <v>-0.0408011027585135</v>
       </c>
     </row>
     <row r="30">
@@ -5372,22 +5372,22 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.0126083354654972</v>
+        <v>-0.00991449542018819</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0595443443561032</v>
+        <v>0.0593247892803785</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.211746986247651</v>
+        <v>-0.167122303179716</v>
       </c>
       <c r="I30" t="n">
-        <v>0.832304429421775</v>
+        <v>0.867273817402891</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.12931310588651</v>
+        <v>-0.126188945800158</v>
       </c>
       <c r="K30" t="n">
-        <v>0.104096434955516</v>
+        <v>0.106359954959782</v>
       </c>
     </row>
     <row r="31">
@@ -5407,22 +5407,22 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.288943399416777</v>
+        <v>0.287488067808431</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0591186822035227</v>
+        <v>0.0588878512734313</v>
       </c>
       <c r="H31" t="n">
-        <v>4.88751421119396</v>
+        <v>4.8819588691316</v>
       </c>
       <c r="I31" t="n">
-        <v>0.0000010211712628827</v>
+        <v>0.00000105037168207645</v>
       </c>
       <c r="J31" t="n">
-        <v>0.173072911484404</v>
+        <v>0.172070000185554</v>
       </c>
       <c r="K31" t="n">
-        <v>0.404813887349151</v>
+        <v>0.402906135431307</v>
       </c>
     </row>
     <row r="32">
@@ -5442,22 +5442,22 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.215423246748355</v>
+        <v>0.217999702847879</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0625395809716296</v>
+        <v>0.0610554302178889</v>
       </c>
       <c r="H32" t="n">
-        <v>3.44459050414935</v>
+        <v>3.57052111613828</v>
       </c>
       <c r="I32" t="n">
-        <v>0.000571925130789852</v>
+        <v>0.000356271730457935</v>
       </c>
       <c r="J32" t="n">
-        <v>0.092847920435734</v>
+        <v>0.0983332585602187</v>
       </c>
       <c r="K32" t="n">
-        <v>0.337998573060975</v>
+        <v>0.33766614713554</v>
       </c>
     </row>
     <row r="33">
@@ -5477,22 +5477,22 @@
         <v>73</v>
       </c>
       <c r="F33" t="n">
-        <v>0.205665073928447</v>
+        <v>0.200939697165261</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0541897384126216</v>
+        <v>0.0531289924239981</v>
       </c>
       <c r="H33" t="n">
-        <v>3.79527711247531</v>
+        <v>3.78211006829667</v>
       </c>
       <c r="I33" t="n">
-        <v>0.000147478637020138</v>
+        <v>0.000155504569709919</v>
       </c>
       <c r="J33" t="n">
-        <v>0.0994551383080617</v>
+        <v>0.0968087854793234</v>
       </c>
       <c r="K33" t="n">
-        <v>0.311875009548832</v>
+        <v>0.305070608851199</v>
       </c>
     </row>
     <row r="34">
@@ -5512,22 +5512,22 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.00325509212259982</v>
+        <v>-0.0101732597378988</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0623264009633156</v>
+        <v>0.0606443943142059</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.0522265375874298</v>
+        <v>-0.167752681067105</v>
       </c>
       <c r="I34" t="n">
-        <v>0.958348187846725</v>
+        <v>0.866777849885626</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.125412593296701</v>
+        <v>-0.129034088457988</v>
       </c>
       <c r="K34" t="n">
-        <v>0.118902409051501</v>
+        <v>0.10868756898219</v>
       </c>
     </row>
     <row r="35">
@@ -5547,22 +5547,22 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.221442130639955</v>
+        <v>-0.186012678304974</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0595027396445447</v>
+        <v>0.0580871266780144</v>
       </c>
       <c r="H35" t="n">
-        <v>-3.72154512485977</v>
+        <v>-3.20230469198571</v>
       </c>
       <c r="I35" t="n">
-        <v>0.000198007472196338</v>
+        <v>0.00136332713080156</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.338065357324727</v>
+        <v>-0.299861354559298</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.104818903955184</v>
+        <v>-0.0721640020506497</v>
       </c>
     </row>
     <row r="36">
@@ -5582,22 +5582,22 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.531004917014605</v>
+        <v>0.537652869147967</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0767761573090219</v>
+        <v>0.0759719281817723</v>
       </c>
       <c r="H36" t="n">
-        <v>6.91627369259085</v>
+        <v>7.076993858331</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0000000000046367354400445</v>
+        <v>0.00000000000147304390907266</v>
       </c>
       <c r="J36" t="n">
-        <v>0.380526413817541</v>
+        <v>0.38875062607563</v>
       </c>
       <c r="K36" t="n">
-        <v>0.68148342021167</v>
+        <v>0.686555112220304</v>
       </c>
     </row>
     <row r="37">
@@ -5617,22 +5617,22 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.340277806880714</v>
+        <v>0.284466069969995</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0628671522786145</v>
+        <v>0.0505099735041493</v>
       </c>
       <c r="H37" t="n">
-        <v>5.41264864953119</v>
+        <v>5.63187921582707</v>
       </c>
       <c r="I37" t="n">
-        <v>0.0000000620992646194196</v>
+        <v>0.0000000178256511773611</v>
       </c>
       <c r="J37" t="n">
-        <v>0.217060452604034</v>
+        <v>0.18546834104179</v>
       </c>
       <c r="K37" t="n">
-        <v>0.463495161157393</v>
+        <v>0.3834637988982</v>
       </c>
     </row>
     <row r="38">
@@ -5652,22 +5652,22 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.183153436396</v>
+        <v>0.105251100087896</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0562766802041125</v>
+        <v>0.0424947408848654</v>
       </c>
       <c r="H38" t="n">
-        <v>3.25451742589847</v>
+        <v>2.47680296187853</v>
       </c>
       <c r="I38" t="n">
-        <v>0.00113585191473864</v>
+        <v>0.0132565063567809</v>
       </c>
       <c r="J38" t="n">
-        <v>0.0728531700264609</v>
+        <v>0.0219629384211976</v>
       </c>
       <c r="K38" t="n">
-        <v>0.293453702765538</v>
+        <v>0.188539261754594</v>
       </c>
     </row>
     <row r="39">
@@ -5687,22 +5687,22 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.223253703328499</v>
+        <v>0.203293996367941</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0485972817344097</v>
+        <v>0.0485146203920348</v>
       </c>
       <c r="H39" t="n">
-        <v>4.59395454561859</v>
+        <v>4.19036559958981</v>
       </c>
       <c r="I39" t="n">
-        <v>0.00000434924153935867</v>
+        <v>0.0000278505342725666</v>
       </c>
       <c r="J39" t="n">
-        <v>0.128004781382509</v>
+        <v>0.10820708767592</v>
       </c>
       <c r="K39" t="n">
-        <v>0.318502625274488</v>
+        <v>0.298380905059962</v>
       </c>
     </row>
     <row r="40">
@@ -5722,22 +5722,22 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.347045785389062</v>
+        <v>0.343387785733498</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0509622093006911</v>
+        <v>0.0506739947109608</v>
       </c>
       <c r="H40" t="n">
-        <v>6.80986539145891</v>
+        <v>6.77641041903538</v>
       </c>
       <c r="I40" t="n">
-        <v>0.00000000000976907443828168</v>
+        <v>0.0000000000123199228596604</v>
       </c>
       <c r="J40" t="n">
-        <v>0.247161690587115</v>
+        <v>0.244068581147242</v>
       </c>
       <c r="K40" t="n">
-        <v>0.446929880191008</v>
+        <v>0.442706990319755</v>
       </c>
     </row>
     <row r="41">
@@ -5757,22 +5757,22 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.374966983146608</v>
+        <v>0.376363606886352</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0517425445824031</v>
+        <v>0.0517228503192571</v>
       </c>
       <c r="H41" t="n">
-        <v>7.24678282007277</v>
+        <v>7.2765442075072</v>
       </c>
       <c r="I41" t="n">
-        <v>0.00000000000042676973066591</v>
+        <v>0.000000000000342392780794398</v>
       </c>
       <c r="J41" t="n">
-        <v>0.27355345929664</v>
+        <v>0.274988683082852</v>
       </c>
       <c r="K41" t="n">
-        <v>0.476380506996576</v>
+        <v>0.477738530689852</v>
       </c>
     </row>
     <row r="42">
@@ -5792,22 +5792,22 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.545898259278322</v>
+        <v>0.545196192270351</v>
       </c>
       <c r="G42" t="n">
-        <v>0.058028182983672</v>
+        <v>0.0580608849905544</v>
       </c>
       <c r="H42" t="n">
-        <v>9.4074677373911</v>
+        <v>9.39007719842792</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.432165110542025</v>
+        <v>0.431398948778342</v>
       </c>
       <c r="K42" t="n">
-        <v>0.659631408014619</v>
+        <v>0.65899343576236</v>
       </c>
     </row>
     <row r="43">
@@ -5827,22 +5827,22 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.463864637087852</v>
+        <v>0.467169752225469</v>
       </c>
       <c r="G43" t="n">
-        <v>0.053603343817799</v>
+        <v>0.0541817287176994</v>
       </c>
       <c r="H43" t="n">
-        <v>8.65365113535746</v>
+        <v>8.62227476460824</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.358804013754048</v>
+        <v>0.360975515318659</v>
       </c>
       <c r="K43" t="n">
-        <v>0.568925260421656</v>
+        <v>0.573363989132279</v>
       </c>
     </row>
     <row r="44">
@@ -5862,22 +5862,22 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.594367820887607</v>
+        <v>0.593543968703371</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0676049283084079</v>
+        <v>0.0675777958942789</v>
       </c>
       <c r="H44" t="n">
-        <v>8.79178243006415</v>
+        <v>8.78312115464571</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0.461864596225715</v>
+        <v>0.461093922595986</v>
       </c>
       <c r="K44" t="n">
-        <v>0.726871045549498</v>
+        <v>0.725994014810757</v>
       </c>
     </row>
     <row r="45">
@@ -5897,22 +5897,22 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0.477198105865317</v>
+        <v>0.479286513244979</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0718417648544128</v>
+        <v>0.0714010952327649</v>
       </c>
       <c r="H45" t="n">
-        <v>6.64234943047903</v>
+        <v>6.7125932968188</v>
       </c>
       <c r="I45" t="n">
-        <v>0.0000000000308721936903567</v>
+        <v>0.0000000000191195947962797</v>
       </c>
       <c r="J45" t="n">
-        <v>0.336390834164873</v>
+        <v>0.339342938132045</v>
       </c>
       <c r="K45" t="n">
-        <v>0.618005377565762</v>
+        <v>0.619230088357912</v>
       </c>
     </row>
     <row r="46">
@@ -5932,22 +5932,22 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.418868736765963</v>
+        <v>0.418790676197316</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0583835535341204</v>
+        <v>0.05858050104655</v>
       </c>
       <c r="H46" t="n">
-        <v>7.17443032173724</v>
+        <v>7.14897736816098</v>
       </c>
       <c r="I46" t="n">
-        <v>0.000000000000726085858104852</v>
+        <v>0.000000000000874189609589848</v>
       </c>
       <c r="J46" t="n">
-        <v>0.304439074549621</v>
+        <v>0.303975003949768</v>
       </c>
       <c r="K46" t="n">
-        <v>0.533298398982305</v>
+        <v>0.533606348444865</v>
       </c>
     </row>
     <row r="47">
@@ -5967,22 +5967,22 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.662325944280534</v>
+        <v>0.661177679223747</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0645564219924896</v>
+        <v>0.064591735570248</v>
       </c>
       <c r="H47" t="n">
-        <v>10.2596445688639</v>
+        <v>10.2362581433451</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>0.535797682204485</v>
+        <v>0.534580203807126</v>
       </c>
       <c r="K47" t="n">
-        <v>0.788854206356583</v>
+        <v>0.787775154640367</v>
       </c>
     </row>
     <row r="48">
@@ -6002,22 +6002,22 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0.275969140214066</v>
+        <v>0.275971421863552</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0383566278126659</v>
+        <v>0.0383518301030493</v>
       </c>
       <c r="H48" t="n">
-        <v>7.19482279729859</v>
+        <v>7.19578234264264</v>
       </c>
       <c r="I48" t="n">
-        <v>0.000000000000625499652073813</v>
+        <v>0.000000000000621058759975313</v>
       </c>
       <c r="J48" t="n">
-        <v>0.200791531132833</v>
+        <v>0.200803216120377</v>
       </c>
       <c r="K48" t="n">
-        <v>0.351146749295298</v>
+        <v>0.351139627606728</v>
       </c>
     </row>
     <row r="49">
@@ -6037,22 +6037,22 @@
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>0.109080278946562</v>
+        <v>0.109071690076914</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0262704579082796</v>
+        <v>0.0262973673593008</v>
       </c>
       <c r="H49" t="n">
-        <v>4.15220318303562</v>
+        <v>4.14762772967608</v>
       </c>
       <c r="I49" t="n">
-        <v>0.000032928969821322</v>
+        <v>0.0000335938055573415</v>
       </c>
       <c r="J49" t="n">
-        <v>0.0575911275889582</v>
+        <v>0.0575297971644657</v>
       </c>
       <c r="K49" t="n">
-        <v>0.160569430304165</v>
+        <v>0.160613582989363</v>
       </c>
     </row>
     <row r="50">
@@ -6072,22 +6072,22 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>0.151668609538388</v>
+        <v>0.15167759174751</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0283321696584071</v>
+        <v>0.0283422364091868</v>
       </c>
       <c r="H50" t="n">
-        <v>5.35322961026328</v>
+        <v>5.35164514040765</v>
       </c>
       <c r="I50" t="n">
-        <v>0.0000000863981015619686</v>
+        <v>0.0000000871581895545148</v>
       </c>
       <c r="J50" t="n">
-        <v>0.0961385774040315</v>
+        <v>0.0961278291441835</v>
       </c>
       <c r="K50" t="n">
-        <v>0.207198641672744</v>
+        <v>0.207227354350836</v>
       </c>
     </row>
     <row r="51">
@@ -6107,22 +6107,22 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.375590415907967</v>
+        <v>0.376553024749712</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0505426075073309</v>
+        <v>0.0505490484804479</v>
       </c>
       <c r="H51" t="n">
-        <v>7.43116420840554</v>
+        <v>7.44926039300939</v>
       </c>
       <c r="I51" t="n">
-        <v>0.00000000000010769163338864</v>
+        <v>0.0000000000000939248678832882</v>
       </c>
       <c r="J51" t="n">
-        <v>0.276528725508854</v>
+        <v>0.277478710275265</v>
       </c>
       <c r="K51" t="n">
-        <v>0.474652106307079</v>
+        <v>0.475627339224159</v>
       </c>
     </row>
     <row r="52">
@@ -6142,22 +6142,22 @@
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0265555335833717</v>
+        <v>0.0249841050437769</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0334312213470148</v>
+        <v>0.0336616061146031</v>
       </c>
       <c r="H52" t="n">
-        <v>0.794333336126918</v>
+        <v>0.742213694697658</v>
       </c>
       <c r="I52" t="n">
-        <v>0.427001401953733</v>
+        <v>0.457957872516509</v>
       </c>
       <c r="J52" t="n">
-        <v>-0.0389684562159639</v>
+        <v>-0.0409914306026185</v>
       </c>
       <c r="K52" t="n">
-        <v>0.0920795233827074</v>
+        <v>0.0909596406901723</v>
       </c>
     </row>
     <row r="53">
@@ -6177,22 +6177,22 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>0.351685027699588</v>
+        <v>0.352718020143449</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0431559644226752</v>
+        <v>0.043328929990369</v>
       </c>
       <c r="H53" t="n">
-        <v>8.14916390826395</v>
+        <v>8.14047381788217</v>
       </c>
       <c r="I53" t="n">
         <v>0.000000000000000444089209850063</v>
       </c>
       <c r="J53" t="n">
-        <v>0.267100891713053</v>
+        <v>0.267794877873668</v>
       </c>
       <c r="K53" t="n">
-        <v>0.436269163686124</v>
+        <v>0.437641162413229</v>
       </c>
     </row>
     <row r="54">
@@ -6212,22 +6212,22 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.779347358502476</v>
+        <v>0.780577797184305</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0486699691863807</v>
+        <v>0.0486050517213125</v>
       </c>
       <c r="H54" t="n">
-        <v>16.0129001832317</v>
+        <v>16.0596022335274</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>0.683955971768495</v>
+        <v>0.685313646343826</v>
       </c>
       <c r="K54" t="n">
-        <v>0.874738745236456</v>
+        <v>0.875841948024784</v>
       </c>
     </row>
     <row r="55">
@@ -6247,22 +6247,22 @@
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>0.908882968335207</v>
+        <v>0.925517802697954</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0308751001985028</v>
+        <v>0.028177791807943</v>
       </c>
       <c r="H55" t="n">
-        <v>29.4374095141975</v>
+        <v>32.8456469905871</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>0.848368883927076</v>
+        <v>0.870290345590518</v>
       </c>
       <c r="K55" t="n">
-        <v>0.969397052743338</v>
+        <v>0.98074525980539</v>
       </c>
     </row>
     <row r="56">
@@ -6282,22 +6282,22 @@
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>0.85283828764452</v>
+        <v>0.847176227803667</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0450735947090352</v>
+        <v>0.0459252684544584</v>
       </c>
       <c r="H56" t="n">
-        <v>18.9210177965585</v>
+        <v>18.4468432371553</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>0.764495665361056</v>
+        <v>0.757164355652595</v>
       </c>
       <c r="K56" t="n">
-        <v>0.941180909927985</v>
+        <v>0.937188099954739</v>
       </c>
     </row>
     <row r="57">
@@ -6317,22 +6317,22 @@
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>0.942001170659818</v>
+        <v>0.940203737299073</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0306860278998995</v>
+        <v>0.0315922773127094</v>
       </c>
       <c r="H57" t="n">
-        <v>30.6980484320978</v>
+        <v>29.7605559736219</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>0.881857661147424</v>
+        <v>0.878284011576561</v>
       </c>
       <c r="K57" t="n">
-        <v>1.00214468017221</v>
+        <v>1.00212346302159</v>
       </c>
     </row>
     <row r="58">
@@ -6414,22 +6414,22 @@
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.158365158571329</v>
+        <v>-0.158209270101792</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0614170970152751</v>
+        <v>0.0613906479022839</v>
       </c>
       <c r="H60" t="n">
-        <v>-2.57851911385427</v>
+        <v>-2.57709073788592</v>
       </c>
       <c r="I60" t="n">
-        <v>0.00992248101696069</v>
+        <v>0.00996357917897805</v>
       </c>
       <c r="J60" t="n">
-        <v>-0.27874045675627</v>
+        <v>-0.278532728977847</v>
       </c>
       <c r="K60" t="n">
-        <v>-0.037989860386387</v>
+        <v>-0.0378858112257359</v>
       </c>
     </row>
     <row r="61">
@@ -6480,22 +6480,22 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>2.74639722109674</v>
+        <v>2.58262557438739</v>
       </c>
       <c r="G62" t="n">
-        <v>0.15157381460697</v>
+        <v>0.138169815839843</v>
       </c>
       <c r="H62" t="n">
-        <v>18.119206330052</v>
+        <v>18.6916770402372</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>2.44931800346773</v>
+        <v>2.31181771159077</v>
       </c>
       <c r="K62" t="n">
-        <v>3.04347643872575</v>
+        <v>2.85343343718402</v>
       </c>
     </row>
     <row r="63">
@@ -6515,22 +6515,22 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>2.56795076300428</v>
+        <v>2.61614775936492</v>
       </c>
       <c r="G63" t="n">
-        <v>0.141386850583175</v>
+        <v>0.148041071561772</v>
       </c>
       <c r="H63" t="n">
-        <v>18.1625855050333</v>
+        <v>17.671769947121</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>2.29083762797371</v>
+        <v>2.32599259087113</v>
       </c>
       <c r="K63" t="n">
-        <v>2.84506389803485</v>
+        <v>2.90630292785871</v>
       </c>
     </row>
     <row r="64">
@@ -6550,22 +6550,22 @@
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>2.62514935926868</v>
+        <v>2.93378789568049</v>
       </c>
       <c r="G64" t="n">
-        <v>0.147618528173373</v>
+        <v>0.171631689068279</v>
       </c>
       <c r="H64" t="n">
-        <v>17.7833324295548</v>
+        <v>17.093509430612</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>2.33582236059806</v>
+        <v>2.59739596650088</v>
       </c>
       <c r="K64" t="n">
-        <v>2.91447635793931</v>
+        <v>3.27017982486009</v>
       </c>
     </row>
     <row r="65">
@@ -6585,22 +6585,22 @@
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>2.37688967620365</v>
+        <v>2.37702500149822</v>
       </c>
       <c r="G65" t="n">
-        <v>0.103869660628022</v>
+        <v>0.103901237175728</v>
       </c>
       <c r="H65" t="n">
-        <v>22.8833873320889</v>
+        <v>22.8777353004753</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>2.17330888228633</v>
+        <v>2.17338231868463</v>
       </c>
       <c r="K65" t="n">
-        <v>2.58047047012097</v>
+        <v>2.5806676843118</v>
       </c>
     </row>
     <row r="66">
@@ -6620,22 +6620,22 @@
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>2.78607243815098</v>
+        <v>2.78605636231926</v>
       </c>
       <c r="G66" t="n">
-        <v>0.127612622087082</v>
+        <v>0.127558312862098</v>
       </c>
       <c r="H66" t="n">
-        <v>21.8322638668908</v>
+        <v>21.8414331438456</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>2.53595629488758</v>
+        <v>2.53604666318086</v>
       </c>
       <c r="K66" t="n">
-        <v>3.03618858141438</v>
+        <v>3.03606606145767</v>
       </c>
     </row>
     <row r="67">
@@ -6655,22 +6655,22 @@
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>2.60288703844871</v>
+        <v>2.60293458939565</v>
       </c>
       <c r="G67" t="n">
-        <v>0.123045028364071</v>
+        <v>0.123009484774324</v>
       </c>
       <c r="H67" t="n">
-        <v>21.1539391152577</v>
+        <v>21.1604381090698</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>2.36172321437842</v>
+        <v>2.36184042948114</v>
       </c>
       <c r="K67" t="n">
-        <v>2.844050862519</v>
+        <v>2.84402874931015</v>
       </c>
     </row>
     <row r="68">
@@ -6690,22 +6690,22 @@
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>2.62090543950917</v>
+        <v>2.62082475549192</v>
       </c>
       <c r="G68" t="n">
-        <v>0.114200262351099</v>
+        <v>0.114116650050388</v>
       </c>
       <c r="H68" t="n">
-        <v>22.9500824739913</v>
+        <v>22.9661907735173</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>2.39707703827599</v>
+        <v>2.3971602313568</v>
       </c>
       <c r="K68" t="n">
-        <v>2.84473384074235</v>
+        <v>2.84448927962704</v>
       </c>
     </row>
     <row r="69">
@@ -6725,22 +6725,22 @@
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>2.66300142384164</v>
+        <v>2.66312132037187</v>
       </c>
       <c r="G69" t="n">
-        <v>0.115759251713129</v>
+        <v>0.11577421154506</v>
       </c>
       <c r="H69" t="n">
-        <v>23.004653057373</v>
+        <v>23.0027161043146</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>2.4361174596066</v>
+        <v>2.43620803540503</v>
       </c>
       <c r="K69" t="n">
-        <v>2.88988538807668</v>
+        <v>2.89003460533871</v>
       </c>
     </row>
     <row r="70">
@@ -6760,22 +6760,22 @@
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>2.1053304162085</v>
+        <v>2.10551209522928</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0986153417296614</v>
+        <v>0.0984229841606063</v>
       </c>
       <c r="H70" t="n">
-        <v>21.3489136607156</v>
+        <v>21.3924838104229</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>1.91204789809526</v>
+        <v>1.91260659102354</v>
       </c>
       <c r="K70" t="n">
-        <v>2.29861293432175</v>
+        <v>2.29841759943503</v>
       </c>
     </row>
     <row r="71">
@@ -6795,22 +6795,22 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>1.9793323326335</v>
+        <v>1.97949121599477</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0919008890146978</v>
+        <v>0.0918843762844818</v>
       </c>
       <c r="H71" t="n">
-        <v>21.5376842798217</v>
+        <v>21.5432840275924</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>1.79920990001748</v>
+        <v>1.79940114773526</v>
       </c>
       <c r="K71" t="n">
-        <v>2.15945476524952</v>
+        <v>2.15958128425428</v>
       </c>
     </row>
     <row r="72">
@@ -6830,22 +6830,22 @@
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>2.42221039712123</v>
+        <v>2.42230653422777</v>
       </c>
       <c r="G72" t="n">
-        <v>0.108395456403243</v>
+        <v>0.108431067229363</v>
       </c>
       <c r="H72" t="n">
-        <v>22.3460510015322</v>
+        <v>22.33959875267</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>2.20975920648309</v>
+        <v>2.20978554765297</v>
       </c>
       <c r="K72" t="n">
-        <v>2.63466158775937</v>
+        <v>2.63482752080256</v>
       </c>
     </row>
     <row r="73">
@@ -6865,22 +6865,22 @@
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>3.3672648933533</v>
+        <v>3.36727243562751</v>
       </c>
       <c r="G73" t="n">
-        <v>0.149173974709852</v>
+        <v>0.149174785626704</v>
       </c>
       <c r="H73" t="n">
-        <v>22.5727369663693</v>
+        <v>22.57266482054</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>3.07488927549131</v>
+        <v>3.07489522839768</v>
       </c>
       <c r="K73" t="n">
-        <v>3.6596405112153</v>
+        <v>3.65964964285733</v>
       </c>
     </row>
     <row r="74">
@@ -6900,22 +6900,22 @@
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>3.35724666269114</v>
+        <v>3.35725135036724</v>
       </c>
       <c r="G74" t="n">
-        <v>0.149603835387531</v>
+        <v>0.149610027019842</v>
       </c>
       <c r="H74" t="n">
-        <v>22.4409130554346</v>
+        <v>22.4400156676798</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>3.06402853338252</v>
+        <v>3.06402108568228</v>
       </c>
       <c r="K74" t="n">
-        <v>3.65046479199976</v>
+        <v>3.65048161505219</v>
       </c>
     </row>
     <row r="75">
@@ -6935,22 +6935,22 @@
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>3.34635390243569</v>
+        <v>3.34635815217667</v>
       </c>
       <c r="G75" t="n">
-        <v>0.152584135965122</v>
+        <v>0.152581348923295</v>
       </c>
       <c r="H75" t="n">
-        <v>21.931204586043</v>
+        <v>21.9316330324157</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>3.04729449133189</v>
+        <v>3.04730420357447</v>
       </c>
       <c r="K75" t="n">
-        <v>3.64541331353949</v>
+        <v>3.64541210077887</v>
       </c>
     </row>
     <row r="76">
@@ -6970,22 +6970,22 @@
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>2.78252012108819</v>
+        <v>2.78252065755771</v>
       </c>
       <c r="G76" t="n">
-        <v>0.111818172593489</v>
+        <v>0.111818086004972</v>
       </c>
       <c r="H76" t="n">
-        <v>24.8843283390433</v>
+        <v>24.8843524064074</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>2.56336052998787</v>
+        <v>2.56336123616776</v>
       </c>
       <c r="K76" t="n">
-        <v>3.00167971218851</v>
+        <v>3.00168007894766</v>
       </c>
     </row>
     <row r="77">
@@ -7005,22 +7005,22 @@
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>2.50595640087599</v>
+        <v>2.50595670178556</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0887316180026204</v>
+        <v>0.0887667489653693</v>
       </c>
       <c r="H77" t="n">
-        <v>28.2419779700398</v>
+        <v>28.2308041129592</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>2.33204562530089</v>
+        <v>2.33197707078873</v>
       </c>
       <c r="K77" t="n">
-        <v>2.67986717645109</v>
+        <v>2.67993633278239</v>
       </c>
     </row>
     <row r="78">
@@ -7040,22 +7040,22 @@
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>2.26893907576523</v>
+        <v>2.26893936020713</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0776593319368902</v>
+        <v>0.0776665638367071</v>
       </c>
       <c r="H78" t="n">
-        <v>29.2165670135958</v>
+        <v>29.2138501836846</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>2.11672958210549</v>
+        <v>2.11671569228421</v>
       </c>
       <c r="K78" t="n">
-        <v>2.42114856942498</v>
+        <v>2.42116302813006</v>
       </c>
     </row>
     <row r="79">
@@ -7075,22 +7075,22 @@
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>2.03414276372006</v>
+        <v>2.03417063843767</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0885967945396257</v>
+        <v>0.0885035803256344</v>
       </c>
       <c r="H79" t="n">
-        <v>22.9595525920553</v>
+        <v>22.984049130592</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>1.86049623727669</v>
+        <v>1.86070680849658</v>
       </c>
       <c r="K79" t="n">
-        <v>2.20778929016342</v>
+        <v>2.20763446837877</v>
       </c>
     </row>
     <row r="80">
@@ -7296,22 +7296,22 @@
         <v>129</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.0473309603565582</v>
+        <v>-0.0488192621076902</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0251870966317317</v>
+        <v>0.0248339538162397</v>
       </c>
       <c r="H86" t="n">
-        <v>-1.87917492232625</v>
+        <v>-1.96582720854404</v>
       </c>
       <c r="I86" t="n">
-        <v>0.0602206126359588</v>
+        <v>0.0493185737180173</v>
       </c>
       <c r="J86" t="n">
-        <v>-0.0966967626298825</v>
+        <v>-0.097492917181251</v>
       </c>
       <c r="K86" t="n">
-        <v>0.00203484191676603</v>
+        <v>-0.000145607034129358</v>
       </c>
     </row>
     <row r="87">
@@ -7331,22 +7331,22 @@
         <v>133</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.0756770456722147</v>
+        <v>-0.0841781964033739</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0360695437916883</v>
+        <v>0.0357060544065749</v>
       </c>
       <c r="H87" t="n">
-        <v>-2.09808713160529</v>
+        <v>-2.35753285548888</v>
       </c>
       <c r="I87" t="n">
-        <v>0.0358974491085826</v>
+        <v>0.0183968272513209</v>
       </c>
       <c r="J87" t="n">
-        <v>-0.146372052442714</v>
+        <v>-0.154160777070288</v>
       </c>
       <c r="K87" t="n">
-        <v>-0.00498203890171539</v>
+        <v>-0.0141956157364594</v>
       </c>
     </row>
     <row r="88">
@@ -7366,22 +7366,22 @@
         <v>136</v>
       </c>
       <c r="F88" t="n">
-        <v>0.032352740749065</v>
+        <v>0.0324927622989964</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0182703160530904</v>
+        <v>0.0175695974287026</v>
       </c>
       <c r="H88" t="n">
-        <v>1.7707816687491</v>
+        <v>1.84937432009197</v>
       </c>
       <c r="I88" t="n">
-        <v>0.0765970154163251</v>
+        <v>0.0644037808848761</v>
       </c>
       <c r="J88" t="n">
-        <v>-0.00345642070115621</v>
+        <v>-0.00194301588412819</v>
       </c>
       <c r="K88" t="n">
-        <v>0.0681619021992863</v>
+        <v>0.066928540482121</v>
       </c>
     </row>
     <row r="89">
@@ -7401,22 +7401,22 @@
         <v>139</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.0319248680944125</v>
+        <v>-0.0346526007752971</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0168791437368887</v>
+        <v>0.0168521278549044</v>
       </c>
       <c r="H89" t="n">
-        <v>-1.89137959792604</v>
+        <v>-2.05627449979335</v>
       </c>
       <c r="I89" t="n">
-        <v>0.0585736900443337</v>
+        <v>0.0397560648050679</v>
       </c>
       <c r="J89" t="n">
-        <v>-0.0650073819085892</v>
+        <v>-0.067682164433774</v>
       </c>
       <c r="K89" t="n">
-        <v>0.00115764571976425</v>
+        <v>-0.00162303711682025</v>
       </c>
     </row>
   </sheetData>
@@ -7503,61 +7503,61 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>3.12572244664196</v>
+        <v>3.46958742599383</v>
       </c>
       <c r="C2" t="n">
-        <v>2.41641047898685</v>
+        <v>2.77024815695977</v>
       </c>
       <c r="D2" t="n">
-        <v>2.35223133065423</v>
+        <v>2.46594629412324</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.402874885451785</v>
+        <v>-0.472397529851305</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.370644038171865</v>
+        <v>-0.432909817628428</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.338652099099897</v>
+        <v>-0.396291361988806</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.361770235946328</v>
+        <v>-0.421712515686981</v>
       </c>
       <c r="I2" t="n">
-        <v>0.202993092018206</v>
+        <v>0.236269473568803</v>
       </c>
       <c r="J2" t="n">
-        <v>0.265743792715465</v>
+        <v>0.308375232855356</v>
       </c>
       <c r="K2" t="n">
-        <v>0.275146915972191</v>
+        <v>0.319947978496743</v>
       </c>
       <c r="L2" t="n">
-        <v>0.19495653345735</v>
+        <v>0.227070972293648</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0566630384088017</v>
+        <v>0.0376306712183922</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0633466784297874</v>
+        <v>0.0420696699590729</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0631313317123567</v>
+        <v>0.0419262358971457</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.283612419693462</v>
+        <v>-0.259542635920132</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.355503861413192</v>
+        <v>-0.325846510697143</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.296780284976704</v>
+        <v>-0.271585946836208</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.588121589480052</v>
+        <v>-0.638264816666066</v>
       </c>
       <c r="T2" t="n">
-        <v>0.147667969484186</v>
+        <v>0.158303231948232</v>
       </c>
       <c r="U2" t="s">
         <v>162</v>
@@ -7568,61 +7568,61 @@
         <v>16</v>
       </c>
       <c r="B3" t="n">
-        <v>2.41641047898685</v>
+        <v>2.77024815695977</v>
       </c>
       <c r="C3" t="n">
-        <v>3.46648582713231</v>
+        <v>3.45484134619027</v>
       </c>
       <c r="D3" t="n">
-        <v>2.75638092067109</v>
+        <v>2.75165651579102</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.472094998993145</v>
+        <v>-0.527130596540867</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.434326395479677</v>
+        <v>-0.483067746960279</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.396837748285816</v>
+        <v>-0.442206592644348</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.42392793728829</v>
+        <v>-0.470573099806004</v>
       </c>
       <c r="I3" t="n">
-        <v>0.237870433309547</v>
+        <v>0.263644199379964</v>
       </c>
       <c r="J3" t="n">
-        <v>0.311402671362239</v>
+        <v>0.344104298141946</v>
       </c>
       <c r="K3" t="n">
-        <v>0.322421396094704</v>
+        <v>0.357017888768638</v>
       </c>
       <c r="L3" t="n">
-        <v>0.228453070146189</v>
+        <v>0.253379938544433</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0663986215734294</v>
+        <v>0.0419906475248253</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0742306139435653</v>
+        <v>0.0469439588915374</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0739782673416305</v>
+        <v>0.0467839062285784</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.332341403806994</v>
+        <v>-0.289613843966188</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.416584903046794</v>
+        <v>-0.363599838505952</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.347771711260046</v>
+        <v>-0.303052520644951</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.689169941387821</v>
+        <v>-0.712215649531727</v>
       </c>
       <c r="T3" t="n">
-        <v>0.173039602175201</v>
+        <v>0.176644609292274</v>
       </c>
       <c r="U3" t="s">
         <v>163</v>
@@ -7633,61 +7633,61 @@
         <v>18</v>
       </c>
       <c r="B4" t="n">
-        <v>2.35223133065423</v>
+        <v>2.46594629412324</v>
       </c>
       <c r="C4" t="n">
-        <v>2.75638092067109</v>
+        <v>2.75165651579102</v>
       </c>
       <c r="D4" t="n">
-        <v>3.45437405927526</v>
+        <v>3.07440494630202</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.459556295312231</v>
+        <v>-0.469227183778901</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.422790814748397</v>
+        <v>-0.430004480802353</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.386297854947041</v>
+        <v>-0.393631778304267</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.412668536534087</v>
+        <v>-0.418882325998621</v>
       </c>
       <c r="I4" t="n">
-        <v>0.231552664885649</v>
+        <v>0.234683825993987</v>
       </c>
       <c r="J4" t="n">
-        <v>0.303131908422611</v>
+        <v>0.306305670365015</v>
       </c>
       <c r="K4" t="n">
-        <v>0.313857979081941</v>
+        <v>0.31780074919747</v>
       </c>
       <c r="L4" t="n">
-        <v>0.222385424105313</v>
+        <v>0.225547057540337</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0646350938035823</v>
+        <v>0.0373781249132988</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0722590707705266</v>
+        <v>0.0417873327229657</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0720134264197771</v>
+        <v>0.0416448612732161</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.323514514320509</v>
+        <v>-0.2578007979036</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.405520531112361</v>
+        <v>-0.323659695271329</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.33853499736688</v>
+        <v>-0.26976328396127</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.670865791377158</v>
+        <v>-0.633981304948069</v>
       </c>
       <c r="T4" t="n">
-        <v>0.168443721470331</v>
+        <v>0.157240830055881</v>
       </c>
       <c r="U4" t="s">
         <v>164</v>
@@ -7698,61 +7698,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.402874885451785</v>
+        <v>-0.472397529851305</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.472094998993145</v>
+        <v>-0.527130596540867</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.459556295312231</v>
+        <v>-0.469227183778901</v>
       </c>
       <c r="E5" t="n">
-        <v>3.1308004090831</v>
+        <v>3.1307810775923</v>
       </c>
       <c r="F5" t="n">
-        <v>1.88072343066877</v>
+        <v>1.88387236066771</v>
       </c>
       <c r="G5" t="n">
-        <v>1.71838980808592</v>
+        <v>1.7245216283426</v>
       </c>
       <c r="H5" t="n">
-        <v>1.83569594864855</v>
+        <v>1.83514561254936</v>
       </c>
       <c r="I5" t="n">
-        <v>0.794775087778906</v>
+        <v>0.798388733496534</v>
       </c>
       <c r="J5" t="n">
-        <v>1.04046174223106</v>
+        <v>1.04204452603307</v>
       </c>
       <c r="K5" t="n">
-        <v>1.07727761629583</v>
+        <v>1.08115050784334</v>
       </c>
       <c r="L5" t="n">
-        <v>0.763309699118923</v>
+        <v>0.767305666893779</v>
       </c>
       <c r="M5" t="n">
-        <v>0.443147213806786</v>
+        <v>0.444007236570668</v>
       </c>
       <c r="N5" t="n">
-        <v>0.495418262740287</v>
+        <v>0.496383330330777</v>
       </c>
       <c r="O5" t="n">
-        <v>0.493734090826608</v>
+        <v>0.49469094060175</v>
       </c>
       <c r="P5" t="n">
-        <v>0.260694822208671</v>
+        <v>0.261680983877739</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.326777000971176</v>
+        <v>0.328531130193945</v>
       </c>
       <c r="R5" t="n">
-        <v>0.272798644398802</v>
+        <v>0.273823518527168</v>
       </c>
       <c r="S5" t="n">
-        <v>0.826178448945624</v>
+        <v>0.82859044209754</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.0318363300089731</v>
+        <v>-0.0319495813138447</v>
       </c>
       <c r="U5" t="s">
         <v>165</v>
@@ -7763,61 +7763,61 @@
         <v>23</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.370644038171865</v>
+        <v>-0.432909817628428</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.434326395479677</v>
+        <v>-0.483067746960279</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.422790814748397</v>
+        <v>-0.430004480802353</v>
       </c>
       <c r="E6" t="n">
-        <v>1.88072343066877</v>
+        <v>1.88387236066771</v>
       </c>
       <c r="F6" t="n">
-        <v>2.7682722535626</v>
+        <v>2.76827888546133</v>
       </c>
       <c r="G6" t="n">
-        <v>1.58091497043333</v>
+        <v>1.58036885556338</v>
       </c>
       <c r="H6" t="n">
-        <v>1.68883637037796</v>
+        <v>1.6817457802974</v>
       </c>
       <c r="I6" t="n">
-        <v>0.731191391199356</v>
+        <v>0.731651414695942</v>
       </c>
       <c r="J6" t="n">
-        <v>0.957222591007123</v>
+        <v>0.954940018140382</v>
       </c>
       <c r="K6" t="n">
-        <v>0.991093116882396</v>
+        <v>0.990777130707409</v>
       </c>
       <c r="L6" t="n">
-        <v>0.702243300522259</v>
+        <v>0.703166581808338</v>
       </c>
       <c r="M6" t="n">
-        <v>0.407694494646316</v>
+        <v>0.406892669125541</v>
       </c>
       <c r="N6" t="n">
-        <v>0.455783748545739</v>
+        <v>0.454890644908596</v>
       </c>
       <c r="O6" t="n">
-        <v>0.454234313965418</v>
+        <v>0.453339722046701</v>
       </c>
       <c r="P6" t="n">
-        <v>0.239838682238935</v>
+        <v>0.239807068938311</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.300634146220919</v>
+        <v>0.301069211141492</v>
       </c>
       <c r="R6" t="n">
-        <v>0.25097417292318</v>
+        <v>0.250934609046926</v>
       </c>
       <c r="S6" t="n">
-        <v>0.760082416714509</v>
+        <v>0.759328562302204</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.0292893559296093</v>
+        <v>-0.0292789156290354</v>
       </c>
       <c r="U6" t="s">
         <v>166</v>
@@ -7828,61 +7828,61 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.338652099099897</v>
+        <v>-0.396291361988806</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.396837748285816</v>
+        <v>-0.442206592644348</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.386297854947041</v>
+        <v>-0.393631778304267</v>
       </c>
       <c r="E7" t="n">
-        <v>1.71838980808592</v>
+        <v>1.7245216283426</v>
       </c>
       <c r="F7" t="n">
-        <v>1.58091497043333</v>
+        <v>1.58036885556338</v>
       </c>
       <c r="G7" t="n">
-        <v>3.18091525072593</v>
+        <v>3.18091117218113</v>
       </c>
       <c r="H7" t="n">
-        <v>1.543065375301</v>
+        <v>1.53949228835697</v>
       </c>
       <c r="I7" t="n">
-        <v>0.668079002955976</v>
+        <v>0.669763363693815</v>
       </c>
       <c r="J7" t="n">
-        <v>0.874600442379412</v>
+        <v>0.874164698965739</v>
       </c>
       <c r="K7" t="n">
-        <v>0.905547452189293</v>
+        <v>0.906970464902706</v>
       </c>
       <c r="L7" t="n">
-        <v>0.641629551020674</v>
+        <v>0.643687971634352</v>
       </c>
       <c r="M7" t="n">
-        <v>0.372504565524473</v>
+        <v>0.372474920791524</v>
       </c>
       <c r="N7" t="n">
-        <v>0.416443021563084</v>
+        <v>0.416412901454505</v>
       </c>
       <c r="O7" t="n">
-        <v>0.41502732558796</v>
+        <v>0.414993166192674</v>
       </c>
       <c r="P7" t="n">
-        <v>0.219137136499432</v>
+        <v>0.219522556648681</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.274685072990736</v>
+        <v>0.275602730355642</v>
       </c>
       <c r="R7" t="n">
-        <v>0.229311473346523</v>
+        <v>0.229708853761058</v>
       </c>
       <c r="S7" t="n">
-        <v>0.694476315277828</v>
+        <v>0.695099389984319</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.0267612610626881</v>
+        <v>-0.0268023058838199</v>
       </c>
       <c r="U7" t="s">
         <v>167</v>
@@ -7893,61 +7893,61 @@
         <v>27</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.361770235946328</v>
+        <v>-0.421712515686981</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.42392793728829</v>
+        <v>-0.470573099806004</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.412668536534087</v>
+        <v>-0.418882325998621</v>
       </c>
       <c r="E8" t="n">
-        <v>1.83569594864855</v>
+        <v>1.83514561254936</v>
       </c>
       <c r="F8" t="n">
-        <v>1.68883637037796</v>
+        <v>1.6817457802974</v>
       </c>
       <c r="G8" t="n">
-        <v>1.543065375301</v>
+        <v>1.53949228835697</v>
       </c>
       <c r="H8" t="n">
-        <v>3.07460220110553</v>
+        <v>3.07461350930152</v>
       </c>
       <c r="I8" t="n">
-        <v>0.713685517298021</v>
+        <v>0.712727099578494</v>
       </c>
       <c r="J8" t="n">
-        <v>0.934305174069002</v>
+        <v>0.930240297127665</v>
       </c>
       <c r="K8" t="n">
-        <v>0.967364786191623</v>
+        <v>0.96515047536846</v>
       </c>
       <c r="L8" t="n">
-        <v>0.685430489519608</v>
+        <v>0.684979032783056</v>
       </c>
       <c r="M8" t="n">
-        <v>0.397933646119584</v>
+        <v>0.396368306109431</v>
       </c>
       <c r="N8" t="n">
-        <v>0.444871567515774</v>
+        <v>0.443124804324789</v>
       </c>
       <c r="O8" t="n">
-        <v>0.443359228840448</v>
+        <v>0.441613996403386</v>
       </c>
       <c r="P8" t="n">
-        <v>0.234096566318984</v>
+        <v>0.233604409517682</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.293436491109654</v>
+        <v>0.29328199374621</v>
       </c>
       <c r="R8" t="n">
-        <v>0.244965455812221</v>
+        <v>0.244444133500656</v>
       </c>
       <c r="S8" t="n">
-        <v>0.741884846144373</v>
+        <v>0.73968837203939</v>
       </c>
       <c r="T8" t="n">
-        <v>-0.0285881226031145</v>
+        <v>-0.0285216104225782</v>
       </c>
       <c r="U8" t="s">
         <v>168</v>
@@ -7958,61 +7958,61 @@
         <v>30</v>
       </c>
       <c r="B9" t="n">
-        <v>0.202993092018206</v>
+        <v>0.236269473568803</v>
       </c>
       <c r="C9" t="n">
-        <v>0.237870433309547</v>
+        <v>0.263644199379964</v>
       </c>
       <c r="D9" t="n">
-        <v>0.231552664885649</v>
+        <v>0.234683825993987</v>
       </c>
       <c r="E9" t="n">
-        <v>0.794775087778906</v>
+        <v>0.798388733496534</v>
       </c>
       <c r="F9" t="n">
-        <v>0.731191391199356</v>
+        <v>0.731651414695942</v>
       </c>
       <c r="G9" t="n">
-        <v>0.668079002955976</v>
+        <v>0.669763363693815</v>
       </c>
       <c r="H9" t="n">
-        <v>0.713685517298021</v>
+        <v>0.712727099578494</v>
       </c>
       <c r="I9" t="n">
-        <v>2.85346183302723</v>
+        <v>2.8534602962655</v>
       </c>
       <c r="J9" t="n">
-        <v>1.51525713853578</v>
+        <v>1.51376089934386</v>
       </c>
       <c r="K9" t="n">
-        <v>1.56887325311627</v>
+        <v>1.57056951425037</v>
       </c>
       <c r="L9" t="n">
-        <v>1.11163190683343</v>
+        <v>1.11465228919777</v>
       </c>
       <c r="M9" t="n">
-        <v>0.214679862828236</v>
+        <v>0.21513617906432</v>
       </c>
       <c r="N9" t="n">
-        <v>0.240002241634446</v>
+        <v>0.240514127344834</v>
       </c>
       <c r="O9" t="n">
-        <v>0.23918635521083</v>
+        <v>0.239694108593332</v>
       </c>
       <c r="P9" t="n">
-        <v>0.0665542703744421</v>
+        <v>0.0667612234711333</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.0834247672835507</v>
+        <v>0.0838163319133247</v>
       </c>
       <c r="R9" t="n">
-        <v>0.0696443242841487</v>
+        <v>0.0698590812413993</v>
       </c>
       <c r="S9" t="n">
-        <v>-0.137189686004073</v>
+        <v>-0.136788155789921</v>
       </c>
       <c r="T9" t="n">
-        <v>0.0111584057342583</v>
+        <v>0.0110577818429859</v>
       </c>
       <c r="U9" t="s">
         <v>169</v>
@@ -8023,61 +8023,61 @@
         <v>32</v>
       </c>
       <c r="B10" t="n">
-        <v>0.265743792715465</v>
+        <v>0.308375232855356</v>
       </c>
       <c r="C10" t="n">
-        <v>0.311402671362239</v>
+        <v>0.344104298141946</v>
       </c>
       <c r="D10" t="n">
-        <v>0.303131908422612</v>
+        <v>0.306305670365015</v>
       </c>
       <c r="E10" t="n">
-        <v>1.04046174223106</v>
+        <v>1.04204452603307</v>
       </c>
       <c r="F10" t="n">
-        <v>0.957222591007123</v>
+        <v>0.954940018140382</v>
       </c>
       <c r="G10" t="n">
-        <v>0.874600442379412</v>
+        <v>0.874164698965739</v>
       </c>
       <c r="H10" t="n">
-        <v>0.934305174069002</v>
+        <v>0.930240297127665</v>
       </c>
       <c r="I10" t="n">
-        <v>1.51525713853578</v>
+        <v>1.51376089934386</v>
       </c>
       <c r="J10" t="n">
-        <v>3.79429467616396</v>
+        <v>3.7942883613863</v>
       </c>
       <c r="K10" t="n">
-        <v>2.05385476140033</v>
+        <v>2.04988284079552</v>
       </c>
       <c r="L10" t="n">
-        <v>1.45526764526029</v>
+        <v>1.45482678757492</v>
       </c>
       <c r="M10" t="n">
-        <v>0.281043263100276</v>
+        <v>0.28079238639033</v>
       </c>
       <c r="N10" t="n">
-        <v>0.314193479778272</v>
+        <v>0.3139152887788</v>
       </c>
       <c r="O10" t="n">
-        <v>0.313125380610557</v>
+        <v>0.312845013090534</v>
       </c>
       <c r="P10" t="n">
-        <v>0.0871280103912527</v>
+        <v>0.0871357078959418</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.109213637981077</v>
+        <v>0.109395769501838</v>
       </c>
       <c r="R10" t="n">
-        <v>0.0911732842352859</v>
+        <v>0.0911789835541505</v>
       </c>
       <c r="S10" t="n">
-        <v>-0.179598759335595</v>
+        <v>-0.178533768059071</v>
       </c>
       <c r="T10" t="n">
-        <v>0.0146077732547364</v>
+        <v>0.0144324444423054</v>
       </c>
       <c r="U10" t="s">
         <v>170</v>
@@ -8088,61 +8088,61 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>0.275146915972191</v>
+        <v>0.319947978496743</v>
       </c>
       <c r="C11" t="n">
-        <v>0.322421396094704</v>
+        <v>0.357017888768638</v>
       </c>
       <c r="D11" t="n">
-        <v>0.313857979081941</v>
+        <v>0.317800749197471</v>
       </c>
       <c r="E11" t="n">
-        <v>1.07727761629583</v>
+        <v>1.08115050784334</v>
       </c>
       <c r="F11" t="n">
-        <v>0.991093116882396</v>
+        <v>0.990777130707409</v>
       </c>
       <c r="G11" t="n">
-        <v>0.905547452189293</v>
+        <v>0.906970464902706</v>
       </c>
       <c r="H11" t="n">
-        <v>0.967364786191623</v>
+        <v>0.96515047536846</v>
       </c>
       <c r="I11" t="n">
-        <v>1.56887325311627</v>
+        <v>1.57056951425037</v>
       </c>
       <c r="J11" t="n">
-        <v>2.05385476140033</v>
+        <v>2.04988284079552</v>
       </c>
       <c r="K11" t="n">
-        <v>3.65929152292671</v>
+        <v>3.65928594431043</v>
       </c>
       <c r="L11" t="n">
-        <v>1.50676108147597</v>
+        <v>1.50942371550907</v>
       </c>
       <c r="M11" t="n">
-        <v>0.290987745401821</v>
+        <v>0.291329999400444</v>
       </c>
       <c r="N11" t="n">
-        <v>0.325310954947214</v>
+        <v>0.325695942355748</v>
       </c>
       <c r="O11" t="n">
-        <v>0.324205061978102</v>
+        <v>0.324585501222963</v>
       </c>
       <c r="P11" t="n">
-        <v>0.0902109626305151</v>
+        <v>0.0904057480169491</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.113078071798168</v>
+        <v>0.113501188095173</v>
       </c>
       <c r="R11" t="n">
-        <v>0.0943993751276622</v>
+        <v>0.0946007602472463</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.185953712177695</v>
+        <v>-0.185233806408504</v>
       </c>
       <c r="T11" t="n">
-        <v>0.0151246571714481</v>
+        <v>0.0149740670848494</v>
       </c>
       <c r="U11" t="s">
         <v>171</v>
@@ -8153,61 +8153,61 @@
         <v>36</v>
       </c>
       <c r="B12" t="n">
-        <v>0.19495653345735</v>
+        <v>0.227070972293648</v>
       </c>
       <c r="C12" t="n">
-        <v>0.228453070146189</v>
+        <v>0.253379938544433</v>
       </c>
       <c r="D12" t="n">
-        <v>0.222385424105313</v>
+        <v>0.225547057540337</v>
       </c>
       <c r="E12" t="n">
-        <v>0.763309699118923</v>
+        <v>0.767305666893779</v>
       </c>
       <c r="F12" t="n">
-        <v>0.702243300522259</v>
+        <v>0.703166581808338</v>
       </c>
       <c r="G12" t="n">
-        <v>0.641629551020674</v>
+        <v>0.643687971634352</v>
       </c>
       <c r="H12" t="n">
-        <v>0.685430489519608</v>
+        <v>0.684979032783056</v>
       </c>
       <c r="I12" t="n">
-        <v>1.11163190683343</v>
+        <v>1.11465228919777</v>
       </c>
       <c r="J12" t="n">
-        <v>1.45526764526029</v>
+        <v>1.45482678757492</v>
       </c>
       <c r="K12" t="n">
-        <v>1.50676108147597</v>
+        <v>1.50942371550907</v>
       </c>
       <c r="L12" t="n">
-        <v>3.16169407087064</v>
+        <v>3.16170543185816</v>
       </c>
       <c r="M12" t="n">
-        <v>0.206180621438775</v>
+        <v>0.20676044441031</v>
       </c>
       <c r="N12" t="n">
-        <v>0.230500479527886</v>
+        <v>0.231150372164544</v>
       </c>
       <c r="O12" t="n">
-        <v>0.22971689429717</v>
+        <v>0.230362278584828</v>
       </c>
       <c r="P12" t="n">
-        <v>0.0639193664670161</v>
+        <v>0.0641620590934665</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.0801219552467751</v>
+        <v>0.0805531738576608</v>
       </c>
       <c r="R12" t="n">
-        <v>0.0668870841979165</v>
+        <v>0.0671393103028441</v>
       </c>
       <c r="S12" t="n">
-        <v>-0.131758304401105</v>
+        <v>-0.131462685654257</v>
       </c>
       <c r="T12" t="n">
-        <v>0.0107166410405065</v>
+        <v>0.0106272775596914</v>
       </c>
       <c r="U12" t="s">
         <v>172</v>
@@ -8218,58 +8218,58 @@
         <v>39</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0566630384088017</v>
+        <v>0.0376306712183922</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0663986215734294</v>
+        <v>0.0419906475248253</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0646350938035823</v>
+        <v>0.0373781249132988</v>
       </c>
       <c r="E13" t="n">
-        <v>0.443147213806786</v>
+        <v>0.444007236570668</v>
       </c>
       <c r="F13" t="n">
-        <v>0.407694494646316</v>
+        <v>0.406892669125541</v>
       </c>
       <c r="G13" t="n">
-        <v>0.372504565524473</v>
+        <v>0.372474920791524</v>
       </c>
       <c r="H13" t="n">
-        <v>0.397933646119584</v>
+        <v>0.396368306109431</v>
       </c>
       <c r="I13" t="n">
-        <v>0.214679862828236</v>
+        <v>0.21513617906432</v>
       </c>
       <c r="J13" t="n">
-        <v>0.281043263100276</v>
+        <v>0.28079238639033</v>
       </c>
       <c r="K13" t="n">
-        <v>0.290987745401821</v>
+        <v>0.291329999400444</v>
       </c>
       <c r="L13" t="n">
-        <v>0.206180621438775</v>
+        <v>0.20676044441031</v>
       </c>
       <c r="M13" t="n">
-        <v>2.12473509806766</v>
+        <v>2.12472569430045</v>
       </c>
       <c r="N13" t="n">
-        <v>1.71983133758646</v>
+        <v>1.71983078463573</v>
       </c>
       <c r="O13" t="n">
-        <v>1.71398477953063</v>
+        <v>1.71396712286925</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.17559493488941</v>
+        <v>-0.175286108972828</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.220105584463664</v>
+        <v>-0.220065450055964</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.183747647135026</v>
+        <v>-0.1834197441351</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.105740462084523</v>
+        <v>-0.105739273628313</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -8283,58 +8283,58 @@
         <v>41</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0633466784297874</v>
+        <v>0.0420696699590729</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0742306139435653</v>
+        <v>0.0469439588915374</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0722590707705266</v>
+        <v>0.0417873327229656</v>
       </c>
       <c r="E14" t="n">
-        <v>0.495418262740287</v>
+        <v>0.496383330330777</v>
       </c>
       <c r="F14" t="n">
-        <v>0.455783748545739</v>
+        <v>0.454890644908596</v>
       </c>
       <c r="G14" t="n">
-        <v>0.416443021563084</v>
+        <v>0.416412901454505</v>
       </c>
       <c r="H14" t="n">
-        <v>0.444871567515774</v>
+        <v>0.443124804324789</v>
       </c>
       <c r="I14" t="n">
-        <v>0.240002241634446</v>
+        <v>0.240514127344834</v>
       </c>
       <c r="J14" t="n">
-        <v>0.314193479778272</v>
+        <v>0.3139152887788</v>
       </c>
       <c r="K14" t="n">
-        <v>0.325310954947214</v>
+        <v>0.325695942355748</v>
       </c>
       <c r="L14" t="n">
-        <v>0.230500479527886</v>
+        <v>0.231150372164544</v>
       </c>
       <c r="M14" t="n">
-        <v>1.71983133758646</v>
+        <v>1.71983078463573</v>
       </c>
       <c r="N14" t="n">
-        <v>2.15809855839014</v>
+        <v>2.15809271804026</v>
       </c>
       <c r="O14" t="n">
-        <v>1.91615638185776</v>
+        <v>1.91615054542447</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.196307084595222</v>
+        <v>-0.195963253222354</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.246067949604593</v>
+        <v>-0.246024866245923</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.205421443010448</v>
+        <v>-0.205056350309527</v>
       </c>
       <c r="S14" t="n">
-        <v>-0.118212987456827</v>
+        <v>-0.118212516525111</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -8348,58 +8348,58 @@
         <v>43</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0631313317123567</v>
+        <v>0.0419262358971457</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0739782673416305</v>
+        <v>0.0467839062285784</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0720134264197771</v>
+        <v>0.0416448612732161</v>
       </c>
       <c r="E15" t="n">
-        <v>0.493734090826608</v>
+        <v>0.49469094060175</v>
       </c>
       <c r="F15" t="n">
-        <v>0.454234313965418</v>
+        <v>0.453339722046701</v>
       </c>
       <c r="G15" t="n">
-        <v>0.41502732558796</v>
+        <v>0.414993166192674</v>
       </c>
       <c r="H15" t="n">
-        <v>0.443359228840448</v>
+        <v>0.441613996403386</v>
       </c>
       <c r="I15" t="n">
-        <v>0.23918635521083</v>
+        <v>0.239694108593332</v>
       </c>
       <c r="J15" t="n">
-        <v>0.313125380610557</v>
+        <v>0.312845013090534</v>
       </c>
       <c r="K15" t="n">
-        <v>0.324205061978102</v>
+        <v>0.324585501222963</v>
       </c>
       <c r="L15" t="n">
-        <v>0.22971689429717</v>
+        <v>0.230362278584828</v>
       </c>
       <c r="M15" t="n">
-        <v>1.71398477953063</v>
+        <v>1.71396712286925</v>
       </c>
       <c r="N15" t="n">
-        <v>1.91615638185776</v>
+        <v>1.91615054542447</v>
       </c>
       <c r="O15" t="n">
-        <v>2.25105712138488</v>
+        <v>2.25105163369438</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.195639739640066</v>
+        <v>-0.195295128052238</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.245231442836981</v>
+        <v>-0.245186058954707</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.204723113839311</v>
+        <v>-0.204357222760453</v>
       </c>
       <c r="S15" t="n">
-        <v>-0.117811122995461</v>
+        <v>-0.11780947791244</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -8413,58 +8413,58 @@
         <v>46</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.283612419693462</v>
+        <v>-0.259542635920132</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.332341403806994</v>
+        <v>-0.289613843966188</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.323514514320509</v>
+        <v>-0.2578007979036</v>
       </c>
       <c r="E16" t="n">
-        <v>0.260694822208671</v>
+        <v>0.261680983877739</v>
       </c>
       <c r="F16" t="n">
-        <v>0.239838682238935</v>
+        <v>0.239807068938311</v>
       </c>
       <c r="G16" t="n">
-        <v>0.219137136499432</v>
+        <v>0.219522556648681</v>
       </c>
       <c r="H16" t="n">
-        <v>0.234096566318984</v>
+        <v>0.233604409517682</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0665542703744421</v>
+        <v>0.0667612234711333</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0871280103912527</v>
+        <v>0.0871357078959418</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0902109626305151</v>
+        <v>0.0904057480169491</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0639193664670161</v>
+        <v>0.0641620590934665</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.17559493488941</v>
+        <v>-0.175286108972828</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.196307084595222</v>
+        <v>-0.195963253222354</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.195639739640066</v>
+        <v>-0.195295128052238</v>
       </c>
       <c r="P16" t="n">
-        <v>1.27989180732863</v>
+        <v>1.27989118129224</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.00175587181093</v>
+        <v>1.00179055468182</v>
       </c>
       <c r="R16" t="n">
-        <v>0.836281754947215</v>
+        <v>0.834970537946648</v>
       </c>
       <c r="S16" t="n">
-        <v>0.270157914183809</v>
+        <v>0.26974938983818</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -8478,58 +8478,58 @@
         <v>48</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.355503861413192</v>
+        <v>-0.325846510697143</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.416584903046794</v>
+        <v>-0.363599838505952</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.405520531112361</v>
+        <v>-0.323659695271329</v>
       </c>
       <c r="E17" t="n">
-        <v>0.326777000971176</v>
+        <v>0.328531130193945</v>
       </c>
       <c r="F17" t="n">
-        <v>0.300634146220919</v>
+        <v>0.301069211141492</v>
       </c>
       <c r="G17" t="n">
-        <v>0.274685072990736</v>
+        <v>0.275602730355642</v>
       </c>
       <c r="H17" t="n">
-        <v>0.293436491109654</v>
+        <v>0.29328199374621</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0834247672835507</v>
+        <v>0.0838163319133247</v>
       </c>
       <c r="J17" t="n">
-        <v>0.109213637981077</v>
+        <v>0.109395769501838</v>
       </c>
       <c r="K17" t="n">
-        <v>0.113078071798168</v>
+        <v>0.113501188095173</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0801219552467751</v>
+        <v>0.0805531738576608</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.220105584463664</v>
+        <v>-0.220065450055964</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.246067949604593</v>
+        <v>-0.246024866245923</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.245231442836981</v>
+        <v>-0.245186058954707</v>
       </c>
       <c r="P17" t="n">
-        <v>1.00175587181093</v>
+        <v>1.00179055468182</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.28994084090997</v>
+        <v>1.28994026897097</v>
       </c>
       <c r="R17" t="n">
-        <v>1.0482664808349</v>
+        <v>1.04827569220093</v>
       </c>
       <c r="S17" t="n">
-        <v>0.338638843064361</v>
+        <v>0.338660725741039</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -8543,58 +8543,58 @@
         <v>50</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.296780284976704</v>
+        <v>-0.271585946836208</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.347771711260046</v>
+        <v>-0.303052520644951</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.33853499736688</v>
+        <v>-0.26976328396127</v>
       </c>
       <c r="E18" t="n">
-        <v>0.272798644398802</v>
+        <v>0.273823518527168</v>
       </c>
       <c r="F18" t="n">
-        <v>0.25097417292318</v>
+        <v>0.250934609046925</v>
       </c>
       <c r="G18" t="n">
-        <v>0.229311473346523</v>
+        <v>0.229708853761058</v>
       </c>
       <c r="H18" t="n">
-        <v>0.244965455812221</v>
+        <v>0.244444133500656</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0696443242841487</v>
+        <v>0.0698590812413993</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0911732842352859</v>
+        <v>0.0911789835541505</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0943993751276622</v>
+        <v>0.0946007602472463</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0668870841979165</v>
+        <v>0.0671393103028441</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.183747647135026</v>
+        <v>-0.1834197441351</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.205421443010448</v>
+        <v>-0.205056350309527</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.204723113839311</v>
+        <v>-0.204357222760453</v>
       </c>
       <c r="P18" t="n">
-        <v>0.836281754947215</v>
+        <v>0.834970537946648</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.0482664808349</v>
+        <v>1.04827569220093</v>
       </c>
       <c r="R18" t="n">
-        <v>1.34982159820539</v>
+        <v>1.34982111590729</v>
       </c>
       <c r="S18" t="n">
-        <v>0.282701099080363</v>
+        <v>0.282266315081409</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -8608,61 +8608,61 @@
         <v>52</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.588121589480052</v>
+        <v>-0.638264816666066</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.689169941387821</v>
+        <v>-0.712215649531727</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.670865791377158</v>
+        <v>-0.633981304948069</v>
       </c>
       <c r="E19" t="n">
-        <v>0.826178448945624</v>
+        <v>0.82859044209754</v>
       </c>
       <c r="F19" t="n">
-        <v>0.760082416714509</v>
+        <v>0.759328562302204</v>
       </c>
       <c r="G19" t="n">
-        <v>0.694476315277828</v>
+        <v>0.695099389984319</v>
       </c>
       <c r="H19" t="n">
-        <v>0.741884846144373</v>
+        <v>0.73968837203939</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.137189686004073</v>
+        <v>-0.136788155789921</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.179598759335595</v>
+        <v>-0.178533768059071</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.185953712177695</v>
+        <v>-0.185233806408504</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.131758304401105</v>
+        <v>-0.131462685654257</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.105740462084523</v>
+        <v>-0.105739273628313</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.118212987456827</v>
+        <v>-0.118212516525111</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.117811122995461</v>
+        <v>-0.11780947791244</v>
       </c>
       <c r="P19" t="n">
-        <v>0.270157914183809</v>
+        <v>0.26974938983818</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.338638843064361</v>
+        <v>0.338660725741039</v>
       </c>
       <c r="R19" t="n">
-        <v>0.282701099080363</v>
+        <v>0.282266315081409</v>
       </c>
       <c r="S19" t="n">
-        <v>3.00484115147213</v>
+        <v>3.00484225188172</v>
       </c>
       <c r="T19" t="n">
-        <v>-0.0515015025102929</v>
+        <v>-0.051526056431136</v>
       </c>
       <c r="U19" t="s">
         <v>179</v>
@@ -8673,37 +8673,37 @@
         <v>58</v>
       </c>
       <c r="B20" t="n">
-        <v>0.147667969484186</v>
+        <v>0.158303231948232</v>
       </c>
       <c r="C20" t="n">
-        <v>0.173039602175201</v>
+        <v>0.176644609292274</v>
       </c>
       <c r="D20" t="n">
-        <v>0.168443721470331</v>
+        <v>0.157240830055881</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.0318363300089731</v>
+        <v>-0.0319495813138447</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.0292893559296093</v>
+        <v>-0.0292789156290354</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.0267612610626881</v>
+        <v>-0.0268023058838199</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.0285881226031145</v>
+        <v>-0.0285216104225782</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0111584057342583</v>
+        <v>0.0110577818429859</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0146077732547364</v>
+        <v>0.0144324444423054</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0151246571714481</v>
+        <v>0.0149740670848494</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0107166410405065</v>
+        <v>0.0106272775596914</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -8724,7 +8724,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-0.0515015025102929</v>
+        <v>-0.051526056431136</v>
       </c>
       <c r="T20" t="n">
         <v>0.25</v>
@@ -8823,61 +8823,61 @@
         <v>182</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00831522710895438</v>
+        <v>0.00831075684291038</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0348079657454741</v>
+        <v>-0.0107421872808433</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.0061212504749677</v>
+        <v>0.0437609990387604</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05896185719647</v>
+        <v>-0.134426460905322</v>
       </c>
       <c r="G2" t="n">
-        <v>0.174126059109505</v>
+        <v>0.140579367013956</v>
       </c>
       <c r="H2" t="n">
-        <v>0.30307036176577</v>
+        <v>0.158668379600234</v>
       </c>
       <c r="I2" t="n">
-        <v>0.188807104403317</v>
+        <v>0.0987721424507523</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.23422449147901</v>
+        <v>-0.293637913049213</v>
       </c>
       <c r="K2" t="n">
-        <v>0.220531197656019</v>
+        <v>0.45021165135738</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.08474742015622</v>
+        <v>-0.228564623572198</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.0581178373332625</v>
+        <v>-0.020329261569233</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0696017982565832</v>
+        <v>0.0420846748829352</v>
       </c>
       <c r="O2" t="n">
-        <v>0.106684132816316</v>
+        <v>0.0198416776828196</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0727970321404488</v>
+        <v>-0.0416023676852488</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.158826570537974</v>
+        <v>0.0129126159628472</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.100572606497597</v>
+        <v>-0.0806168484289371</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.154228083077637</v>
+        <v>-0.146615446672422</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0390774383648937</v>
+        <v>0.00160118444030399</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.0308040641587419</v>
+        <v>0.0354837503002881</v>
       </c>
       <c r="V2" t="s">
         <v>183</v>
@@ -8891,61 +8891,61 @@
         <v>182</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0348079657454741</v>
+        <v>-0.0107421872808433</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0114123557044303</v>
+        <v>0.0103471976282203</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00312504900783672</v>
+        <v>0.010247829294936</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.134728991763482</v>
+        <v>-0.349694444599149</v>
       </c>
       <c r="G3" t="n">
-        <v>0.141995944865206</v>
+        <v>-0.0734866453929309</v>
       </c>
       <c r="H3" t="n">
-        <v>0.159214765897244</v>
+        <v>-0.0222291764113601</v>
       </c>
       <c r="I3" t="n">
-        <v>0.100987564052061</v>
+        <v>0.0495444243394595</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.295238872789957</v>
+        <v>-0.275513531686257</v>
       </c>
       <c r="K3" t="n">
-        <v>0.447184212850497</v>
+        <v>0.346715351029999</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.231038041170158</v>
+        <v>-0.0895902776905974</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.0217113594217738</v>
+        <v>0.00409528991395292</v>
       </c>
       <c r="N3" t="n">
-        <v>0.013316724527898</v>
+        <v>0.0014864716236624</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.0123192663016729</v>
+        <v>0.032841412769118</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.0736543991297336</v>
+        <v>-0.107469806582211</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0857113838497087</v>
+        <v>0.0298540316346856</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0101215439207132</v>
+        <v>-0.0321671164326029</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.0704296822485841</v>
+        <v>-0.106518222676361</v>
       </c>
       <c r="T3" t="n">
-        <v>0.052506309162059</v>
+        <v>-0.0655494847422825</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0207473800733198</v>
+        <v>0.00826663331127642</v>
       </c>
       <c r="V3" t="s">
         <v>184</v>
@@ -8959,61 +8959,61 @@
         <v>182</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0061212504749677</v>
+        <v>0.0437609990387604</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00312504900783672</v>
+        <v>0.010247829294936</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0108144845432356</v>
+        <v>0.00819895412163341</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.417268745827785</v>
+        <v>-0.0485593082907027</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.133763577604812</v>
+        <v>0.280823779846507</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.078137914108667</v>
+        <v>0.215355457447156</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.00836013893245741</v>
+        <v>0.384972448893479</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.243421997191943</v>
+        <v>-0.159861515850786</v>
       </c>
       <c r="K4" t="n">
-        <v>0.387687740749334</v>
+        <v>0.261216475218122</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0464303680039</v>
+        <v>-0.144925149603619</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0350898043530726</v>
+        <v>0.0676412061759194</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.0211579746550946</v>
+        <v>0.0579354145285976</v>
       </c>
       <c r="O4" t="n">
-        <v>0.00752630089012876</v>
+        <v>0.0278793456146282</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.13269932677341</v>
+        <v>-0.051142077757234</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0637547019890067</v>
+        <v>0.12487477990703</v>
       </c>
       <c r="R4" t="n">
-        <v>0.00975357617380584</v>
+        <v>0.0569323397865769</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.0710357459544321</v>
+        <v>-0.0456055756724959</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.106899342896852</v>
+        <v>0.105647213004509</v>
       </c>
       <c r="U4" t="n">
-        <v>0.016467521133219</v>
+        <v>-0.0137497057955265</v>
       </c>
       <c r="V4" t="s">
         <v>185</v>
@@ -9027,61 +9027,61 @@
         <v>182</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05896185719647</v>
+        <v>-0.134426460905322</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.134728991763482</v>
+        <v>-0.349694444599149</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.417268745827785</v>
+        <v>-0.0485593082907027</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00287838367625781</v>
+        <v>0.00289771516705883</v>
       </c>
       <c r="G5" t="n">
-        <v>0.043263824679427</v>
+        <v>0.0401148946804946</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0145677214123456</v>
+        <v>0.00843590115566561</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.0689685931637927</v>
+        <v>-0.0684182570646013</v>
       </c>
       <c r="J5" t="n">
-        <v>0.288082655297315</v>
+        <v>0.284469009579687</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.52344553131408</v>
+        <v>-0.525028315116084</v>
       </c>
       <c r="L5" t="n">
-        <v>0.090783726094138</v>
+        <v>0.0869108345466263</v>
       </c>
       <c r="M5" t="n">
-        <v>0.00366274582348447</v>
+        <v>-0.00033322195137131</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.092844353262685</v>
+        <v>-0.0937043760265675</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.0981807710558192</v>
+        <v>-0.0991458386463087</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0122005753265373</v>
+        <v>0.0112437255513947</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.219572312492624</v>
+        <v>-0.220558474161693</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0471419794566798</v>
+        <v>0.0453878502339106</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0362766680902585</v>
+        <v>0.0352517939618923</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0486508637535141</v>
+        <v>0.0462388706015974</v>
       </c>
       <c r="U5" t="n">
-        <v>-0.00662520845256524</v>
+        <v>-0.00651195714769366</v>
       </c>
       <c r="V5" t="s">
         <v>186</v>
@@ -9095,61 +9095,61 @@
         <v>182</v>
       </c>
       <c r="C6" t="n">
-        <v>0.174126059109505</v>
+        <v>0.140579367013956</v>
       </c>
       <c r="D6" t="n">
-        <v>0.141995944865205</v>
+        <v>-0.073486645392931</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.133763577604812</v>
+        <v>0.280823779846508</v>
       </c>
       <c r="F6" t="n">
-        <v>0.043263824679427</v>
+        <v>0.0401148946804948</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00243780560900042</v>
+        <v>0.00243117371026447</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.080346012763781</v>
+        <v>-0.0797998978938261</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0508086000362435</v>
+        <v>0.0578991901167993</v>
       </c>
       <c r="J6" t="n">
-        <v>0.270174107207563</v>
+        <v>0.269714083710978</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.357768790369891</v>
+        <v>-0.35548621750315</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.0598232033639615</v>
+        <v>-0.0595072171889744</v>
       </c>
       <c r="M6" t="n">
-        <v>0.090542316227857</v>
+        <v>0.0896190349417784</v>
       </c>
       <c r="N6" t="n">
-        <v>0.121549929568526</v>
+        <v>0.1223517550893</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0361370525466627</v>
+        <v>0.0370301561838058</v>
       </c>
       <c r="P6" t="n">
-        <v>0.066361953672271</v>
+        <v>0.0672565455909881</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.183170498351816</v>
+        <v>-0.183138885051192</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.0787406550966585</v>
+        <v>-0.0791757200172313</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.0499045325044247</v>
+        <v>-0.0498649686281707</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.0219167362411348</v>
+        <v>-0.0211628818288301</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.00473431270944365</v>
+        <v>-0.00474475301001752</v>
       </c>
       <c r="V6" t="s">
         <v>187</v>
@@ -9163,61 +9163,61 @@
         <v>182</v>
       </c>
       <c r="C7" t="n">
-        <v>0.30307036176577</v>
+        <v>0.158668379600234</v>
       </c>
       <c r="D7" t="n">
-        <v>0.159214765897244</v>
+        <v>-0.0222291764113602</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.078137914108667</v>
+        <v>0.215355457447156</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0145677214123459</v>
+        <v>0.00843590115566561</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.0803460127637812</v>
+        <v>-0.0797998978938261</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00203527621640553</v>
+        <v>0.00203935476120432</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0393196952497461</v>
+        <v>0.0428927821937797</v>
       </c>
       <c r="J7" t="n">
-        <v>0.522390518419326</v>
+        <v>0.520706157681487</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.113965310556301</v>
+        <v>-0.113529567142628</v>
       </c>
       <c r="L7" t="n">
-        <v>0.045644732958283</v>
+        <v>0.0442217202448698</v>
       </c>
       <c r="M7" t="n">
-        <v>0.165021126476614</v>
+        <v>0.162962705862936</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0749850181735779</v>
+        <v>0.0750146629065273</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.0686873407395835</v>
+        <v>-0.0686572206310045</v>
       </c>
       <c r="P7" t="n">
-        <v>0.111241012355387</v>
+        <v>0.111275171750672</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0251295208304916</v>
+        <v>0.0247441006812424</v>
       </c>
       <c r="R7" t="n">
-        <v>0.0969580767589227</v>
+        <v>0.096040419394017</v>
       </c>
       <c r="S7" t="n">
-        <v>0.115117993408841</v>
+        <v>0.114720612994307</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.0589505983911648</v>
+        <v>-0.0595736730976556</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.0368482063929332</v>
+        <v>-0.0368071615718015</v>
       </c>
       <c r="V7" t="s">
         <v>188</v>
@@ -9231,61 +9231,61 @@
         <v>182</v>
       </c>
       <c r="C8" t="n">
-        <v>0.188807104403317</v>
+        <v>0.0987721424507523</v>
       </c>
       <c r="D8" t="n">
-        <v>0.100987564052061</v>
+        <v>0.0495444243394595</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.00836013893245741</v>
+        <v>0.384972448893479</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.0689685931637927</v>
+        <v>-0.068418257064601</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0508086000362435</v>
+        <v>0.0578991901167993</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0393196952497461</v>
+        <v>0.0428927821937797</v>
       </c>
       <c r="I8" t="n">
-        <v>0.00232087581754525</v>
+        <v>0.00230956762156298</v>
       </c>
       <c r="J8" t="n">
-        <v>0.30474871119538</v>
+        <v>0.305707128914907</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.202625611028494</v>
+        <v>-0.198560734087157</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0899861468989519</v>
+        <v>0.0922004577221149</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.0752802846948457</v>
+        <v>-0.0748288279582935</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0715702227925718</v>
+        <v>0.0731355628027254</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.0236153089814067</v>
+        <v>-0.0218685457904223</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.0166409766784085</v>
+        <v>-0.0148957442413464</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.159904486209743</v>
+        <v>-0.159412329408442</v>
       </c>
       <c r="R8" t="n">
-        <v>0.0201729763459662</v>
+        <v>0.0203274737094101</v>
       </c>
       <c r="S8" t="n">
-        <v>-0.0164720557211885</v>
+        <v>-0.0159507334096235</v>
       </c>
       <c r="T8" t="n">
-        <v>0.0184701834414266</v>
+        <v>0.0206666575464088</v>
       </c>
       <c r="U8" t="n">
-        <v>-0.0039562560951104</v>
+        <v>-0.0040227682756467</v>
       </c>
       <c r="V8" t="s">
         <v>189</v>
@@ -9299,61 +9299,61 @@
         <v>182</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.23422449147901</v>
+        <v>-0.293637913049213</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.295238872789957</v>
+        <v>-0.275513531686257</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.243421997191943</v>
+        <v>-0.159861515850786</v>
       </c>
       <c r="F9" t="n">
-        <v>0.288082655297315</v>
+        <v>0.284469009579687</v>
       </c>
       <c r="G9" t="n">
-        <v>0.270174107207563</v>
+        <v>0.269714083710977</v>
       </c>
       <c r="H9" t="n">
-        <v>0.522390518419326</v>
+        <v>0.520706157681487</v>
       </c>
       <c r="I9" t="n">
-        <v>0.30474871119538</v>
+        <v>0.305707128914907</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.000340443720131312</v>
+        <v>-0.000338906958399221</v>
       </c>
       <c r="K9" t="n">
-        <v>0.06192853423478</v>
+        <v>0.0634247734266988</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.085784425694259</v>
+        <v>-0.0874806868283615</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.170208287212264</v>
+        <v>-0.173228669576611</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0431367402318854</v>
+        <v>0.0426804239958007</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0261999221553395</v>
+        <v>0.0256880364449511</v>
       </c>
       <c r="P9" t="n">
-        <v>0.0103847382382789</v>
+        <v>0.00987698485577707</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.116772643949285</v>
+        <v>0.116565690852594</v>
       </c>
       <c r="R9" t="n">
-        <v>0.109110508091961</v>
+        <v>0.108718943462187</v>
       </c>
       <c r="S9" t="n">
-        <v>0.0813833007990055</v>
+        <v>0.0811685438417549</v>
       </c>
       <c r="T9" t="n">
-        <v>0.18612004558532</v>
+        <v>0.185718515371168</v>
       </c>
       <c r="U9" t="n">
-        <v>-0.0644128436040808</v>
+        <v>-0.0643122197128084</v>
       </c>
       <c r="V9" t="s">
         <v>190</v>
@@ -9367,61 +9367,61 @@
         <v>182</v>
       </c>
       <c r="C10" t="n">
-        <v>0.220531197656019</v>
+        <v>0.45021165135738</v>
       </c>
       <c r="D10" t="n">
-        <v>0.447184212850497</v>
+        <v>0.346715351029999</v>
       </c>
       <c r="E10" t="n">
-        <v>0.387687740749334</v>
+        <v>0.261216475218122</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.52344553131408</v>
+        <v>-0.525028315116084</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.357768790369891</v>
+        <v>-0.35548621750315</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.113965310556301</v>
+        <v>-0.113529567142628</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.202625611028494</v>
+        <v>-0.198560734087157</v>
       </c>
       <c r="J10" t="n">
-        <v>0.06192853423478</v>
+        <v>0.0634247734266988</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.000589973947656475</v>
+        <v>-0.000583659169988593</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0351127117273622</v>
+        <v>0.0390846323321687</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0138160702958898</v>
+        <v>0.0142569279812617</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0119611835227398</v>
+        <v>0.0122120602326856</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.110068974333786</v>
+        <v>-0.109790783334313</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.170850950443547</v>
+        <v>-0.170570582923524</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.0119581560595007</v>
+        <v>0.0119504585548116</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.0300147303798032</v>
+        <v>-0.0301968619005636</v>
       </c>
       <c r="S10" t="n">
-        <v>-0.079303951928996</v>
+        <v>-0.0793096512478606</v>
       </c>
       <c r="T10" t="n">
-        <v>-0.304470425917023</v>
+        <v>-0.305535417193547</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0475224042600565</v>
+        <v>0.0476977330724875</v>
       </c>
       <c r="V10" t="s">
         <v>191</v>
@@ -9435,61 +9435,61 @@
         <v>182</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.08474742015622</v>
+        <v>-0.228564623572198</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.231038041170158</v>
+        <v>-0.0895902776905973</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.0464303680039</v>
+        <v>-0.144925149603619</v>
       </c>
       <c r="F11" t="n">
-        <v>0.090783726094138</v>
+        <v>0.0869108345466261</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.0598232033639614</v>
+        <v>-0.0595072171889746</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0456447329582831</v>
+        <v>0.0442217202448698</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0899861468989519</v>
+        <v>0.0922004577221148</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.0857844256942593</v>
+        <v>-0.0874806868283615</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0351127117273622</v>
+        <v>0.0390846323321687</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.00063111187667797</v>
+        <v>-0.000625533260403266</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0889813645168165</v>
+        <v>0.086318730483719</v>
       </c>
       <c r="N11" t="n">
-        <v>0.00875666130663172</v>
+        <v>0.00841440730800824</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.0064320641520737</v>
+        <v>-0.0068170515606078</v>
       </c>
       <c r="P11" t="n">
-        <v>0.0139133512427242</v>
+        <v>0.0135329119978635</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.104496176733664</v>
+        <v>-0.104690962120098</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.0407066562314856</v>
+        <v>-0.0411297725284915</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.131565440741613</v>
+        <v>-0.131766825861197</v>
       </c>
       <c r="T11" t="n">
-        <v>0.0890033252864796</v>
+        <v>0.0882834195172883</v>
       </c>
       <c r="U11" t="n">
-        <v>0.00262682211849263</v>
+        <v>0.00277741220509125</v>
       </c>
       <c r="V11" t="s">
         <v>192</v>
@@ -9503,61 +9503,61 @@
         <v>182</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.0581178373332625</v>
+        <v>-0.020329261569233</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.0217113594217737</v>
+        <v>0.00409528991395297</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0350898043530726</v>
+        <v>0.0676412061759194</v>
       </c>
       <c r="F12" t="n">
-        <v>0.00366274582348436</v>
+        <v>-0.00033322195137131</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0905423162278569</v>
+        <v>0.0896190349417784</v>
       </c>
       <c r="H12" t="n">
-        <v>0.165021126476614</v>
+        <v>0.162962705862936</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.0752802846948458</v>
+        <v>-0.0748288279582936</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.170208287212264</v>
+        <v>-0.173228669576611</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0138160702958898</v>
+        <v>0.0142569279812617</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0889813645168167</v>
+        <v>0.0863187304837187</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.000311416201687287</v>
+        <v>-0.000322777189206924</v>
       </c>
       <c r="N12" t="n">
-        <v>0.164175808658215</v>
+        <v>0.163595985686681</v>
       </c>
       <c r="O12" t="n">
-        <v>0.140958853128535</v>
+        <v>0.140308960491877</v>
       </c>
       <c r="P12" t="n">
-        <v>0.100759979761861</v>
+        <v>0.100114595474203</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.0237422018019133</v>
+        <v>-0.0239848944283637</v>
       </c>
       <c r="R12" t="n">
-        <v>0.00294586450743409</v>
+        <v>0.00251464589654839</v>
       </c>
       <c r="S12" t="n">
-        <v>-0.104184447735608</v>
+        <v>-0.104436673840535</v>
       </c>
       <c r="T12" t="n">
-        <v>0.0727004983018812</v>
+        <v>0.0724048795550333</v>
       </c>
       <c r="U12" t="n">
-        <v>-0.0240302505079618</v>
+        <v>-0.0239408870271467</v>
       </c>
       <c r="V12" t="s">
         <v>193</v>
@@ -9571,58 +9571,58 @@
         <v>182</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0696017982565832</v>
+        <v>0.0420846748829352</v>
       </c>
       <c r="D13" t="n">
-        <v>0.013316724527898</v>
+        <v>0.0014864716236624</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.0211579746550946</v>
+        <v>0.0579354145285976</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.092844353262685</v>
+        <v>-0.0937043760265675</v>
       </c>
       <c r="G13" t="n">
-        <v>0.121549929568526</v>
+        <v>0.1223517550893</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0749850181735779</v>
+        <v>0.0750146629065273</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0715702227925718</v>
+        <v>0.0731355628027254</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0431367402318854</v>
+        <v>0.0426804239958007</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0119611835227398</v>
+        <v>0.0122120602326856</v>
       </c>
       <c r="L13" t="n">
-        <v>0.00875666130663172</v>
+        <v>0.00841440730800824</v>
       </c>
       <c r="M13" t="n">
-        <v>0.164175808658215</v>
+        <v>0.163595985686681</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.0000108237075182593</v>
+        <v>-0.0000014199403093329</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.00122029455575312</v>
+        <v>-0.00121974160502547</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.00498474451785169</v>
+        <v>-0.00496708785646804</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.0830269621029915</v>
+        <v>-0.0833357880195742</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.0691524947352429</v>
+        <v>-0.0691926291429433</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.0803975158494617</v>
+        <v>-0.0807254188493869</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.0773501159764649</v>
+        <v>-0.0773513044326747</v>
       </c>
       <c r="U13" t="n">
         <v>-0.0221893491124256</v>
@@ -9639,58 +9639,58 @@
         <v>182</v>
       </c>
       <c r="C14" t="n">
-        <v>0.106684132816316</v>
+        <v>0.0198416776828196</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.0123192663016729</v>
+        <v>0.032841412769118</v>
       </c>
       <c r="E14" t="n">
-        <v>0.00752630089012876</v>
+        <v>0.0278793456146282</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.0981807710558191</v>
+        <v>-0.0991458386463087</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0361370525466626</v>
+        <v>0.0370301561838058</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.0686873407395835</v>
+        <v>-0.0686572206310046</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.0236153089814068</v>
+        <v>-0.0218685457904224</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0261999221553395</v>
+        <v>0.025688036444951</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.110068974333786</v>
+        <v>-0.109790783334313</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.0064320641520737</v>
+        <v>-0.0068170515606078</v>
       </c>
       <c r="M14" t="n">
-        <v>0.140958853128535</v>
+        <v>0.140308960491877</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.00122029455575312</v>
+        <v>-0.00121974160502547</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.00000710500965839245</v>
+        <v>-0.00000126465977823287</v>
       </c>
       <c r="P14" t="n">
-        <v>0.00241264583734546</v>
+        <v>0.00241848227064123</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.0451060311920404</v>
+        <v>-0.0454498625649079</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.0070044218109731</v>
+        <v>-0.00704750516964336</v>
       </c>
       <c r="S14" t="n">
-        <v>0.0090610214565825</v>
+        <v>0.00869592875566116</v>
       </c>
       <c r="T14" t="n">
-        <v>0.0109075709798156</v>
+        <v>0.0109071000481</v>
       </c>
       <c r="U14" t="n">
         <v>-0.0162721893491122</v>
@@ -9707,58 +9707,58 @@
         <v>182</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0727970321404488</v>
+        <v>-0.0416023676852488</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.0736543991297336</v>
+        <v>-0.107469806582211</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.13269932677341</v>
+        <v>-0.051142077757234</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0122005753265375</v>
+        <v>0.0112437255513947</v>
       </c>
       <c r="G15" t="n">
-        <v>0.066361953672271</v>
+        <v>0.0672565455909881</v>
       </c>
       <c r="H15" t="n">
-        <v>0.111241012355387</v>
+        <v>0.111275171750672</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.0166409766784085</v>
+        <v>-0.0148957442413465</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0103847382382789</v>
+        <v>0.00987698485577707</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.170850950443547</v>
+        <v>-0.170570582923524</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0139133512427242</v>
+        <v>0.0135329119978635</v>
       </c>
       <c r="M15" t="n">
-        <v>0.100759979761861</v>
+        <v>0.100114595474203</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.00498474451785169</v>
+        <v>-0.00496708785646804</v>
       </c>
       <c r="O15" t="n">
-        <v>0.00241264583734546</v>
+        <v>0.00241848227064123</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.00000673799494776972</v>
+        <v>-0.00000125030444397822</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.0026901507699347</v>
+        <v>-0.00303476235776304</v>
       </c>
       <c r="R15" t="n">
-        <v>0.0501927537154515</v>
+        <v>0.0501473698331767</v>
       </c>
       <c r="S15" t="n">
-        <v>0.0702477803425856</v>
+        <v>0.0698818892637274</v>
       </c>
       <c r="T15" t="n">
-        <v>0.0321260979613265</v>
+        <v>0.0321244528783059</v>
       </c>
       <c r="U15" t="n">
         <v>-0.00147928994082847</v>
@@ -9775,58 +9775,58 @@
         <v>182</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.158826570537974</v>
+        <v>0.0129126159628472</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0857113838497087</v>
+        <v>0.0298540316346856</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0637547019890067</v>
+        <v>0.12487477990703</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.219572312492624</v>
+        <v>-0.220558474161693</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.183170498351816</v>
+        <v>-0.183138885051192</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0251295208304916</v>
+        <v>0.0247441006812424</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.159904486209743</v>
+        <v>-0.159412329408442</v>
       </c>
       <c r="J16" t="n">
-        <v>0.116772643949285</v>
+        <v>0.116565690852594</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0119581560595007</v>
+        <v>0.0119504585548116</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.104496176733664</v>
+        <v>-0.104690962120098</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.0237422018019133</v>
+        <v>-0.0239848944283637</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.0830269621029915</v>
+        <v>-0.0833357880195742</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.0451060311920404</v>
+        <v>-0.0454498625649079</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.0026901507699347</v>
+        <v>-0.00303476235776304</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.000000353310002143559</v>
+        <v>0.000000979346391316582</v>
       </c>
       <c r="R16" t="n">
-        <v>0.000292375799441968</v>
+        <v>0.000257692928558928</v>
       </c>
       <c r="S16" t="n">
-        <v>0.00749122218944065</v>
+        <v>0.00880243919000778</v>
       </c>
       <c r="T16" t="n">
-        <v>-0.0783053880117549</v>
+        <v>-0.0778968636661253</v>
       </c>
       <c r="U16" t="n">
         <v>-0.0355029585798816</v>
@@ -9843,58 +9843,58 @@
         <v>182</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.100572606497597</v>
+        <v>-0.0806168484289372</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0101215439207132</v>
+        <v>-0.032167116432603</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0097535761738059</v>
+        <v>0.0569323397865769</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0471419794566798</v>
+        <v>0.0453878502339106</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.0787406550966585</v>
+        <v>-0.0791757200172313</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0969580767589227</v>
+        <v>0.0960404193940171</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0201729763459661</v>
+        <v>0.0203274737094101</v>
       </c>
       <c r="J17" t="n">
-        <v>0.109110508091961</v>
+        <v>0.108718943462187</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.0300147303798032</v>
+        <v>-0.0301968619005636</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.0407066562314856</v>
+        <v>-0.0411297725284914</v>
       </c>
       <c r="M17" t="n">
-        <v>0.00294586450743409</v>
+        <v>0.00251464589654839</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.0691524947352429</v>
+        <v>-0.0691926291429433</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.0070044218109731</v>
+        <v>-0.00704750516964336</v>
       </c>
       <c r="P17" t="n">
-        <v>0.0501927537154515</v>
+        <v>0.0501473698331767</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.000292375799441968</v>
+        <v>0.000257692928558928</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.0000000125076047297057</v>
+        <v>0.000000559431399427268</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.00070161966057114</v>
+        <v>-0.000710831026605518</v>
       </c>
       <c r="T17" t="n">
-        <v>0.00455642320782856</v>
+        <v>0.00453454053115093</v>
       </c>
       <c r="U17" t="n">
         <v>-0.0236686390532546</v>
@@ -9911,58 +9911,58 @@
         <v>182</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.154228083077637</v>
+        <v>-0.146615446672422</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.0704296822485841</v>
+        <v>-0.106518222676361</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.0710357459544321</v>
+        <v>-0.0456055756724959</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0362766680902585</v>
+        <v>0.0352517939618924</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.0499045325044247</v>
+        <v>-0.0498649686281706</v>
       </c>
       <c r="H18" t="n">
-        <v>0.115117993408842</v>
+        <v>0.114720612994307</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.0164720557211885</v>
+        <v>-0.0159507334096235</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0813833007990055</v>
+        <v>0.0811685438417549</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.079303951928996</v>
+        <v>-0.0793096512478606</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.131565440741613</v>
+        <v>-0.131766825861197</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.104184447735608</v>
+        <v>-0.104436673840535</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.0803975158494617</v>
+        <v>-0.0807254188493869</v>
       </c>
       <c r="O18" t="n">
-        <v>0.0090610214565825</v>
+        <v>0.00869592875566119</v>
       </c>
       <c r="P18" t="n">
-        <v>0.0702477803425857</v>
+        <v>0.0698818892637274</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.00749122218944065</v>
+        <v>0.00880243919000778</v>
       </c>
       <c r="R18" t="n">
-        <v>-0.000701619660570918</v>
+        <v>-0.000710831026605518</v>
       </c>
       <c r="S18" t="n">
-        <v>-0.000000163381678852659</v>
+        <v>0.000000318916421715443</v>
       </c>
       <c r="T18" t="n">
-        <v>0.0931523374239606</v>
+        <v>0.0935871214229148</v>
       </c>
       <c r="U18" t="n">
         <v>-0.0340236686390534</v>
@@ -9979,61 +9979,61 @@
         <v>182</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0390774383648937</v>
+        <v>0.00160118444030399</v>
       </c>
       <c r="D19" t="n">
-        <v>0.052506309162059</v>
+        <v>-0.0655494847422826</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.106899342896852</v>
+        <v>0.105647213004509</v>
       </c>
       <c r="F19" t="n">
-        <v>0.048650863753514</v>
+        <v>0.0462388706015974</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.0219167362411349</v>
+        <v>-0.0211628818288301</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.0589505983911648</v>
+        <v>-0.0595736730976555</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0184701834414267</v>
+        <v>0.0206666575464087</v>
       </c>
       <c r="J19" t="n">
-        <v>0.18612004558532</v>
+        <v>0.185718515371168</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.304470425917024</v>
+        <v>-0.305535417193547</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0890033252864795</v>
+        <v>0.0882834195172884</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0727004983018812</v>
+        <v>0.0724048795550334</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.0773501159764649</v>
+        <v>-0.0773513044326747</v>
       </c>
       <c r="O19" t="n">
-        <v>0.0109075709798156</v>
+        <v>0.0109071000481</v>
       </c>
       <c r="P19" t="n">
-        <v>0.0321260979613265</v>
+        <v>0.0321244528783059</v>
       </c>
       <c r="Q19" t="n">
-        <v>-0.0783053880117549</v>
+        <v>-0.0778968636661253</v>
       </c>
       <c r="R19" t="n">
-        <v>0.00455642320782856</v>
+        <v>0.00453454053115088</v>
       </c>
       <c r="S19" t="n">
-        <v>0.0931523374239606</v>
+        <v>0.0935871214229148</v>
       </c>
       <c r="T19" t="n">
-        <v>0.0025552982320165</v>
+        <v>0.00255419782242683</v>
       </c>
       <c r="U19" t="n">
-        <v>-0.00619080518201483</v>
+        <v>-0.00616625126117168</v>
       </c>
       <c r="V19" t="s">
         <v>200</v>
@@ -10047,37 +10047,37 @@
         <v>182</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.0308040641587419</v>
+        <v>0.0354837503002881</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0207473800733198</v>
+        <v>0.00826663331127642</v>
       </c>
       <c r="E20" t="n">
-        <v>0.016467521133219</v>
+        <v>-0.0137497057955265</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.00662520845256524</v>
+        <v>-0.00651195714769366</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.00473431270944365</v>
+        <v>-0.00474475301001752</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.0368482063929332</v>
+        <v>-0.0368071615718015</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.0039562560951104</v>
+        <v>-0.0040227682756467</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.0644128436040808</v>
+        <v>-0.0643122197128084</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0475224042600565</v>
+        <v>0.0476977330724875</v>
       </c>
       <c r="L20" t="n">
-        <v>0.00262682211849263</v>
+        <v>0.00277741220509125</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.0240302505079618</v>
+        <v>-0.0239408870271467</v>
       </c>
       <c r="N20" t="n">
         <v>-0.0221893491124256</v>
@@ -10098,7 +10098,7 @@
         <v>-0.0340236686390534</v>
       </c>
       <c r="T20" t="n">
-        <v>-0.00619080518201483</v>
+        <v>-0.00616625126117168</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -10214,15 +10214,15 @@
         <v>220</v>
       </c>
       <c r="B12" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B13" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14">
@@ -10278,7 +10278,7 @@
         <v>233</v>
       </c>
       <c r="B20" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21">
@@ -10286,7 +10286,7 @@
         <v>234</v>
       </c>
       <c r="B21" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22">

--- a/frtaltintfit.xlsx
+++ b/frtaltintfit.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="319">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -198,6 +198,9 @@
     <t xml:space="preserve">21</t>
   </si>
   <si>
+    <t xml:space="preserve">d3</t>
+  </si>
+  <si>
     <t xml:space="preserve">22</t>
   </si>
   <si>
@@ -213,6 +216,9 @@
     <t xml:space="preserve">25</t>
   </si>
   <si>
+    <t xml:space="preserve">d1</t>
+  </si>
+  <si>
     <t xml:space="preserve">26</t>
   </si>
   <si>
@@ -228,6 +234,9 @@
     <t xml:space="preserve">29</t>
   </si>
   <si>
+    <t xml:space="preserve">d2</t>
+  </si>
+  <si>
     <t xml:space="preserve">30</t>
   </si>
   <si>
@@ -439,6 +448,42 @@
   </si>
   <si>
     <t xml:space="preserve">a3*a2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind1+d3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind2+d3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind3+d1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind4+d2</t>
   </si>
   <si>
     <t xml:space="preserve">est.std</t>
@@ -1988,7 +2033,7 @@
         <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F22" t="n">
         <v>-0.07934135792143</v>
@@ -2011,7 +2056,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B23" t="s">
         <v>52</v>
@@ -2046,7 +2091,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B24" t="s">
         <v>52</v>
@@ -2081,7 +2126,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B25" t="s">
         <v>29</v>
@@ -2093,7 +2138,7 @@
         <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F25" t="n">
         <v>0.110524754626786</v>
@@ -2116,7 +2161,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B26" t="s">
         <v>29</v>
@@ -2128,7 +2173,7 @@
         <v>58</v>
       </c>
       <c r="E26" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="F26" t="n">
         <v>-0.0257545760988791</v>
@@ -2151,7 +2196,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B27" t="s">
         <v>29</v>
@@ -2186,7 +2231,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
@@ -2221,7 +2266,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B29" t="s">
         <v>20</v>
@@ -2233,7 +2278,7 @@
         <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F29" t="n">
         <v>-0.156926716109571</v>
@@ -2256,7 +2301,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B30" t="s">
         <v>20</v>
@@ -2268,7 +2313,7 @@
         <v>58</v>
       </c>
       <c r="E30" t="s">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="F30" t="n">
         <v>-0.028430299898707</v>
@@ -2291,7 +2336,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B31" t="s">
         <v>20</v>
@@ -2326,7 +2371,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B32" t="s">
         <v>20</v>
@@ -2361,7 +2406,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B33" t="s">
         <v>12</v>
@@ -2373,7 +2418,7 @@
         <v>58</v>
       </c>
       <c r="E33" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F33" t="n">
         <v>0.63321292779293</v>
@@ -2396,7 +2441,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B34" t="s">
         <v>12</v>
@@ -2431,7 +2476,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B35" t="s">
         <v>12</v>
@@ -2466,13 +2511,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B36" t="s">
         <v>20</v>
       </c>
       <c r="C36" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D36" t="s">
         <v>29</v>
@@ -2501,13 +2546,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B37" t="s">
         <v>14</v>
       </c>
       <c r="C37" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D37" t="s">
         <v>14</v>
@@ -2536,13 +2581,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B38" t="s">
         <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D38" t="s">
         <v>16</v>
@@ -2571,13 +2616,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B39" t="s">
         <v>18</v>
       </c>
       <c r="C39" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D39" t="s">
         <v>18</v>
@@ -2606,13 +2651,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B40" t="s">
         <v>21</v>
       </c>
       <c r="C40" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D40" t="s">
         <v>21</v>
@@ -2641,13 +2686,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B41" t="s">
         <v>23</v>
       </c>
       <c r="C41" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D41" t="s">
         <v>23</v>
@@ -2676,13 +2721,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B42" t="s">
         <v>25</v>
       </c>
       <c r="C42" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D42" t="s">
         <v>25</v>
@@ -2711,13 +2756,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B43" t="s">
         <v>27</v>
       </c>
       <c r="C43" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D43" t="s">
         <v>27</v>
@@ -2746,13 +2791,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B44" t="s">
         <v>30</v>
       </c>
       <c r="C44" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D44" t="s">
         <v>30</v>
@@ -2781,13 +2826,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B45" t="s">
         <v>32</v>
       </c>
       <c r="C45" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D45" t="s">
         <v>32</v>
@@ -2816,13 +2861,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B46" t="s">
         <v>34</v>
       </c>
       <c r="C46" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D46" t="s">
         <v>34</v>
@@ -2851,13 +2896,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B47" t="s">
         <v>36</v>
       </c>
       <c r="C47" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D47" t="s">
         <v>36</v>
@@ -2886,13 +2931,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B48" t="s">
         <v>39</v>
       </c>
       <c r="C48" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D48" t="s">
         <v>39</v>
@@ -2921,13 +2966,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B49" t="s">
         <v>41</v>
       </c>
       <c r="C49" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D49" t="s">
         <v>41</v>
@@ -2956,13 +3001,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B50" t="s">
         <v>43</v>
       </c>
       <c r="C50" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D50" t="s">
         <v>43</v>
@@ -2991,13 +3036,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B51" t="s">
         <v>46</v>
       </c>
       <c r="C51" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D51" t="s">
         <v>46</v>
@@ -3026,13 +3071,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B52" t="s">
         <v>48</v>
       </c>
       <c r="C52" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D52" t="s">
         <v>48</v>
@@ -3061,13 +3106,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B53" t="s">
         <v>50</v>
       </c>
       <c r="C53" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D53" t="s">
         <v>50</v>
@@ -3096,13 +3141,13 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B54" t="s">
         <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D54" t="s">
         <v>52</v>
@@ -3131,13 +3176,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B55" t="s">
         <v>12</v>
       </c>
       <c r="C55" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D55" t="s">
         <v>12</v>
@@ -3166,13 +3211,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B56" t="s">
         <v>20</v>
       </c>
       <c r="C56" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D56" t="s">
         <v>20</v>
@@ -3201,13 +3246,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B57" t="s">
         <v>29</v>
       </c>
       <c r="C57" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D57" t="s">
         <v>29</v>
@@ -3236,13 +3281,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B58" t="s">
         <v>38</v>
       </c>
       <c r="C58" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D58" t="s">
         <v>38</v>
@@ -3271,13 +3316,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B59" t="s">
         <v>45</v>
       </c>
       <c r="C59" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D59" t="s">
         <v>45</v>
@@ -3306,13 +3351,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B60" t="s">
         <v>38</v>
       </c>
       <c r="C60" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D60" t="s">
         <v>45</v>
@@ -3341,13 +3386,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B61" t="s">
         <v>58</v>
       </c>
       <c r="C61" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D61" t="s">
         <v>58</v>
@@ -3372,13 +3417,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B62" t="s">
         <v>14</v>
       </c>
       <c r="C62" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D62" t="s">
         <v>0</v>
@@ -3407,13 +3452,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B63" t="s">
         <v>16</v>
       </c>
       <c r="C63" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D63" t="s">
         <v>0</v>
@@ -3442,13 +3487,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B64" t="s">
         <v>18</v>
       </c>
       <c r="C64" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D64" t="s">
         <v>0</v>
@@ -3477,13 +3522,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B65" t="s">
         <v>21</v>
       </c>
       <c r="C65" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D65" t="s">
         <v>0</v>
@@ -3512,13 +3557,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B66" t="s">
         <v>23</v>
       </c>
       <c r="C66" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D66" t="s">
         <v>0</v>
@@ -3547,13 +3592,13 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B67" t="s">
         <v>25</v>
       </c>
       <c r="C67" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D67" t="s">
         <v>0</v>
@@ -3582,13 +3627,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B68" t="s">
         <v>27</v>
       </c>
       <c r="C68" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D68" t="s">
         <v>0</v>
@@ -3617,13 +3662,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B69" t="s">
         <v>30</v>
       </c>
       <c r="C69" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D69" t="s">
         <v>0</v>
@@ -3652,13 +3697,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B70" t="s">
         <v>32</v>
       </c>
       <c r="C70" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D70" t="s">
         <v>0</v>
@@ -3687,13 +3732,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B71" t="s">
         <v>34</v>
       </c>
       <c r="C71" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D71" t="s">
         <v>0</v>
@@ -3722,13 +3767,13 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B72" t="s">
         <v>36</v>
       </c>
       <c r="C72" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D72" t="s">
         <v>0</v>
@@ -3757,13 +3802,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B73" t="s">
         <v>39</v>
       </c>
       <c r="C73" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D73" t="s">
         <v>0</v>
@@ -3792,13 +3837,13 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B74" t="s">
         <v>41</v>
       </c>
       <c r="C74" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D74" t="s">
         <v>0</v>
@@ -3827,13 +3872,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B75" t="s">
         <v>43</v>
       </c>
       <c r="C75" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D75" t="s">
         <v>0</v>
@@ -3862,13 +3907,13 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B76" t="s">
         <v>46</v>
       </c>
       <c r="C76" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D76" t="s">
         <v>0</v>
@@ -3897,13 +3942,13 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B77" t="s">
         <v>48</v>
       </c>
       <c r="C77" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D77" t="s">
         <v>0</v>
@@ -3932,13 +3977,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B78" t="s">
         <v>50</v>
       </c>
       <c r="C78" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D78" t="s">
         <v>0</v>
@@ -3967,13 +4012,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B79" t="s">
         <v>52</v>
       </c>
       <c r="C79" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D79" t="s">
         <v>0</v>
@@ -4002,13 +4047,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B80" t="s">
         <v>58</v>
       </c>
       <c r="C80" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D80" t="s">
         <v>0</v>
@@ -4033,13 +4078,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B81" t="s">
         <v>12</v>
       </c>
       <c r="C81" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D81" t="s">
         <v>0</v>
@@ -4064,13 +4109,13 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B82" t="s">
         <v>20</v>
       </c>
       <c r="C82" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D82" t="s">
         <v>0</v>
@@ -4095,13 +4140,13 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B83" t="s">
         <v>29</v>
       </c>
       <c r="C83" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D83" t="s">
         <v>0</v>
@@ -4126,13 +4171,13 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B84" t="s">
         <v>38</v>
       </c>
       <c r="C84" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D84" t="s">
         <v>0</v>
@@ -4157,13 +4202,13 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B85" t="s">
         <v>45</v>
       </c>
       <c r="C85" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D85" t="s">
         <v>0</v>
@@ -4188,19 +4233,19 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B86" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C86" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D86" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E86" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F86" t="n">
         <v>-0.0537091174006266</v>
@@ -4223,19 +4268,19 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B87" t="s">
+        <v>136</v>
+      </c>
+      <c r="C87" t="s">
         <v>133</v>
       </c>
-      <c r="C87" t="s">
-        <v>130</v>
-      </c>
       <c r="D87" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E87" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F87" t="n">
         <v>-0.0926096880208608</v>
@@ -4258,19 +4303,19 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B88" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C88" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D88" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E88" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F88" t="n">
         <v>0.0699857034708226</v>
@@ -4293,19 +4338,19 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B89" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C89" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D89" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E89" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F89" t="n">
         <v>-0.0993680253566716</v>
@@ -4324,6 +4369,146 @@
       </c>
       <c r="K89" t="n">
         <v>-0.017534975944302</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>144</v>
+      </c>
+      <c r="B90" t="s">
+        <v>145</v>
+      </c>
+      <c r="C90" t="s">
+        <v>133</v>
+      </c>
+      <c r="D90" t="s">
+        <v>146</v>
+      </c>
+      <c r="E90" t="s">
+        <v>145</v>
+      </c>
+      <c r="F90" t="n">
+        <v>-0.133050475322057</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.0703384192811987</v>
+      </c>
+      <c r="H90" t="n">
+        <v>-1.89157613551348</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.0585474780242063</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-0.272924044855893</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.00431276275598208</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>147</v>
+      </c>
+      <c r="B91" t="s">
+        <v>148</v>
+      </c>
+      <c r="C91" t="s">
+        <v>133</v>
+      </c>
+      <c r="D91" t="s">
+        <v>149</v>
+      </c>
+      <c r="E91" t="s">
+        <v>148</v>
+      </c>
+      <c r="F91" t="n">
+        <v>-0.171951045942291</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.0708734011800644</v>
+      </c>
+      <c r="H91" t="n">
+        <v>-2.42617178065751</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.0152590457600279</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-0.311326415976876</v>
+      </c>
+      <c r="K91" t="n">
+        <v>-0.0279970022835354</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>150</v>
+      </c>
+      <c r="B92" t="s">
+        <v>151</v>
+      </c>
+      <c r="C92" t="s">
+        <v>133</v>
+      </c>
+      <c r="D92" t="s">
+        <v>152</v>
+      </c>
+      <c r="E92" t="s">
+        <v>151</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.0442311273719435</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.132880726667362</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.332863376663091</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.739237415664965</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-0.226908559288155</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.288634746691195</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>153</v>
+      </c>
+      <c r="B93" t="s">
+        <v>154</v>
+      </c>
+      <c r="C93" t="s">
+        <v>133</v>
+      </c>
+      <c r="D93" t="s">
+        <v>155</v>
+      </c>
+      <c r="E93" t="s">
+        <v>154</v>
+      </c>
+      <c r="F93" t="n">
+        <v>-0.127798325255379</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.161084238593051</v>
+      </c>
+      <c r="H93" t="n">
+        <v>-0.793363313329725</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.427566178762856</v>
+      </c>
+      <c r="J93" t="n">
+        <v>-0.446672325515165</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.186149384454248</v>
       </c>
     </row>
   </sheetData>
@@ -4357,7 +4542,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
@@ -5089,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F22" t="n">
         <v>-0.0721178588628447</v>
@@ -5112,7 +5297,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B23" t="s">
         <v>52</v>
@@ -5147,7 +5332,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B24" t="s">
         <v>52</v>
@@ -5182,7 +5367,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B25" t="s">
         <v>29</v>
@@ -5194,7 +5379,7 @@
         <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F25" t="n">
         <v>0.16170404732059</v>
@@ -5217,7 +5402,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B26" t="s">
         <v>29</v>
@@ -5229,7 +5414,7 @@
         <v>58</v>
       </c>
       <c r="E26" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="F26" t="n">
         <v>-0.0119572609517481</v>
@@ -5252,7 +5437,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B27" t="s">
         <v>29</v>
@@ -5287,7 +5472,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
@@ -5322,7 +5507,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B29" t="s">
         <v>20</v>
@@ -5334,7 +5519,7 @@
         <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F29" t="n">
         <v>-0.172452737135348</v>
@@ -5357,7 +5542,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B30" t="s">
         <v>20</v>
@@ -5369,7 +5554,7 @@
         <v>58</v>
       </c>
       <c r="E30" t="s">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="F30" t="n">
         <v>-0.00991449542018819</v>
@@ -5392,7 +5577,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B31" t="s">
         <v>20</v>
@@ -5427,7 +5612,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B32" t="s">
         <v>20</v>
@@ -5462,7 +5647,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B33" t="s">
         <v>12</v>
@@ -5474,7 +5659,7 @@
         <v>58</v>
       </c>
       <c r="E33" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F33" t="n">
         <v>0.200939697165261</v>
@@ -5497,7 +5682,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B34" t="s">
         <v>12</v>
@@ -5532,7 +5717,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B35" t="s">
         <v>12</v>
@@ -5567,13 +5752,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B36" t="s">
         <v>20</v>
       </c>
       <c r="C36" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D36" t="s">
         <v>29</v>
@@ -5602,13 +5787,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B37" t="s">
         <v>14</v>
       </c>
       <c r="C37" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D37" t="s">
         <v>14</v>
@@ -5637,13 +5822,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B38" t="s">
         <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D38" t="s">
         <v>16</v>
@@ -5672,13 +5857,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B39" t="s">
         <v>18</v>
       </c>
       <c r="C39" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D39" t="s">
         <v>18</v>
@@ -5707,13 +5892,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B40" t="s">
         <v>21</v>
       </c>
       <c r="C40" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D40" t="s">
         <v>21</v>
@@ -5742,13 +5927,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B41" t="s">
         <v>23</v>
       </c>
       <c r="C41" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D41" t="s">
         <v>23</v>
@@ -5777,13 +5962,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B42" t="s">
         <v>25</v>
       </c>
       <c r="C42" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D42" t="s">
         <v>25</v>
@@ -5812,13 +5997,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B43" t="s">
         <v>27</v>
       </c>
       <c r="C43" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D43" t="s">
         <v>27</v>
@@ -5847,13 +6032,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B44" t="s">
         <v>30</v>
       </c>
       <c r="C44" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D44" t="s">
         <v>30</v>
@@ -5882,13 +6067,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B45" t="s">
         <v>32</v>
       </c>
       <c r="C45" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D45" t="s">
         <v>32</v>
@@ -5917,13 +6102,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B46" t="s">
         <v>34</v>
       </c>
       <c r="C46" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D46" t="s">
         <v>34</v>
@@ -5952,13 +6137,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B47" t="s">
         <v>36</v>
       </c>
       <c r="C47" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D47" t="s">
         <v>36</v>
@@ -5987,13 +6172,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B48" t="s">
         <v>39</v>
       </c>
       <c r="C48" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D48" t="s">
         <v>39</v>
@@ -6022,13 +6207,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B49" t="s">
         <v>41</v>
       </c>
       <c r="C49" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D49" t="s">
         <v>41</v>
@@ -6057,13 +6242,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B50" t="s">
         <v>43</v>
       </c>
       <c r="C50" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D50" t="s">
         <v>43</v>
@@ -6092,13 +6277,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B51" t="s">
         <v>46</v>
       </c>
       <c r="C51" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D51" t="s">
         <v>46</v>
@@ -6127,13 +6312,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B52" t="s">
         <v>48</v>
       </c>
       <c r="C52" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D52" t="s">
         <v>48</v>
@@ -6162,13 +6347,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B53" t="s">
         <v>50</v>
       </c>
       <c r="C53" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D53" t="s">
         <v>50</v>
@@ -6197,13 +6382,13 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B54" t="s">
         <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D54" t="s">
         <v>52</v>
@@ -6232,13 +6417,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B55" t="s">
         <v>12</v>
       </c>
       <c r="C55" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D55" t="s">
         <v>12</v>
@@ -6267,13 +6452,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B56" t="s">
         <v>20</v>
       </c>
       <c r="C56" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D56" t="s">
         <v>20</v>
@@ -6302,13 +6487,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B57" t="s">
         <v>29</v>
       </c>
       <c r="C57" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D57" t="s">
         <v>29</v>
@@ -6337,13 +6522,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B58" t="s">
         <v>38</v>
       </c>
       <c r="C58" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D58" t="s">
         <v>38</v>
@@ -6368,13 +6553,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B59" t="s">
         <v>45</v>
       </c>
       <c r="C59" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D59" t="s">
         <v>45</v>
@@ -6399,13 +6584,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B60" t="s">
         <v>38</v>
       </c>
       <c r="C60" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D60" t="s">
         <v>45</v>
@@ -6434,13 +6619,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B61" t="s">
         <v>58</v>
       </c>
       <c r="C61" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D61" t="s">
         <v>58</v>
@@ -6465,13 +6650,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B62" t="s">
         <v>14</v>
       </c>
       <c r="C62" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D62" t="s">
         <v>0</v>
@@ -6500,13 +6685,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B63" t="s">
         <v>16</v>
       </c>
       <c r="C63" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D63" t="s">
         <v>0</v>
@@ -6535,13 +6720,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B64" t="s">
         <v>18</v>
       </c>
       <c r="C64" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D64" t="s">
         <v>0</v>
@@ -6570,13 +6755,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B65" t="s">
         <v>21</v>
       </c>
       <c r="C65" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D65" t="s">
         <v>0</v>
@@ -6605,13 +6790,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B66" t="s">
         <v>23</v>
       </c>
       <c r="C66" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D66" t="s">
         <v>0</v>
@@ -6640,13 +6825,13 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B67" t="s">
         <v>25</v>
       </c>
       <c r="C67" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D67" t="s">
         <v>0</v>
@@ -6675,13 +6860,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B68" t="s">
         <v>27</v>
       </c>
       <c r="C68" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D68" t="s">
         <v>0</v>
@@ -6710,13 +6895,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B69" t="s">
         <v>30</v>
       </c>
       <c r="C69" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D69" t="s">
         <v>0</v>
@@ -6745,13 +6930,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B70" t="s">
         <v>32</v>
       </c>
       <c r="C70" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D70" t="s">
         <v>0</v>
@@ -6780,13 +6965,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B71" t="s">
         <v>34</v>
       </c>
       <c r="C71" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D71" t="s">
         <v>0</v>
@@ -6815,13 +7000,13 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B72" t="s">
         <v>36</v>
       </c>
       <c r="C72" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D72" t="s">
         <v>0</v>
@@ -6850,13 +7035,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B73" t="s">
         <v>39</v>
       </c>
       <c r="C73" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D73" t="s">
         <v>0</v>
@@ -6885,13 +7070,13 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B74" t="s">
         <v>41</v>
       </c>
       <c r="C74" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D74" t="s">
         <v>0</v>
@@ -6920,13 +7105,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B75" t="s">
         <v>43</v>
       </c>
       <c r="C75" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D75" t="s">
         <v>0</v>
@@ -6955,13 +7140,13 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B76" t="s">
         <v>46</v>
       </c>
       <c r="C76" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D76" t="s">
         <v>0</v>
@@ -6990,13 +7175,13 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B77" t="s">
         <v>48</v>
       </c>
       <c r="C77" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D77" t="s">
         <v>0</v>
@@ -7025,13 +7210,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B78" t="s">
         <v>50</v>
       </c>
       <c r="C78" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D78" t="s">
         <v>0</v>
@@ -7060,13 +7245,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B79" t="s">
         <v>52</v>
       </c>
       <c r="C79" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D79" t="s">
         <v>0</v>
@@ -7095,13 +7280,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B80" t="s">
         <v>58</v>
       </c>
       <c r="C80" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D80" t="s">
         <v>0</v>
@@ -7126,13 +7311,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B81" t="s">
         <v>12</v>
       </c>
       <c r="C81" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D81" t="s">
         <v>0</v>
@@ -7157,13 +7342,13 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B82" t="s">
         <v>20</v>
       </c>
       <c r="C82" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D82" t="s">
         <v>0</v>
@@ -7188,13 +7373,13 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B83" t="s">
         <v>29</v>
       </c>
       <c r="C83" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D83" t="s">
         <v>0</v>
@@ -7219,13 +7404,13 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B84" t="s">
         <v>38</v>
       </c>
       <c r="C84" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D84" t="s">
         <v>0</v>
@@ -7250,13 +7435,13 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B85" t="s">
         <v>45</v>
       </c>
       <c r="C85" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D85" t="s">
         <v>0</v>
@@ -7281,19 +7466,19 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B86" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C86" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D86" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E86" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F86" t="n">
         <v>-0.0488192621076902</v>
@@ -7316,19 +7501,19 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B87" t="s">
+        <v>136</v>
+      </c>
+      <c r="C87" t="s">
         <v>133</v>
       </c>
-      <c r="C87" t="s">
-        <v>130</v>
-      </c>
       <c r="D87" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E87" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F87" t="n">
         <v>-0.0841781964033739</v>
@@ -7351,19 +7536,19 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B88" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C88" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D88" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E88" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F88" t="n">
         <v>0.0324927622989964</v>
@@ -7386,19 +7571,19 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B89" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C89" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D89" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E89" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F89" t="n">
         <v>-0.0346526007752971</v>
@@ -7417,6 +7602,146 @@
       </c>
       <c r="K89" t="n">
         <v>-0.00162303711682025</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>144</v>
+      </c>
+      <c r="B90" t="s">
+        <v>145</v>
+      </c>
+      <c r="C90" t="s">
+        <v>133</v>
+      </c>
+      <c r="D90" t="s">
+        <v>146</v>
+      </c>
+      <c r="E90" t="s">
+        <v>145</v>
+      </c>
+      <c r="F90" t="n">
+        <v>-0.120937120970535</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.0634839061143155</v>
+      </c>
+      <c r="H90" t="n">
+        <v>-1.90500440777484</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.0567794981429672</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-0.245363290552515</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.00348904861144547</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>147</v>
+      </c>
+      <c r="B91" t="s">
+        <v>148</v>
+      </c>
+      <c r="C91" t="s">
+        <v>133</v>
+      </c>
+      <c r="D91" t="s">
+        <v>149</v>
+      </c>
+      <c r="E91" t="s">
+        <v>148</v>
+      </c>
+      <c r="F91" t="n">
+        <v>-0.156296055266219</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.0630224633223206</v>
+      </c>
+      <c r="H91" t="n">
+        <v>-2.48000549370566</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.0131380358479805</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-0.279817813594963</v>
+      </c>
+      <c r="K91" t="n">
+        <v>-0.0327742969374738</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>150</v>
+      </c>
+      <c r="B92" t="s">
+        <v>151</v>
+      </c>
+      <c r="C92" t="s">
+        <v>133</v>
+      </c>
+      <c r="D92" t="s">
+        <v>152</v>
+      </c>
+      <c r="E92" t="s">
+        <v>151</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.0205355013472482</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.0621123743849145</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.330618520876184</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.740932654630678</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-0.101202515441452</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.142273518135949</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>153</v>
+      </c>
+      <c r="B93" t="s">
+        <v>154</v>
+      </c>
+      <c r="C93" t="s">
+        <v>133</v>
+      </c>
+      <c r="D93" t="s">
+        <v>155</v>
+      </c>
+      <c r="E93" t="s">
+        <v>154</v>
+      </c>
+      <c r="F93" t="n">
+        <v>-0.0445670961954853</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.0561921941681559</v>
+      </c>
+      <c r="H93" t="n">
+        <v>-0.793118988415325</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.427708500726491</v>
+      </c>
+      <c r="J93" t="n">
+        <v>-0.154701772977353</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.0655675805863819</v>
       </c>
     </row>
   </sheetData>
@@ -7438,64 +7763,64 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="C1" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="D1" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="E1" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="F1" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="G1" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="H1" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="I1" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="J1" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="K1" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="L1" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="M1" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="N1" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="O1" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="P1" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="Q1" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="R1" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="S1" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="T1" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="U1" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2">
@@ -7560,7 +7885,7 @@
         <v>0.158303231948232</v>
       </c>
       <c r="U2" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3">
@@ -7625,7 +7950,7 @@
         <v>0.176644609292274</v>
       </c>
       <c r="U3" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4">
@@ -7690,7 +8015,7 @@
         <v>0.157240830055881</v>
       </c>
       <c r="U4" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5">
@@ -7755,7 +8080,7 @@
         <v>-0.0319495813138447</v>
       </c>
       <c r="U5" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6">
@@ -7820,7 +8145,7 @@
         <v>-0.0292789156290354</v>
       </c>
       <c r="U6" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7">
@@ -7885,7 +8210,7 @@
         <v>-0.0268023058838199</v>
       </c>
       <c r="U7" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8">
@@ -7950,7 +8275,7 @@
         <v>-0.0285216104225782</v>
       </c>
       <c r="U8" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9">
@@ -8015,7 +8340,7 @@
         <v>0.0110577818429859</v>
       </c>
       <c r="U9" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10">
@@ -8080,7 +8405,7 @@
         <v>0.0144324444423054</v>
       </c>
       <c r="U10" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11">
@@ -8145,7 +8470,7 @@
         <v>0.0149740670848494</v>
       </c>
       <c r="U11" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12">
@@ -8210,7 +8535,7 @@
         <v>0.0106272775596914</v>
       </c>
       <c r="U12" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13">
@@ -8275,7 +8600,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14">
@@ -8340,7 +8665,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15">
@@ -8405,7 +8730,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16">
@@ -8470,7 +8795,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17">
@@ -8535,7 +8860,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18">
@@ -8600,7 +8925,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19">
@@ -8665,7 +8990,7 @@
         <v>-0.051526056431136</v>
       </c>
       <c r="U19" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20">
@@ -8730,7 +9055,7 @@
         <v>0.25</v>
       </c>
       <c r="U20" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -8752,67 +9077,67 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="C1" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="D1" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="E1" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="F1" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="G1" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="H1" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="I1" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="J1" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="K1" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="L1" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="M1" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="N1" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="O1" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="P1" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="Q1" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="R1" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="S1" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="T1" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="U1" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="V1" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2">
@@ -8820,7 +9145,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="C2" t="n">
         <v>0.00831075684291038</v>
@@ -8880,7 +9205,7 @@
         <v>0.0354837503002881</v>
       </c>
       <c r="V2" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3">
@@ -8888,7 +9213,7 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="C3" t="n">
         <v>-0.0107421872808433</v>
@@ -8948,7 +9273,7 @@
         <v>0.00826663331127642</v>
       </c>
       <c r="V3" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4">
@@ -8956,7 +9281,7 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="C4" t="n">
         <v>0.0437609990387604</v>
@@ -9016,7 +9341,7 @@
         <v>-0.0137497057955265</v>
       </c>
       <c r="V4" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5">
@@ -9024,7 +9349,7 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="C5" t="n">
         <v>-0.134426460905322</v>
@@ -9084,7 +9409,7 @@
         <v>-0.00651195714769366</v>
       </c>
       <c r="V5" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6">
@@ -9092,7 +9417,7 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="C6" t="n">
         <v>0.140579367013956</v>
@@ -9152,7 +9477,7 @@
         <v>-0.00474475301001752</v>
       </c>
       <c r="V6" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7">
@@ -9160,7 +9485,7 @@
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="C7" t="n">
         <v>0.158668379600234</v>
@@ -9220,7 +9545,7 @@
         <v>-0.0368071615718015</v>
       </c>
       <c r="V7" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8">
@@ -9228,7 +9553,7 @@
         <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="C8" t="n">
         <v>0.0987721424507523</v>
@@ -9288,7 +9613,7 @@
         <v>-0.0040227682756467</v>
       </c>
       <c r="V8" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9">
@@ -9296,7 +9621,7 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="C9" t="n">
         <v>-0.293637913049213</v>
@@ -9356,7 +9681,7 @@
         <v>-0.0643122197128084</v>
       </c>
       <c r="V9" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10">
@@ -9364,7 +9689,7 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="C10" t="n">
         <v>0.45021165135738</v>
@@ -9424,7 +9749,7 @@
         <v>0.0476977330724875</v>
       </c>
       <c r="V10" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11">
@@ -9432,7 +9757,7 @@
         <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="C11" t="n">
         <v>-0.228564623572198</v>
@@ -9492,7 +9817,7 @@
         <v>0.00277741220509125</v>
       </c>
       <c r="V11" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12">
@@ -9500,7 +9825,7 @@
         <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="C12" t="n">
         <v>-0.020329261569233</v>
@@ -9560,7 +9885,7 @@
         <v>-0.0239408870271467</v>
       </c>
       <c r="V12" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13">
@@ -9568,7 +9893,7 @@
         <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="C13" t="n">
         <v>0.0420846748829352</v>
@@ -9628,7 +9953,7 @@
         <v>-0.0221893491124256</v>
       </c>
       <c r="V13" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14">
@@ -9636,7 +9961,7 @@
         <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="C14" t="n">
         <v>0.0198416776828196</v>
@@ -9696,7 +10021,7 @@
         <v>-0.0162721893491122</v>
       </c>
       <c r="V14" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15">
@@ -9704,7 +10029,7 @@
         <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="C15" t="n">
         <v>-0.0416023676852488</v>
@@ -9764,7 +10089,7 @@
         <v>-0.00147928994082847</v>
       </c>
       <c r="V15" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16">
@@ -9772,7 +10097,7 @@
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="C16" t="n">
         <v>0.0129126159628472</v>
@@ -9832,7 +10157,7 @@
         <v>-0.0355029585798816</v>
       </c>
       <c r="V16" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17">
@@ -9840,7 +10165,7 @@
         <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="C17" t="n">
         <v>-0.0806168484289372</v>
@@ -9900,7 +10225,7 @@
         <v>-0.0236686390532546</v>
       </c>
       <c r="V17" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18">
@@ -9908,7 +10233,7 @@
         <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="C18" t="n">
         <v>-0.146615446672422</v>
@@ -9968,7 +10293,7 @@
         <v>-0.0340236686390534</v>
       </c>
       <c r="V18" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
     </row>
     <row r="19">
@@ -9976,7 +10301,7 @@
         <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="C19" t="n">
         <v>0.00160118444030399</v>
@@ -10036,7 +10361,7 @@
         <v>-0.00616625126117168</v>
       </c>
       <c r="V19" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20">
@@ -10044,7 +10369,7 @@
         <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="C20" t="n">
         <v>0.0354837503002881</v>
@@ -10104,7 +10429,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -10126,39 +10451,39 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="B3" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="B4" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="B5" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6">
@@ -10166,407 +10491,407 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="B8" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="B9" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="B10" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="B11" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="B12" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="B13" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="B14" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="B15" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="B16" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="B17" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="B18" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>247</v>
+      </c>
+      <c r="B19" t="s">
         <v>232</v>
-      </c>
-      <c r="B19" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="B20" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="B21" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="B22" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="B23" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="B24" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="B25" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="B26" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="B27" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="B28" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="B29" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B30" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="B31" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="B32" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="B33" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="B34" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="B35" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="B36" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="B37" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="B38" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="B39" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="B40" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="B41" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="B42" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="B43" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="B44" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="B45" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="B46" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="B47" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="B48" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="B49" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="B50" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="B51" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="B52" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="B53" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="B54" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="B55" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="B56" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
